--- a/2023.xlsx
+++ b/2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A570C-57EE-4316-8D33-9A37FF508A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FC8B4B-3609-4D6B-9BB5-7B58C70C4A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -192,17 +192,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -252,13 +241,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,12 +470,12 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" style="19"/>
+    <col min="2" max="2" width="12.6640625" style="18"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -494,7 +483,9 @@
       <c r="A1" s="14">
         <v>2.4091800000000001</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="19">
+        <v>2.4154</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="6"/>
@@ -510,7 +501,9 @@
       <c r="A2" s="14">
         <v>2.4093800000000001</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19">
+        <v>2.4156200000000001</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="7"/>
@@ -526,7 +519,9 @@
       <c r="A3" s="14">
         <v>2.4095800000000001</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="19">
+        <v>2.4158400000000002</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="7"/>
@@ -542,7 +537,9 @@
       <c r="A4" s="14">
         <v>2.40978</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19">
+        <v>2.4160599999999999</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="7"/>
@@ -558,7 +555,9 @@
       <c r="A5" s="14">
         <v>2.40998</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19">
+        <v>2.41628</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="7"/>
@@ -574,7 +573,9 @@
       <c r="A6" s="14">
         <v>2.41018</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="19">
+        <v>2.4165000000000001</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="7"/>
@@ -590,7 +591,9 @@
       <c r="A7" s="14">
         <v>2.41038</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="19">
+        <v>2.4167200000000002</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="7"/>
@@ -606,7 +609,9 @@
       <c r="A8" s="14">
         <v>2.4105799999999999</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="19">
+        <v>2.4169399999999999</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="7"/>
@@ -622,7 +627,9 @@
       <c r="A9" s="14">
         <v>2.4107799999999999</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="19">
+        <v>2.41716</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="7"/>
@@ -638,7 +645,9 @@
       <c r="A10" s="14">
         <v>2.4109799999999999</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="19">
+        <v>2.4173800000000001</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="7"/>
@@ -651,8 +660,10 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="14">
+        <v>2.4111799999999999</v>
+      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
@@ -666,8 +677,10 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="14">
+        <v>2.4113799999999999</v>
+      </c>
+      <c r="B12" s="17"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="8"/>
@@ -680,8 +693,10 @@
       <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="14">
+        <v>2.4115799999999998</v>
+      </c>
+      <c r="B13" s="17"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="8"/>
@@ -694,8 +709,10 @@
       <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="14">
+        <v>2.4117799999999998</v>
+      </c>
+      <c r="B14" s="17"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="8"/>
@@ -708,8 +725,10 @@
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="14">
+        <v>2.4119799999999998</v>
+      </c>
+      <c r="B15" s="17"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="8"/>
@@ -722,8 +741,10 @@
       <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="14">
+        <v>2.4121800000000002</v>
+      </c>
+      <c r="B16" s="17"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="8"/>
@@ -736,8 +757,10 @@
       <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="14">
+        <v>2.4123800000000002</v>
+      </c>
+      <c r="B17" s="17"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="8"/>
@@ -750,8 +773,10 @@
       <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="14">
+        <v>2.4125800000000002</v>
+      </c>
+      <c r="B18" s="17"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="8"/>
@@ -764,8 +789,10 @@
       <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="14">
+        <v>2.4127800000000001</v>
+      </c>
+      <c r="B19" s="17"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="8"/>
@@ -778,8 +805,10 @@
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="14">
+        <v>2.4129800000000001</v>
+      </c>
+      <c r="B20" s="17"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="8"/>
@@ -792,8 +821,10 @@
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="14">
+        <v>2.4131800000000001</v>
+      </c>
+      <c r="B21" s="17"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8"/>
@@ -806,8 +837,10 @@
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="14">
+        <v>2.4133800000000001</v>
+      </c>
+      <c r="B22" s="17"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="8"/>
@@ -820,8 +853,10 @@
       <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="14">
+        <v>2.4135800000000001</v>
+      </c>
+      <c r="B23" s="17"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="8"/>
@@ -834,8 +869,10 @@
       <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="14">
+        <v>2.41378</v>
+      </c>
+      <c r="B24" s="17"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="8"/>
@@ -848,8 +885,10 @@
       <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="14">
+        <v>2.41398</v>
+      </c>
+      <c r="B25" s="17"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="8"/>
@@ -862,8 +901,10 @@
       <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="14">
+        <v>2.41418</v>
+      </c>
+      <c r="B26" s="17"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="8"/>
@@ -876,8 +917,10 @@
       <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="14">
+        <v>2.41438</v>
+      </c>
+      <c r="B27" s="17"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="8"/>
@@ -890,8 +933,10 @@
       <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="14">
+        <v>2.4145799999999999</v>
+      </c>
+      <c r="B28" s="17"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="8"/>
@@ -904,8 +949,10 @@
       <c r="L28" s="15"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="14">
+        <v>2.4147799999999999</v>
+      </c>
+      <c r="B29" s="17"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="8"/>
@@ -918,8 +965,10 @@
       <c r="L29" s="15"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="14">
+        <v>2.4149799999999999</v>
+      </c>
+      <c r="B30" s="17"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="8"/>
@@ -932,8 +981,10 @@
       <c r="L30" s="15"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="14">
+        <v>2.4151799999999999</v>
+      </c>
+      <c r="B31" s="17"/>
       <c r="C31" s="2"/>
       <c r="D31" s="4"/>
       <c r="E31" s="8"/>

--- a/2023.xlsx
+++ b/2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FC8B4B-3609-4D6B-9BB5-7B58C70C4A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A725C542-6344-4A45-AD01-5D71DF7C5FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -486,7 +486,9 @@
       <c r="B1" s="19">
         <v>2.4154</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="19">
+        <v>2.4215399999999998</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="E1" s="6"/>
       <c r="F1" s="9"/>
@@ -504,7 +506,9 @@
       <c r="B2" s="19">
         <v>2.4156200000000001</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="19">
+        <v>2.4217399999999998</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="7"/>
       <c r="F2" s="9"/>
@@ -522,7 +526,9 @@
       <c r="B3" s="19">
         <v>2.4158400000000002</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="19">
+        <v>2.4219400000000002</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="7"/>
       <c r="F3" s="9"/>
@@ -540,7 +546,9 @@
       <c r="B4" s="19">
         <v>2.4160599999999999</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="19">
+        <v>2.4221400000000002</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="7"/>
       <c r="F4" s="9"/>
@@ -558,7 +566,9 @@
       <c r="B5" s="19">
         <v>2.41628</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="19">
+        <v>2.4223400000000002</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="7"/>
       <c r="F5" s="9"/>
@@ -576,7 +586,9 @@
       <c r="B6" s="19">
         <v>2.4165000000000001</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="19">
+        <v>2.4225400000000001</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="7"/>
       <c r="F6" s="9"/>
@@ -594,7 +606,9 @@
       <c r="B7" s="19">
         <v>2.4167200000000002</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="19">
+        <v>2.4227400000000001</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="7"/>
       <c r="F7" s="9"/>
@@ -612,7 +626,9 @@
       <c r="B8" s="19">
         <v>2.4169399999999999</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="19">
+        <v>2.4229400000000001</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="7"/>
       <c r="F8" s="9"/>
@@ -630,7 +646,9 @@
       <c r="B9" s="19">
         <v>2.41716</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="19">
+        <v>2.4231400000000001</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="7"/>
       <c r="F9" s="9"/>
@@ -648,7 +666,9 @@
       <c r="B10" s="19">
         <v>2.4173800000000001</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="19">
+        <v>2.42334</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="7"/>
       <c r="F10" s="9"/>
@@ -663,8 +683,10 @@
       <c r="A11" s="14">
         <v>2.4111799999999999</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="19">
+        <v>2.4176000000000002</v>
+      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10"/>
@@ -680,7 +702,9 @@
       <c r="A12" s="14">
         <v>2.4113799999999999</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="19">
+        <v>2.4178199999999999</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="8"/>
@@ -696,7 +720,9 @@
       <c r="A13" s="14">
         <v>2.4115799999999998</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="19">
+        <v>2.41804</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="8"/>
@@ -712,7 +738,9 @@
       <c r="A14" s="14">
         <v>2.4117799999999998</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="19">
+        <v>2.4182600000000001</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="8"/>
@@ -728,7 +756,9 @@
       <c r="A15" s="14">
         <v>2.4119799999999998</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="19">
+        <v>2.4184800000000002</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="8"/>
@@ -744,7 +774,9 @@
       <c r="A16" s="14">
         <v>2.4121800000000002</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="19">
+        <v>2.4186999999999999</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="8"/>
@@ -760,7 +792,9 @@
       <c r="A17" s="14">
         <v>2.4123800000000002</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="19">
+        <v>2.41892</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="8"/>
@@ -776,7 +810,9 @@
       <c r="A18" s="14">
         <v>2.4125800000000002</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="19">
+        <v>2.4191400000000001</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="8"/>
@@ -792,7 +828,9 @@
       <c r="A19" s="14">
         <v>2.4127800000000001</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="19">
+        <v>2.4193600000000002</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="8"/>
@@ -808,7 +846,9 @@
       <c r="A20" s="14">
         <v>2.4129800000000001</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="19">
+        <v>2.4195799999999998</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="8"/>
@@ -824,7 +864,9 @@
       <c r="A21" s="14">
         <v>2.4131800000000001</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="19">
+        <v>2.4198</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8"/>
@@ -840,7 +882,9 @@
       <c r="A22" s="14">
         <v>2.4133800000000001</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="19">
+        <v>2.4200200000000001</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="8"/>
@@ -856,7 +900,9 @@
       <c r="A23" s="14">
         <v>2.4135800000000001</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="19">
+        <v>2.4202400000000002</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="8"/>
@@ -872,7 +918,9 @@
       <c r="A24" s="14">
         <v>2.41378</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="19">
+        <v>2.4204599999999998</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="8"/>
@@ -888,7 +936,9 @@
       <c r="A25" s="14">
         <v>2.41398</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="19">
+        <v>2.4206799999999999</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="8"/>
@@ -904,7 +954,9 @@
       <c r="A26" s="14">
         <v>2.41418</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="19">
+        <v>2.4209000000000001</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="8"/>
@@ -920,7 +972,9 @@
       <c r="A27" s="14">
         <v>2.41438</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="19">
+        <v>2.4211200000000002</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="8"/>
@@ -936,7 +990,9 @@
       <c r="A28" s="14">
         <v>2.4145799999999999</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="19">
+        <v>2.4213399999999998</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="8"/>
@@ -952,7 +1008,7 @@
       <c r="A29" s="14">
         <v>2.4147799999999999</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="8"/>

--- a/2023.xlsx
+++ b/2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A725C542-6344-4A45-AD01-5D71DF7C5FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1672A5-0F88-46BF-8670-B241463503F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,25 +99,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -202,51 +189,51 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -470,3494 +457,3556 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" style="18"/>
+    <col min="2" max="2" width="12.6640625" style="17"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14">
+      <c r="A1" s="13">
         <v>2.4091800000000001</v>
       </c>
-      <c r="B1" s="19">
+      <c r="B1" s="18">
         <v>2.4154</v>
       </c>
-      <c r="C1" s="19">
+      <c r="C1" s="18">
         <v>2.4215399999999998</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="D1" s="18">
+        <v>2.4270800000000001</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>2.4093800000000001</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>2.4156200000000001</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>2.4217399999999998</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="D2" s="18">
+        <v>2.4272499999999999</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2.4095800000000001</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>2.4158400000000002</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>2.4219400000000002</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="D3" s="18">
+        <v>2.4274200000000001</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>2.40978</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>2.4160599999999999</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>2.4221400000000002</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="D4" s="18">
+        <v>2.4275899999999999</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>2.40998</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>2.41628</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>2.4223400000000002</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="D5" s="18">
+        <v>2.4277600000000001</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>2.41018</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>2.4165000000000001</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>2.4225400000000001</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="D6" s="18">
+        <v>2.4279299999999999</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>2.41038</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>2.4167200000000002</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>2.4227400000000001</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="D7" s="18">
+        <v>2.4281000000000001</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>2.4105799999999999</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>2.4169399999999999</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>2.4229400000000001</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="D8" s="18">
+        <v>2.4282699999999999</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>2.4107799999999999</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>2.41716</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>2.4231400000000001</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="D9" s="18">
+        <v>2.4284400000000002</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>2.4109799999999999</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>2.4173800000000001</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>2.42334</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="D10" s="18">
+        <v>2.4286099999999999</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>2.4111799999999999</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>2.4176000000000002</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="C11" s="18">
+        <v>2.4235099999999998</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>2.4113799999999999</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>2.4178199999999999</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="C12" s="18">
+        <v>2.4236800000000001</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>2.4115799999999998</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>2.41804</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="C13" s="18">
+        <v>2.4238499999999998</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>2.4117799999999998</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>2.4182600000000001</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="C14" s="18">
+        <v>2.4240200000000001</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>2.4119799999999998</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>2.4184800000000002</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="C15" s="18">
+        <v>2.4241899999999998</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>2.4121800000000002</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>2.4186999999999999</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="C16" s="18">
+        <v>2.4243600000000001</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>2.4123800000000002</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>2.41892</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="C17" s="18">
+        <v>2.4245299999999999</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>2.4125800000000002</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>2.4191400000000001</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="C18" s="18">
+        <v>2.4247000000000001</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>2.4127800000000001</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>2.4193600000000002</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="C19" s="18">
+        <v>2.4248699999999999</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>2.4129800000000001</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>2.4195799999999998</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="C20" s="18">
+        <v>2.4250400000000001</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>2.4131800000000001</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <v>2.4198</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="C21" s="18">
+        <v>2.4252099999999999</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>2.4133800000000001</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>2.4200200000000001</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="C22" s="18">
+        <v>2.4253800000000001</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>2.4135800000000001</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>2.4202400000000002</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
+      <c r="C23" s="18">
+        <v>2.4255499999999999</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>2.41378</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>2.4204599999999998</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="C24" s="18">
+        <v>2.4257200000000001</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>2.41398</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <v>2.4206799999999999</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
+      <c r="C25" s="18">
+        <v>2.4258899999999999</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <v>2.41418</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>2.4209000000000001</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="C26" s="18">
+        <v>2.4260600000000001</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>2.41438</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>2.4211200000000002</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
+      <c r="C27" s="18">
+        <v>2.4262299999999999</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+      <c r="A28" s="13">
         <v>2.4145799999999999</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <v>2.4213399999999998</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
+      <c r="C28" s="18">
+        <v>2.4264000000000001</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <v>2.4147799999999999</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18">
+        <v>2.4265699999999999</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>2.4149799999999999</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="18">
+        <v>2.4267400000000001</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
+      <c r="A31" s="13">
         <v>2.4151799999999999</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="18">
+        <v>2.4269099999999999</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F32" s="5"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F33" s="5"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F34" s="5"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F35" s="5"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F36" s="5"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F37" s="5"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F38" s="5"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F39" s="5"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F40" s="5"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F41" s="5"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F42" s="5"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F43" s="5"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F44" s="5"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F45" s="5"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F46" s="5"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F47" s="5"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F48" s="5"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F49" s="5"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F50" s="5"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F51" s="5"/>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F52" s="5"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F53" s="5"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F54" s="5"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F55" s="5"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F56" s="5"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F57" s="5"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F58" s="5"/>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F59" s="5"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F60" s="5"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F61" s="5"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F62" s="5"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F63" s="5"/>
+      <c r="F63" s="4"/>
     </row>
     <row r="64" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F64" s="5"/>
+      <c r="F64" s="4"/>
     </row>
     <row r="65" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F65" s="5"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F66" s="5"/>
+      <c r="F66" s="4"/>
     </row>
     <row r="67" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F67" s="5"/>
+      <c r="F67" s="4"/>
     </row>
     <row r="68" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F68" s="5"/>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F69" s="5"/>
+      <c r="F69" s="4"/>
     </row>
     <row r="70" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F70" s="5"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F71" s="5"/>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F72" s="5"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F73" s="5"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F74" s="5"/>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F75" s="5"/>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F76" s="5"/>
+      <c r="F76" s="4"/>
     </row>
     <row r="77" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F77" s="5"/>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F78" s="5"/>
+      <c r="F78" s="4"/>
     </row>
     <row r="79" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F79" s="5"/>
+      <c r="F79" s="4"/>
     </row>
     <row r="80" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F80" s="5"/>
+      <c r="F80" s="4"/>
     </row>
     <row r="81" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F81" s="5"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F82" s="5"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F83" s="5"/>
+      <c r="F83" s="4"/>
     </row>
     <row r="84" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F84" s="5"/>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F85" s="5"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F86" s="5"/>
+      <c r="F86" s="4"/>
     </row>
     <row r="87" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F87" s="5"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F88" s="5"/>
+      <c r="F88" s="4"/>
     </row>
     <row r="89" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F89" s="5"/>
+      <c r="F89" s="4"/>
     </row>
     <row r="90" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F90" s="5"/>
+      <c r="F90" s="4"/>
     </row>
     <row r="91" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F91" s="5"/>
+      <c r="F91" s="4"/>
     </row>
     <row r="92" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F92" s="5"/>
+      <c r="F92" s="4"/>
     </row>
     <row r="93" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F93" s="5"/>
+      <c r="F93" s="4"/>
     </row>
     <row r="94" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F94" s="5"/>
+      <c r="F94" s="4"/>
     </row>
     <row r="95" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F95" s="5"/>
+      <c r="F95" s="4"/>
     </row>
     <row r="96" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F96" s="5"/>
+      <c r="F96" s="4"/>
     </row>
     <row r="97" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F97" s="5"/>
+      <c r="F97" s="4"/>
     </row>
     <row r="98" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F98" s="5"/>
+      <c r="F98" s="4"/>
     </row>
     <row r="99" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F99" s="5"/>
+      <c r="F99" s="4"/>
     </row>
     <row r="100" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F100" s="5"/>
+      <c r="F100" s="4"/>
     </row>
     <row r="101" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F101" s="5"/>
+      <c r="F101" s="4"/>
     </row>
     <row r="102" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F102" s="5"/>
+      <c r="F102" s="4"/>
     </row>
     <row r="103" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F103" s="5"/>
+      <c r="F103" s="4"/>
     </row>
     <row r="104" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F104" s="5"/>
+      <c r="F104" s="4"/>
     </row>
     <row r="105" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F105" s="5"/>
+      <c r="F105" s="4"/>
     </row>
     <row r="106" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F106" s="5"/>
+      <c r="F106" s="4"/>
     </row>
     <row r="107" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F107" s="5"/>
+      <c r="F107" s="4"/>
     </row>
     <row r="108" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F108" s="5"/>
+      <c r="F108" s="4"/>
     </row>
     <row r="109" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F109" s="5"/>
+      <c r="F109" s="4"/>
     </row>
     <row r="110" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F110" s="5"/>
+      <c r="F110" s="4"/>
     </row>
     <row r="111" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F111" s="5"/>
+      <c r="F111" s="4"/>
     </row>
     <row r="112" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F112" s="5"/>
+      <c r="F112" s="4"/>
     </row>
     <row r="113" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F113" s="5"/>
+      <c r="F113" s="4"/>
     </row>
     <row r="114" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F114" s="5"/>
+      <c r="F114" s="4"/>
     </row>
     <row r="115" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F115" s="5"/>
+      <c r="F115" s="4"/>
     </row>
     <row r="116" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F116" s="5"/>
+      <c r="F116" s="4"/>
     </row>
     <row r="117" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F117" s="5"/>
+      <c r="F117" s="4"/>
     </row>
     <row r="118" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F118" s="5"/>
+      <c r="F118" s="4"/>
     </row>
     <row r="119" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F119" s="5"/>
+      <c r="F119" s="4"/>
     </row>
     <row r="120" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F120" s="5"/>
+      <c r="F120" s="4"/>
     </row>
     <row r="121" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F121" s="5"/>
+      <c r="F121" s="4"/>
     </row>
     <row r="122" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F122" s="5"/>
+      <c r="F122" s="4"/>
     </row>
     <row r="123" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F123" s="5"/>
+      <c r="F123" s="4"/>
     </row>
     <row r="124" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F124" s="5"/>
+      <c r="F124" s="4"/>
     </row>
     <row r="125" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F125" s="5"/>
+      <c r="F125" s="4"/>
     </row>
     <row r="126" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F126" s="5"/>
+      <c r="F126" s="4"/>
     </row>
     <row r="127" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F127" s="5"/>
+      <c r="F127" s="4"/>
     </row>
     <row r="128" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F128" s="5"/>
+      <c r="F128" s="4"/>
     </row>
     <row r="129" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F129" s="5"/>
+      <c r="F129" s="4"/>
     </row>
     <row r="130" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F130" s="5"/>
+      <c r="F130" s="4"/>
     </row>
     <row r="131" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F131" s="5"/>
+      <c r="F131" s="4"/>
     </row>
     <row r="132" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F132" s="5"/>
+      <c r="F132" s="4"/>
     </row>
     <row r="133" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F133" s="5"/>
+      <c r="F133" s="4"/>
     </row>
     <row r="134" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F134" s="5"/>
+      <c r="F134" s="4"/>
     </row>
     <row r="135" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F135" s="5"/>
+      <c r="F135" s="4"/>
     </row>
     <row r="136" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F136" s="5"/>
+      <c r="F136" s="4"/>
     </row>
     <row r="137" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F137" s="5"/>
+      <c r="F137" s="4"/>
     </row>
     <row r="138" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F138" s="5"/>
+      <c r="F138" s="4"/>
     </row>
     <row r="139" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F139" s="5"/>
+      <c r="F139" s="4"/>
     </row>
     <row r="140" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F140" s="5"/>
+      <c r="F140" s="4"/>
     </row>
     <row r="141" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F141" s="5"/>
+      <c r="F141" s="4"/>
     </row>
     <row r="142" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F142" s="5"/>
+      <c r="F142" s="4"/>
     </row>
     <row r="143" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F143" s="5"/>
+      <c r="F143" s="4"/>
     </row>
     <row r="144" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F144" s="5"/>
+      <c r="F144" s="4"/>
     </row>
     <row r="145" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F145" s="5"/>
+      <c r="F145" s="4"/>
     </row>
     <row r="146" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F146" s="5"/>
+      <c r="F146" s="4"/>
     </row>
     <row r="147" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F147" s="5"/>
+      <c r="F147" s="4"/>
     </row>
     <row r="148" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F148" s="5"/>
+      <c r="F148" s="4"/>
     </row>
     <row r="149" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F149" s="5"/>
+      <c r="F149" s="4"/>
     </row>
     <row r="150" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F150" s="5"/>
+      <c r="F150" s="4"/>
     </row>
     <row r="151" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F151" s="5"/>
+      <c r="F151" s="4"/>
     </row>
     <row r="152" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F152" s="5"/>
+      <c r="F152" s="4"/>
     </row>
     <row r="153" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F153" s="5"/>
+      <c r="F153" s="4"/>
     </row>
     <row r="154" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F154" s="5"/>
+      <c r="F154" s="4"/>
     </row>
     <row r="155" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F155" s="5"/>
+      <c r="F155" s="4"/>
     </row>
     <row r="156" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F156" s="5"/>
+      <c r="F156" s="4"/>
     </row>
     <row r="157" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F157" s="5"/>
+      <c r="F157" s="4"/>
     </row>
     <row r="158" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F158" s="5"/>
+      <c r="F158" s="4"/>
     </row>
     <row r="159" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F159" s="5"/>
+      <c r="F159" s="4"/>
     </row>
     <row r="160" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F160" s="5"/>
+      <c r="F160" s="4"/>
     </row>
     <row r="161" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F161" s="5"/>
+      <c r="F161" s="4"/>
     </row>
     <row r="162" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F162" s="5"/>
+      <c r="F162" s="4"/>
     </row>
     <row r="163" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F163" s="5"/>
+      <c r="F163" s="4"/>
     </row>
     <row r="164" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F164" s="5"/>
+      <c r="F164" s="4"/>
     </row>
     <row r="165" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F165" s="5"/>
+      <c r="F165" s="4"/>
     </row>
     <row r="166" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F166" s="5"/>
+      <c r="F166" s="4"/>
     </row>
     <row r="167" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F167" s="5"/>
+      <c r="F167" s="4"/>
     </row>
     <row r="168" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F168" s="5"/>
+      <c r="F168" s="4"/>
     </row>
     <row r="169" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F169" s="5"/>
+      <c r="F169" s="4"/>
     </row>
     <row r="170" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F170" s="5"/>
+      <c r="F170" s="4"/>
     </row>
     <row r="171" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F171" s="5"/>
+      <c r="F171" s="4"/>
     </row>
     <row r="172" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F172" s="5"/>
+      <c r="F172" s="4"/>
     </row>
     <row r="173" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F173" s="5"/>
+      <c r="F173" s="4"/>
     </row>
     <row r="174" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F174" s="5"/>
+      <c r="F174" s="4"/>
     </row>
     <row r="175" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F175" s="5"/>
+      <c r="F175" s="4"/>
     </row>
     <row r="176" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F176" s="5"/>
+      <c r="F176" s="4"/>
     </row>
     <row r="177" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F177" s="5"/>
+      <c r="F177" s="4"/>
     </row>
     <row r="178" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F178" s="5"/>
+      <c r="F178" s="4"/>
     </row>
     <row r="179" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F179" s="5"/>
+      <c r="F179" s="4"/>
     </row>
     <row r="180" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F180" s="5"/>
+      <c r="F180" s="4"/>
     </row>
     <row r="181" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F181" s="5"/>
+      <c r="F181" s="4"/>
     </row>
     <row r="182" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F182" s="5"/>
+      <c r="F182" s="4"/>
     </row>
     <row r="183" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F183" s="5"/>
+      <c r="F183" s="4"/>
     </row>
     <row r="184" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F184" s="5"/>
+      <c r="F184" s="4"/>
     </row>
     <row r="185" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F185" s="5"/>
+      <c r="F185" s="4"/>
     </row>
     <row r="186" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F186" s="5"/>
+      <c r="F186" s="4"/>
     </row>
     <row r="187" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F187" s="5"/>
+      <c r="F187" s="4"/>
     </row>
     <row r="188" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F188" s="5"/>
+      <c r="F188" s="4"/>
     </row>
     <row r="189" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F189" s="5"/>
+      <c r="F189" s="4"/>
     </row>
     <row r="190" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F190" s="5"/>
+      <c r="F190" s="4"/>
     </row>
     <row r="191" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F191" s="5"/>
+      <c r="F191" s="4"/>
     </row>
     <row r="192" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F192" s="5"/>
+      <c r="F192" s="4"/>
     </row>
     <row r="193" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F193" s="5"/>
+      <c r="F193" s="4"/>
     </row>
     <row r="194" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F194" s="5"/>
+      <c r="F194" s="4"/>
     </row>
     <row r="195" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F195" s="5"/>
+      <c r="F195" s="4"/>
     </row>
     <row r="196" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F196" s="5"/>
+      <c r="F196" s="4"/>
     </row>
     <row r="197" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F197" s="5"/>
+      <c r="F197" s="4"/>
     </row>
     <row r="198" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F198" s="5"/>
+      <c r="F198" s="4"/>
     </row>
     <row r="199" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F199" s="5"/>
+      <c r="F199" s="4"/>
     </row>
     <row r="200" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F200" s="5"/>
+      <c r="F200" s="4"/>
     </row>
     <row r="201" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F201" s="5"/>
+      <c r="F201" s="4"/>
     </row>
     <row r="202" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F202" s="5"/>
+      <c r="F202" s="4"/>
     </row>
     <row r="203" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F203" s="5"/>
+      <c r="F203" s="4"/>
     </row>
     <row r="204" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F204" s="5"/>
+      <c r="F204" s="4"/>
     </row>
     <row r="205" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F205" s="5"/>
+      <c r="F205" s="4"/>
     </row>
     <row r="206" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F206" s="5"/>
+      <c r="F206" s="4"/>
     </row>
     <row r="207" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F207" s="5"/>
+      <c r="F207" s="4"/>
     </row>
     <row r="208" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F208" s="5"/>
+      <c r="F208" s="4"/>
     </row>
     <row r="209" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F209" s="5"/>
+      <c r="F209" s="4"/>
     </row>
     <row r="210" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F210" s="5"/>
+      <c r="F210" s="4"/>
     </row>
     <row r="211" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F211" s="5"/>
+      <c r="F211" s="4"/>
     </row>
     <row r="212" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F212" s="5"/>
+      <c r="F212" s="4"/>
     </row>
     <row r="213" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F213" s="5"/>
+      <c r="F213" s="4"/>
     </row>
     <row r="214" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F214" s="5"/>
+      <c r="F214" s="4"/>
     </row>
     <row r="215" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F215" s="5"/>
+      <c r="F215" s="4"/>
     </row>
     <row r="216" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F216" s="5"/>
+      <c r="F216" s="4"/>
     </row>
     <row r="217" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F217" s="5"/>
+      <c r="F217" s="4"/>
     </row>
     <row r="218" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F218" s="5"/>
+      <c r="F218" s="4"/>
     </row>
     <row r="219" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F219" s="5"/>
+      <c r="F219" s="4"/>
     </row>
     <row r="220" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F220" s="5"/>
+      <c r="F220" s="4"/>
     </row>
     <row r="221" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F221" s="5"/>
+      <c r="F221" s="4"/>
     </row>
     <row r="222" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F222" s="5"/>
+      <c r="F222" s="4"/>
     </row>
     <row r="223" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F223" s="5"/>
+      <c r="F223" s="4"/>
     </row>
     <row r="224" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F224" s="5"/>
+      <c r="F224" s="4"/>
     </row>
     <row r="225" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F225" s="5"/>
+      <c r="F225" s="4"/>
     </row>
     <row r="226" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F226" s="5"/>
+      <c r="F226" s="4"/>
     </row>
     <row r="227" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F227" s="5"/>
+      <c r="F227" s="4"/>
     </row>
     <row r="228" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F228" s="5"/>
+      <c r="F228" s="4"/>
     </row>
     <row r="229" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F229" s="5"/>
+      <c r="F229" s="4"/>
     </row>
     <row r="230" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F230" s="5"/>
+      <c r="F230" s="4"/>
     </row>
     <row r="231" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F231" s="5"/>
+      <c r="F231" s="4"/>
     </row>
     <row r="232" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F232" s="5"/>
+      <c r="F232" s="4"/>
     </row>
     <row r="233" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F233" s="5"/>
+      <c r="F233" s="4"/>
     </row>
     <row r="234" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F234" s="5"/>
+      <c r="F234" s="4"/>
     </row>
     <row r="235" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F235" s="5"/>
+      <c r="F235" s="4"/>
     </row>
     <row r="236" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F236" s="5"/>
+      <c r="F236" s="4"/>
     </row>
     <row r="237" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F237" s="5"/>
+      <c r="F237" s="4"/>
     </row>
     <row r="238" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F238" s="5"/>
+      <c r="F238" s="4"/>
     </row>
     <row r="239" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F239" s="5"/>
+      <c r="F239" s="4"/>
     </row>
     <row r="240" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F240" s="5"/>
+      <c r="F240" s="4"/>
     </row>
     <row r="241" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F241" s="5"/>
+      <c r="F241" s="4"/>
     </row>
     <row r="242" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F242" s="5"/>
+      <c r="F242" s="4"/>
     </row>
     <row r="243" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F243" s="5"/>
+      <c r="F243" s="4"/>
     </row>
     <row r="244" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F244" s="5"/>
+      <c r="F244" s="4"/>
     </row>
     <row r="245" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F245" s="5"/>
+      <c r="F245" s="4"/>
     </row>
     <row r="246" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F246" s="5"/>
+      <c r="F246" s="4"/>
     </row>
     <row r="247" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F247" s="5"/>
+      <c r="F247" s="4"/>
     </row>
     <row r="248" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F248" s="5"/>
+      <c r="F248" s="4"/>
     </row>
     <row r="249" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F249" s="5"/>
+      <c r="F249" s="4"/>
     </row>
     <row r="250" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F250" s="5"/>
+      <c r="F250" s="4"/>
     </row>
     <row r="251" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F251" s="5"/>
+      <c r="F251" s="4"/>
     </row>
     <row r="252" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F252" s="5"/>
+      <c r="F252" s="4"/>
     </row>
     <row r="253" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F253" s="5"/>
+      <c r="F253" s="4"/>
     </row>
     <row r="254" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F254" s="5"/>
+      <c r="F254" s="4"/>
     </row>
     <row r="255" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F255" s="5"/>
+      <c r="F255" s="4"/>
     </row>
     <row r="256" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F256" s="5"/>
+      <c r="F256" s="4"/>
     </row>
     <row r="257" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F257" s="5"/>
+      <c r="F257" s="4"/>
     </row>
     <row r="258" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F258" s="5"/>
+      <c r="F258" s="4"/>
     </row>
     <row r="259" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F259" s="5"/>
+      <c r="F259" s="4"/>
     </row>
     <row r="260" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F260" s="5"/>
+      <c r="F260" s="4"/>
     </row>
     <row r="261" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F261" s="5"/>
+      <c r="F261" s="4"/>
     </row>
     <row r="262" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F262" s="5"/>
+      <c r="F262" s="4"/>
     </row>
     <row r="263" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F263" s="5"/>
+      <c r="F263" s="4"/>
     </row>
     <row r="264" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F264" s="5"/>
+      <c r="F264" s="4"/>
     </row>
     <row r="265" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F265" s="5"/>
+      <c r="F265" s="4"/>
     </row>
     <row r="266" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F266" s="5"/>
+      <c r="F266" s="4"/>
     </row>
     <row r="267" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F267" s="5"/>
+      <c r="F267" s="4"/>
     </row>
     <row r="268" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F268" s="5"/>
+      <c r="F268" s="4"/>
     </row>
     <row r="269" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F269" s="5"/>
+      <c r="F269" s="4"/>
     </row>
     <row r="270" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F270" s="5"/>
+      <c r="F270" s="4"/>
     </row>
     <row r="271" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F271" s="5"/>
+      <c r="F271" s="4"/>
     </row>
     <row r="272" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F272" s="5"/>
+      <c r="F272" s="4"/>
     </row>
     <row r="273" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F273" s="5"/>
+      <c r="F273" s="4"/>
     </row>
     <row r="274" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F274" s="5"/>
+      <c r="F274" s="4"/>
     </row>
     <row r="275" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F275" s="5"/>
+      <c r="F275" s="4"/>
     </row>
     <row r="276" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F276" s="5"/>
+      <c r="F276" s="4"/>
     </row>
     <row r="277" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F277" s="5"/>
+      <c r="F277" s="4"/>
     </row>
     <row r="278" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F278" s="5"/>
+      <c r="F278" s="4"/>
     </row>
     <row r="279" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F279" s="5"/>
+      <c r="F279" s="4"/>
     </row>
     <row r="280" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F280" s="5"/>
+      <c r="F280" s="4"/>
     </row>
     <row r="281" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F281" s="5"/>
+      <c r="F281" s="4"/>
     </row>
     <row r="282" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F282" s="5"/>
+      <c r="F282" s="4"/>
     </row>
     <row r="283" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F283" s="5"/>
+      <c r="F283" s="4"/>
     </row>
     <row r="284" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F284" s="5"/>
+      <c r="F284" s="4"/>
     </row>
     <row r="285" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F285" s="5"/>
+      <c r="F285" s="4"/>
     </row>
     <row r="286" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F286" s="5"/>
+      <c r="F286" s="4"/>
     </row>
     <row r="287" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F287" s="5"/>
+      <c r="F287" s="4"/>
     </row>
     <row r="288" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F288" s="5"/>
+      <c r="F288" s="4"/>
     </row>
     <row r="289" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F289" s="5"/>
+      <c r="F289" s="4"/>
     </row>
     <row r="290" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F290" s="5"/>
+      <c r="F290" s="4"/>
     </row>
     <row r="291" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F291" s="5"/>
+      <c r="F291" s="4"/>
     </row>
     <row r="292" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F292" s="5"/>
+      <c r="F292" s="4"/>
     </row>
     <row r="293" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F293" s="5"/>
+      <c r="F293" s="4"/>
     </row>
     <row r="294" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F294" s="5"/>
+      <c r="F294" s="4"/>
     </row>
     <row r="295" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F295" s="5"/>
+      <c r="F295" s="4"/>
     </row>
     <row r="296" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F296" s="5"/>
+      <c r="F296" s="4"/>
     </row>
     <row r="297" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F297" s="5"/>
+      <c r="F297" s="4"/>
     </row>
     <row r="298" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F298" s="5"/>
+      <c r="F298" s="4"/>
     </row>
     <row r="299" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F299" s="5"/>
+      <c r="F299" s="4"/>
     </row>
     <row r="300" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F300" s="5"/>
+      <c r="F300" s="4"/>
     </row>
     <row r="301" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F301" s="5"/>
+      <c r="F301" s="4"/>
     </row>
     <row r="302" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F302" s="5"/>
+      <c r="F302" s="4"/>
     </row>
     <row r="303" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F303" s="5"/>
+      <c r="F303" s="4"/>
     </row>
     <row r="304" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F304" s="5"/>
+      <c r="F304" s="4"/>
     </row>
     <row r="305" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F305" s="5"/>
+      <c r="F305" s="4"/>
     </row>
     <row r="306" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F306" s="5"/>
+      <c r="F306" s="4"/>
     </row>
     <row r="307" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F307" s="5"/>
+      <c r="F307" s="4"/>
     </row>
     <row r="308" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F308" s="5"/>
+      <c r="F308" s="4"/>
     </row>
     <row r="309" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F309" s="5"/>
+      <c r="F309" s="4"/>
     </row>
     <row r="310" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F310" s="5"/>
+      <c r="F310" s="4"/>
     </row>
     <row r="311" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F311" s="5"/>
+      <c r="F311" s="4"/>
     </row>
     <row r="312" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F312" s="5"/>
+      <c r="F312" s="4"/>
     </row>
     <row r="313" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F313" s="5"/>
+      <c r="F313" s="4"/>
     </row>
     <row r="314" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F314" s="5"/>
+      <c r="F314" s="4"/>
     </row>
     <row r="315" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F315" s="5"/>
+      <c r="F315" s="4"/>
     </row>
     <row r="316" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F316" s="5"/>
+      <c r="F316" s="4"/>
     </row>
     <row r="317" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F317" s="5"/>
+      <c r="F317" s="4"/>
     </row>
     <row r="318" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F318" s="5"/>
+      <c r="F318" s="4"/>
     </row>
     <row r="319" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F319" s="5"/>
+      <c r="F319" s="4"/>
     </row>
     <row r="320" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F320" s="5"/>
+      <c r="F320" s="4"/>
     </row>
     <row r="321" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F321" s="5"/>
+      <c r="F321" s="4"/>
     </row>
     <row r="322" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F322" s="5"/>
+      <c r="F322" s="4"/>
     </row>
     <row r="323" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F323" s="5"/>
+      <c r="F323" s="4"/>
     </row>
     <row r="324" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F324" s="5"/>
+      <c r="F324" s="4"/>
     </row>
     <row r="325" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F325" s="5"/>
+      <c r="F325" s="4"/>
     </row>
     <row r="326" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F326" s="5"/>
+      <c r="F326" s="4"/>
     </row>
     <row r="327" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F327" s="5"/>
+      <c r="F327" s="4"/>
     </row>
     <row r="328" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F328" s="5"/>
+      <c r="F328" s="4"/>
     </row>
     <row r="329" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F329" s="5"/>
+      <c r="F329" s="4"/>
     </row>
     <row r="330" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F330" s="5"/>
+      <c r="F330" s="4"/>
     </row>
     <row r="331" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F331" s="5"/>
+      <c r="F331" s="4"/>
     </row>
     <row r="332" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F332" s="5"/>
+      <c r="F332" s="4"/>
     </row>
     <row r="333" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F333" s="5"/>
+      <c r="F333" s="4"/>
     </row>
     <row r="334" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F334" s="5"/>
+      <c r="F334" s="4"/>
     </row>
     <row r="335" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F335" s="5"/>
+      <c r="F335" s="4"/>
     </row>
     <row r="336" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F336" s="5"/>
+      <c r="F336" s="4"/>
     </row>
     <row r="337" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F337" s="5"/>
+      <c r="F337" s="4"/>
     </row>
     <row r="338" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F338" s="5"/>
+      <c r="F338" s="4"/>
     </row>
     <row r="339" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F339" s="5"/>
+      <c r="F339" s="4"/>
     </row>
     <row r="340" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F340" s="5"/>
+      <c r="F340" s="4"/>
     </row>
     <row r="341" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F341" s="5"/>
+      <c r="F341" s="4"/>
     </row>
     <row r="342" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F342" s="5"/>
+      <c r="F342" s="4"/>
     </row>
     <row r="343" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F343" s="5"/>
+      <c r="F343" s="4"/>
     </row>
     <row r="344" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F344" s="5"/>
+      <c r="F344" s="4"/>
     </row>
     <row r="345" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F345" s="5"/>
+      <c r="F345" s="4"/>
     </row>
     <row r="346" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F346" s="5"/>
+      <c r="F346" s="4"/>
     </row>
     <row r="347" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F347" s="5"/>
+      <c r="F347" s="4"/>
     </row>
     <row r="348" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F348" s="5"/>
+      <c r="F348" s="4"/>
     </row>
     <row r="349" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F349" s="5"/>
+      <c r="F349" s="4"/>
     </row>
     <row r="350" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F350" s="5"/>
+      <c r="F350" s="4"/>
     </row>
     <row r="351" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F351" s="5"/>
+      <c r="F351" s="4"/>
     </row>
     <row r="352" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F352" s="5"/>
+      <c r="F352" s="4"/>
     </row>
     <row r="353" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F353" s="5"/>
+      <c r="F353" s="4"/>
     </row>
     <row r="354" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F354" s="5"/>
+      <c r="F354" s="4"/>
     </row>
     <row r="355" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F355" s="5"/>
+      <c r="F355" s="4"/>
     </row>
     <row r="356" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F356" s="5"/>
+      <c r="F356" s="4"/>
     </row>
     <row r="357" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F357" s="5"/>
+      <c r="F357" s="4"/>
     </row>
     <row r="358" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F358" s="5"/>
+      <c r="F358" s="4"/>
     </row>
     <row r="359" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F359" s="5"/>
+      <c r="F359" s="4"/>
     </row>
     <row r="360" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F360" s="5"/>
+      <c r="F360" s="4"/>
     </row>
     <row r="361" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F361" s="5"/>
+      <c r="F361" s="4"/>
     </row>
     <row r="362" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F362" s="5"/>
+      <c r="F362" s="4"/>
     </row>
     <row r="363" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F363" s="5"/>
+      <c r="F363" s="4"/>
     </row>
     <row r="364" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F364" s="5"/>
+      <c r="F364" s="4"/>
     </row>
     <row r="365" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F365" s="5"/>
+      <c r="F365" s="4"/>
     </row>
     <row r="366" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F366" s="5"/>
+      <c r="F366" s="4"/>
     </row>
     <row r="367" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F367" s="5"/>
+      <c r="F367" s="4"/>
     </row>
     <row r="368" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F368" s="5"/>
+      <c r="F368" s="4"/>
     </row>
     <row r="369" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F369" s="5"/>
+      <c r="F369" s="4"/>
     </row>
     <row r="370" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F370" s="5"/>
+      <c r="F370" s="4"/>
     </row>
     <row r="371" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F371" s="5"/>
+      <c r="F371" s="4"/>
     </row>
     <row r="372" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F372" s="5"/>
+      <c r="F372" s="4"/>
     </row>
     <row r="373" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F373" s="5"/>
+      <c r="F373" s="4"/>
     </row>
     <row r="374" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F374" s="5"/>
+      <c r="F374" s="4"/>
     </row>
     <row r="375" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F375" s="5"/>
+      <c r="F375" s="4"/>
     </row>
     <row r="376" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F376" s="5"/>
+      <c r="F376" s="4"/>
     </row>
     <row r="377" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F377" s="5"/>
+      <c r="F377" s="4"/>
     </row>
     <row r="378" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F378" s="5"/>
+      <c r="F378" s="4"/>
     </row>
     <row r="379" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F379" s="5"/>
+      <c r="F379" s="4"/>
     </row>
     <row r="380" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F380" s="5"/>
+      <c r="F380" s="4"/>
     </row>
     <row r="381" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F381" s="5"/>
+      <c r="F381" s="4"/>
     </row>
     <row r="382" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F382" s="5"/>
+      <c r="F382" s="4"/>
     </row>
     <row r="383" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F383" s="5"/>
+      <c r="F383" s="4"/>
     </row>
     <row r="384" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F384" s="5"/>
+      <c r="F384" s="4"/>
     </row>
     <row r="385" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F385" s="5"/>
+      <c r="F385" s="4"/>
     </row>
     <row r="386" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F386" s="5"/>
+      <c r="F386" s="4"/>
     </row>
     <row r="387" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F387" s="5"/>
+      <c r="F387" s="4"/>
     </row>
     <row r="388" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F388" s="5"/>
+      <c r="F388" s="4"/>
     </row>
     <row r="389" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F389" s="5"/>
+      <c r="F389" s="4"/>
     </row>
     <row r="390" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F390" s="5"/>
+      <c r="F390" s="4"/>
     </row>
     <row r="391" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F391" s="5"/>
+      <c r="F391" s="4"/>
     </row>
     <row r="392" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F392" s="5"/>
+      <c r="F392" s="4"/>
     </row>
     <row r="393" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F393" s="5"/>
+      <c r="F393" s="4"/>
     </row>
     <row r="394" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F394" s="5"/>
+      <c r="F394" s="4"/>
     </row>
     <row r="395" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F395" s="5"/>
+      <c r="F395" s="4"/>
     </row>
     <row r="396" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F396" s="5"/>
+      <c r="F396" s="4"/>
     </row>
     <row r="397" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F397" s="5"/>
+      <c r="F397" s="4"/>
     </row>
     <row r="398" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F398" s="5"/>
+      <c r="F398" s="4"/>
     </row>
     <row r="399" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F399" s="5"/>
+      <c r="F399" s="4"/>
     </row>
     <row r="400" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F400" s="5"/>
+      <c r="F400" s="4"/>
     </row>
     <row r="401" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F401" s="5"/>
+      <c r="F401" s="4"/>
     </row>
     <row r="402" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F402" s="5"/>
+      <c r="F402" s="4"/>
     </row>
     <row r="403" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F403" s="5"/>
+      <c r="F403" s="4"/>
     </row>
     <row r="404" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F404" s="5"/>
+      <c r="F404" s="4"/>
     </row>
     <row r="405" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F405" s="5"/>
+      <c r="F405" s="4"/>
     </row>
     <row r="406" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F406" s="5"/>
+      <c r="F406" s="4"/>
     </row>
     <row r="407" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F407" s="5"/>
+      <c r="F407" s="4"/>
     </row>
     <row r="408" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F408" s="5"/>
+      <c r="F408" s="4"/>
     </row>
     <row r="409" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F409" s="5"/>
+      <c r="F409" s="4"/>
     </row>
     <row r="410" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F410" s="5"/>
+      <c r="F410" s="4"/>
     </row>
     <row r="411" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F411" s="5"/>
+      <c r="F411" s="4"/>
     </row>
     <row r="412" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F412" s="5"/>
+      <c r="F412" s="4"/>
     </row>
     <row r="413" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F413" s="5"/>
+      <c r="F413" s="4"/>
     </row>
     <row r="414" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F414" s="5"/>
+      <c r="F414" s="4"/>
     </row>
     <row r="415" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F415" s="5"/>
+      <c r="F415" s="4"/>
     </row>
     <row r="416" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F416" s="5"/>
+      <c r="F416" s="4"/>
     </row>
     <row r="417" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F417" s="5"/>
+      <c r="F417" s="4"/>
     </row>
     <row r="418" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F418" s="5"/>
+      <c r="F418" s="4"/>
     </row>
     <row r="419" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F419" s="5"/>
+      <c r="F419" s="4"/>
     </row>
     <row r="420" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F420" s="5"/>
+      <c r="F420" s="4"/>
     </row>
     <row r="421" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F421" s="5"/>
+      <c r="F421" s="4"/>
     </row>
     <row r="422" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F422" s="5"/>
+      <c r="F422" s="4"/>
     </row>
     <row r="423" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F423" s="5"/>
+      <c r="F423" s="4"/>
     </row>
     <row r="424" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F424" s="5"/>
+      <c r="F424" s="4"/>
     </row>
     <row r="425" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F425" s="5"/>
+      <c r="F425" s="4"/>
     </row>
     <row r="426" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F426" s="5"/>
+      <c r="F426" s="4"/>
     </row>
     <row r="427" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F427" s="5"/>
+      <c r="F427" s="4"/>
     </row>
     <row r="428" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F428" s="5"/>
+      <c r="F428" s="4"/>
     </row>
     <row r="429" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F429" s="5"/>
+      <c r="F429" s="4"/>
     </row>
     <row r="430" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F430" s="5"/>
+      <c r="F430" s="4"/>
     </row>
     <row r="431" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F431" s="5"/>
+      <c r="F431" s="4"/>
     </row>
     <row r="432" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F432" s="5"/>
+      <c r="F432" s="4"/>
     </row>
     <row r="433" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F433" s="5"/>
+      <c r="F433" s="4"/>
     </row>
     <row r="434" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F434" s="5"/>
+      <c r="F434" s="4"/>
     </row>
     <row r="435" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F435" s="5"/>
+      <c r="F435" s="4"/>
     </row>
     <row r="436" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F436" s="5"/>
+      <c r="F436" s="4"/>
     </row>
     <row r="437" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F437" s="5"/>
+      <c r="F437" s="4"/>
     </row>
     <row r="438" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F438" s="5"/>
+      <c r="F438" s="4"/>
     </row>
     <row r="439" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F439" s="5"/>
+      <c r="F439" s="4"/>
     </row>
     <row r="440" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F440" s="5"/>
+      <c r="F440" s="4"/>
     </row>
     <row r="441" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F441" s="5"/>
+      <c r="F441" s="4"/>
     </row>
     <row r="442" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F442" s="5"/>
+      <c r="F442" s="4"/>
     </row>
     <row r="443" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F443" s="5"/>
+      <c r="F443" s="4"/>
     </row>
     <row r="444" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F444" s="5"/>
+      <c r="F444" s="4"/>
     </row>
     <row r="445" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F445" s="5"/>
+      <c r="F445" s="4"/>
     </row>
     <row r="446" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F446" s="5"/>
+      <c r="F446" s="4"/>
     </row>
     <row r="447" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F447" s="5"/>
+      <c r="F447" s="4"/>
     </row>
     <row r="448" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F448" s="5"/>
+      <c r="F448" s="4"/>
     </row>
     <row r="449" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F449" s="5"/>
+      <c r="F449" s="4"/>
     </row>
     <row r="450" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F450" s="5"/>
+      <c r="F450" s="4"/>
     </row>
     <row r="451" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F451" s="5"/>
+      <c r="F451" s="4"/>
     </row>
     <row r="452" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F452" s="5"/>
+      <c r="F452" s="4"/>
     </row>
     <row r="453" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F453" s="5"/>
+      <c r="F453" s="4"/>
     </row>
     <row r="454" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F454" s="5"/>
+      <c r="F454" s="4"/>
     </row>
     <row r="455" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F455" s="5"/>
+      <c r="F455" s="4"/>
     </row>
     <row r="456" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F456" s="5"/>
+      <c r="F456" s="4"/>
     </row>
     <row r="457" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F457" s="5"/>
+      <c r="F457" s="4"/>
     </row>
     <row r="458" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F458" s="5"/>
+      <c r="F458" s="4"/>
     </row>
     <row r="459" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F459" s="5"/>
+      <c r="F459" s="4"/>
     </row>
     <row r="460" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F460" s="5"/>
+      <c r="F460" s="4"/>
     </row>
     <row r="461" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F461" s="5"/>
+      <c r="F461" s="4"/>
     </row>
     <row r="462" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F462" s="5"/>
+      <c r="F462" s="4"/>
     </row>
     <row r="463" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F463" s="5"/>
+      <c r="F463" s="4"/>
     </row>
     <row r="464" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F464" s="5"/>
+      <c r="F464" s="4"/>
     </row>
     <row r="465" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F465" s="5"/>
+      <c r="F465" s="4"/>
     </row>
     <row r="466" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F466" s="5"/>
+      <c r="F466" s="4"/>
     </row>
     <row r="467" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F467" s="5"/>
+      <c r="F467" s="4"/>
     </row>
     <row r="468" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F468" s="5"/>
+      <c r="F468" s="4"/>
     </row>
     <row r="469" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F469" s="5"/>
+      <c r="F469" s="4"/>
     </row>
     <row r="470" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F470" s="5"/>
+      <c r="F470" s="4"/>
     </row>
     <row r="471" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F471" s="5"/>
+      <c r="F471" s="4"/>
     </row>
     <row r="472" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F472" s="5"/>
+      <c r="F472" s="4"/>
     </row>
     <row r="473" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F473" s="5"/>
+      <c r="F473" s="4"/>
     </row>
     <row r="474" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F474" s="5"/>
+      <c r="F474" s="4"/>
     </row>
     <row r="475" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F475" s="5"/>
+      <c r="F475" s="4"/>
     </row>
     <row r="476" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F476" s="5"/>
+      <c r="F476" s="4"/>
     </row>
     <row r="477" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F477" s="5"/>
+      <c r="F477" s="4"/>
     </row>
     <row r="478" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F478" s="5"/>
+      <c r="F478" s="4"/>
     </row>
     <row r="479" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F479" s="5"/>
+      <c r="F479" s="4"/>
     </row>
     <row r="480" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F480" s="5"/>
+      <c r="F480" s="4"/>
     </row>
     <row r="481" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F481" s="5"/>
+      <c r="F481" s="4"/>
     </row>
     <row r="482" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F482" s="5"/>
+      <c r="F482" s="4"/>
     </row>
     <row r="483" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F483" s="5"/>
+      <c r="F483" s="4"/>
     </row>
     <row r="484" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F484" s="5"/>
+      <c r="F484" s="4"/>
     </row>
     <row r="485" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F485" s="5"/>
+      <c r="F485" s="4"/>
     </row>
     <row r="486" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F486" s="5"/>
+      <c r="F486" s="4"/>
     </row>
     <row r="487" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F487" s="5"/>
+      <c r="F487" s="4"/>
     </row>
     <row r="488" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F488" s="5"/>
+      <c r="F488" s="4"/>
     </row>
     <row r="489" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F489" s="5"/>
+      <c r="F489" s="4"/>
     </row>
     <row r="490" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F490" s="5"/>
+      <c r="F490" s="4"/>
     </row>
     <row r="491" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F491" s="5"/>
+      <c r="F491" s="4"/>
     </row>
     <row r="492" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F492" s="5"/>
+      <c r="F492" s="4"/>
     </row>
     <row r="493" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F493" s="5"/>
+      <c r="F493" s="4"/>
     </row>
     <row r="494" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F494" s="5"/>
+      <c r="F494" s="4"/>
     </row>
     <row r="495" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F495" s="5"/>
+      <c r="F495" s="4"/>
     </row>
     <row r="496" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F496" s="5"/>
+      <c r="F496" s="4"/>
     </row>
     <row r="497" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F497" s="5"/>
+      <c r="F497" s="4"/>
     </row>
     <row r="498" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F498" s="5"/>
+      <c r="F498" s="4"/>
     </row>
     <row r="499" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F499" s="5"/>
+      <c r="F499" s="4"/>
     </row>
     <row r="500" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F500" s="5"/>
+      <c r="F500" s="4"/>
     </row>
     <row r="501" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F501" s="5"/>
+      <c r="F501" s="4"/>
     </row>
     <row r="502" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F502" s="5"/>
+      <c r="F502" s="4"/>
     </row>
     <row r="503" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F503" s="5"/>
+      <c r="F503" s="4"/>
     </row>
     <row r="504" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F504" s="5"/>
+      <c r="F504" s="4"/>
     </row>
     <row r="505" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F505" s="5"/>
+      <c r="F505" s="4"/>
     </row>
     <row r="506" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F506" s="5"/>
+      <c r="F506" s="4"/>
     </row>
     <row r="507" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F507" s="5"/>
+      <c r="F507" s="4"/>
     </row>
     <row r="508" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F508" s="5"/>
+      <c r="F508" s="4"/>
     </row>
     <row r="509" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F509" s="5"/>
+      <c r="F509" s="4"/>
     </row>
     <row r="510" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F510" s="5"/>
+      <c r="F510" s="4"/>
     </row>
     <row r="511" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F511" s="5"/>
+      <c r="F511" s="4"/>
     </row>
     <row r="512" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F512" s="5"/>
+      <c r="F512" s="4"/>
     </row>
     <row r="513" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F513" s="5"/>
+      <c r="F513" s="4"/>
     </row>
     <row r="514" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F514" s="5"/>
+      <c r="F514" s="4"/>
     </row>
     <row r="515" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F515" s="5"/>
+      <c r="F515" s="4"/>
     </row>
     <row r="516" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F516" s="5"/>
+      <c r="F516" s="4"/>
     </row>
     <row r="517" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F517" s="5"/>
+      <c r="F517" s="4"/>
     </row>
     <row r="518" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F518" s="5"/>
+      <c r="F518" s="4"/>
     </row>
     <row r="519" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F519" s="5"/>
+      <c r="F519" s="4"/>
     </row>
     <row r="520" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F520" s="5"/>
+      <c r="F520" s="4"/>
     </row>
     <row r="521" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F521" s="5"/>
+      <c r="F521" s="4"/>
     </row>
     <row r="522" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F522" s="5"/>
+      <c r="F522" s="4"/>
     </row>
     <row r="523" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F523" s="5"/>
+      <c r="F523" s="4"/>
     </row>
     <row r="524" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F524" s="5"/>
+      <c r="F524" s="4"/>
     </row>
     <row r="525" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F525" s="5"/>
+      <c r="F525" s="4"/>
     </row>
     <row r="526" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F526" s="5"/>
+      <c r="F526" s="4"/>
     </row>
     <row r="527" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F527" s="5"/>
+      <c r="F527" s="4"/>
     </row>
     <row r="528" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F528" s="5"/>
+      <c r="F528" s="4"/>
     </row>
     <row r="529" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F529" s="5"/>
+      <c r="F529" s="4"/>
     </row>
     <row r="530" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F530" s="5"/>
+      <c r="F530" s="4"/>
     </row>
     <row r="531" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F531" s="5"/>
+      <c r="F531" s="4"/>
     </row>
     <row r="532" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F532" s="5"/>
+      <c r="F532" s="4"/>
     </row>
     <row r="533" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F533" s="5"/>
+      <c r="F533" s="4"/>
     </row>
     <row r="534" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F534" s="5"/>
+      <c r="F534" s="4"/>
     </row>
     <row r="535" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F535" s="5"/>
+      <c r="F535" s="4"/>
     </row>
     <row r="536" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F536" s="5"/>
+      <c r="F536" s="4"/>
     </row>
     <row r="537" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F537" s="5"/>
+      <c r="F537" s="4"/>
     </row>
     <row r="538" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F538" s="5"/>
+      <c r="F538" s="4"/>
     </row>
     <row r="539" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F539" s="5"/>
+      <c r="F539" s="4"/>
     </row>
     <row r="540" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F540" s="5"/>
+      <c r="F540" s="4"/>
     </row>
     <row r="541" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F541" s="5"/>
+      <c r="F541" s="4"/>
     </row>
     <row r="542" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F542" s="5"/>
+      <c r="F542" s="4"/>
     </row>
     <row r="543" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F543" s="5"/>
+      <c r="F543" s="4"/>
     </row>
     <row r="544" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F544" s="5"/>
+      <c r="F544" s="4"/>
     </row>
     <row r="545" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F545" s="5"/>
+      <c r="F545" s="4"/>
     </row>
     <row r="546" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F546" s="5"/>
+      <c r="F546" s="4"/>
     </row>
     <row r="547" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F547" s="5"/>
+      <c r="F547" s="4"/>
     </row>
     <row r="548" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F548" s="5"/>
+      <c r="F548" s="4"/>
     </row>
     <row r="549" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F549" s="5"/>
+      <c r="F549" s="4"/>
     </row>
     <row r="550" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F550" s="5"/>
+      <c r="F550" s="4"/>
     </row>
     <row r="551" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F551" s="5"/>
+      <c r="F551" s="4"/>
     </row>
     <row r="552" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F552" s="5"/>
+      <c r="F552" s="4"/>
     </row>
     <row r="553" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F553" s="5"/>
+      <c r="F553" s="4"/>
     </row>
     <row r="554" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F554" s="5"/>
+      <c r="F554" s="4"/>
     </row>
     <row r="555" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F555" s="5"/>
+      <c r="F555" s="4"/>
     </row>
     <row r="556" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F556" s="5"/>
+      <c r="F556" s="4"/>
     </row>
     <row r="557" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F557" s="5"/>
+      <c r="F557" s="4"/>
     </row>
     <row r="558" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F558" s="5"/>
+      <c r="F558" s="4"/>
     </row>
     <row r="559" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F559" s="5"/>
+      <c r="F559" s="4"/>
     </row>
     <row r="560" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F560" s="5"/>
+      <c r="F560" s="4"/>
     </row>
     <row r="561" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F561" s="5"/>
+      <c r="F561" s="4"/>
     </row>
     <row r="562" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F562" s="5"/>
+      <c r="F562" s="4"/>
     </row>
     <row r="563" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F563" s="5"/>
+      <c r="F563" s="4"/>
     </row>
     <row r="564" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F564" s="5"/>
+      <c r="F564" s="4"/>
     </row>
     <row r="565" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F565" s="5"/>
+      <c r="F565" s="4"/>
     </row>
     <row r="566" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F566" s="5"/>
+      <c r="F566" s="4"/>
     </row>
     <row r="567" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F567" s="5"/>
+      <c r="F567" s="4"/>
     </row>
     <row r="568" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F568" s="5"/>
+      <c r="F568" s="4"/>
     </row>
     <row r="569" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F569" s="5"/>
+      <c r="F569" s="4"/>
     </row>
     <row r="570" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F570" s="5"/>
+      <c r="F570" s="4"/>
     </row>
     <row r="571" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F571" s="5"/>
+      <c r="F571" s="4"/>
     </row>
     <row r="572" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F572" s="5"/>
+      <c r="F572" s="4"/>
     </row>
     <row r="573" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F573" s="5"/>
+      <c r="F573" s="4"/>
     </row>
     <row r="574" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F574" s="5"/>
+      <c r="F574" s="4"/>
     </row>
     <row r="575" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F575" s="5"/>
+      <c r="F575" s="4"/>
     </row>
     <row r="576" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F576" s="5"/>
+      <c r="F576" s="4"/>
     </row>
     <row r="577" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F577" s="5"/>
+      <c r="F577" s="4"/>
     </row>
     <row r="578" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F578" s="5"/>
+      <c r="F578" s="4"/>
     </row>
     <row r="579" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F579" s="5"/>
+      <c r="F579" s="4"/>
     </row>
     <row r="580" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F580" s="5"/>
+      <c r="F580" s="4"/>
     </row>
     <row r="581" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F581" s="5"/>
+      <c r="F581" s="4"/>
     </row>
     <row r="582" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F582" s="5"/>
+      <c r="F582" s="4"/>
     </row>
     <row r="583" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F583" s="5"/>
+      <c r="F583" s="4"/>
     </row>
     <row r="584" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F584" s="5"/>
+      <c r="F584" s="4"/>
     </row>
     <row r="585" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F585" s="5"/>
+      <c r="F585" s="4"/>
     </row>
     <row r="586" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F586" s="5"/>
+      <c r="F586" s="4"/>
     </row>
     <row r="587" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F587" s="5"/>
+      <c r="F587" s="4"/>
     </row>
     <row r="588" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F588" s="5"/>
+      <c r="F588" s="4"/>
     </row>
     <row r="589" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F589" s="5"/>
+      <c r="F589" s="4"/>
     </row>
     <row r="590" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F590" s="5"/>
+      <c r="F590" s="4"/>
     </row>
     <row r="591" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F591" s="5"/>
+      <c r="F591" s="4"/>
     </row>
     <row r="592" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F592" s="5"/>
+      <c r="F592" s="4"/>
     </row>
     <row r="593" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F593" s="5"/>
+      <c r="F593" s="4"/>
     </row>
     <row r="594" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F594" s="5"/>
+      <c r="F594" s="4"/>
     </row>
     <row r="595" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F595" s="5"/>
+      <c r="F595" s="4"/>
     </row>
     <row r="596" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F596" s="5"/>
+      <c r="F596" s="4"/>
     </row>
     <row r="597" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F597" s="5"/>
+      <c r="F597" s="4"/>
     </row>
     <row r="598" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F598" s="5"/>
+      <c r="F598" s="4"/>
     </row>
     <row r="599" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F599" s="5"/>
+      <c r="F599" s="4"/>
     </row>
     <row r="600" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F600" s="5"/>
+      <c r="F600" s="4"/>
     </row>
     <row r="601" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F601" s="5"/>
+      <c r="F601" s="4"/>
     </row>
     <row r="602" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F602" s="5"/>
+      <c r="F602" s="4"/>
     </row>
     <row r="603" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F603" s="5"/>
+      <c r="F603" s="4"/>
     </row>
     <row r="604" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F604" s="5"/>
+      <c r="F604" s="4"/>
     </row>
     <row r="605" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F605" s="5"/>
+      <c r="F605" s="4"/>
     </row>
     <row r="606" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F606" s="5"/>
+      <c r="F606" s="4"/>
     </row>
     <row r="607" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F607" s="5"/>
+      <c r="F607" s="4"/>
     </row>
     <row r="608" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F608" s="5"/>
+      <c r="F608" s="4"/>
     </row>
     <row r="609" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F609" s="5"/>
+      <c r="F609" s="4"/>
     </row>
     <row r="610" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F610" s="5"/>
+      <c r="F610" s="4"/>
     </row>
     <row r="611" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F611" s="5"/>
+      <c r="F611" s="4"/>
     </row>
     <row r="612" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F612" s="5"/>
+      <c r="F612" s="4"/>
     </row>
     <row r="613" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F613" s="5"/>
+      <c r="F613" s="4"/>
     </row>
     <row r="614" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F614" s="5"/>
+      <c r="F614" s="4"/>
     </row>
     <row r="615" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F615" s="5"/>
+      <c r="F615" s="4"/>
     </row>
     <row r="616" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F616" s="5"/>
+      <c r="F616" s="4"/>
     </row>
     <row r="617" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F617" s="5"/>
+      <c r="F617" s="4"/>
     </row>
     <row r="618" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F618" s="5"/>
+      <c r="F618" s="4"/>
     </row>
     <row r="619" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F619" s="5"/>
+      <c r="F619" s="4"/>
     </row>
     <row r="620" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F620" s="5"/>
+      <c r="F620" s="4"/>
     </row>
     <row r="621" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F621" s="5"/>
+      <c r="F621" s="4"/>
     </row>
     <row r="622" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F622" s="5"/>
+      <c r="F622" s="4"/>
     </row>
     <row r="623" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F623" s="5"/>
+      <c r="F623" s="4"/>
     </row>
     <row r="624" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F624" s="5"/>
+      <c r="F624" s="4"/>
     </row>
     <row r="625" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F625" s="5"/>
+      <c r="F625" s="4"/>
     </row>
     <row r="626" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F626" s="5"/>
+      <c r="F626" s="4"/>
     </row>
     <row r="627" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F627" s="5"/>
+      <c r="F627" s="4"/>
     </row>
     <row r="628" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F628" s="5"/>
+      <c r="F628" s="4"/>
     </row>
     <row r="629" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F629" s="5"/>
+      <c r="F629" s="4"/>
     </row>
     <row r="630" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F630" s="5"/>
+      <c r="F630" s="4"/>
     </row>
     <row r="631" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F631" s="5"/>
+      <c r="F631" s="4"/>
     </row>
     <row r="632" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F632" s="5"/>
+      <c r="F632" s="4"/>
     </row>
     <row r="633" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F633" s="5"/>
+      <c r="F633" s="4"/>
     </row>
     <row r="634" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F634" s="5"/>
+      <c r="F634" s="4"/>
     </row>
     <row r="635" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F635" s="5"/>
+      <c r="F635" s="4"/>
     </row>
     <row r="636" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F636" s="5"/>
+      <c r="F636" s="4"/>
     </row>
     <row r="637" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F637" s="5"/>
+      <c r="F637" s="4"/>
     </row>
     <row r="638" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F638" s="5"/>
+      <c r="F638" s="4"/>
     </row>
     <row r="639" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F639" s="5"/>
+      <c r="F639" s="4"/>
     </row>
     <row r="640" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F640" s="5"/>
+      <c r="F640" s="4"/>
     </row>
     <row r="641" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F641" s="5"/>
+      <c r="F641" s="4"/>
     </row>
     <row r="642" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F642" s="5"/>
+      <c r="F642" s="4"/>
     </row>
     <row r="643" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F643" s="5"/>
+      <c r="F643" s="4"/>
     </row>
     <row r="644" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F644" s="5"/>
+      <c r="F644" s="4"/>
     </row>
     <row r="645" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F645" s="5"/>
+      <c r="F645" s="4"/>
     </row>
     <row r="646" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F646" s="5"/>
+      <c r="F646" s="4"/>
     </row>
     <row r="647" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F647" s="5"/>
+      <c r="F647" s="4"/>
     </row>
     <row r="648" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F648" s="5"/>
+      <c r="F648" s="4"/>
     </row>
     <row r="649" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F649" s="5"/>
+      <c r="F649" s="4"/>
     </row>
     <row r="650" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F650" s="5"/>
+      <c r="F650" s="4"/>
     </row>
     <row r="651" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F651" s="5"/>
+      <c r="F651" s="4"/>
     </row>
     <row r="652" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F652" s="5"/>
+      <c r="F652" s="4"/>
     </row>
     <row r="653" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F653" s="5"/>
+      <c r="F653" s="4"/>
     </row>
     <row r="654" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F654" s="5"/>
+      <c r="F654" s="4"/>
     </row>
     <row r="655" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F655" s="5"/>
+      <c r="F655" s="4"/>
     </row>
     <row r="656" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F656" s="5"/>
+      <c r="F656" s="4"/>
     </row>
     <row r="657" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F657" s="5"/>
+      <c r="F657" s="4"/>
     </row>
     <row r="658" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F658" s="5"/>
+      <c r="F658" s="4"/>
     </row>
     <row r="659" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F659" s="5"/>
+      <c r="F659" s="4"/>
     </row>
     <row r="660" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F660" s="5"/>
+      <c r="F660" s="4"/>
     </row>
     <row r="661" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F661" s="5"/>
+      <c r="F661" s="4"/>
     </row>
     <row r="662" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F662" s="5"/>
+      <c r="F662" s="4"/>
     </row>
     <row r="663" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F663" s="5"/>
+      <c r="F663" s="4"/>
     </row>
     <row r="664" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F664" s="5"/>
+      <c r="F664" s="4"/>
     </row>
     <row r="665" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F665" s="5"/>
+      <c r="F665" s="4"/>
     </row>
     <row r="666" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F666" s="5"/>
+      <c r="F666" s="4"/>
     </row>
     <row r="667" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F667" s="5"/>
+      <c r="F667" s="4"/>
     </row>
     <row r="668" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F668" s="5"/>
+      <c r="F668" s="4"/>
     </row>
     <row r="669" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F669" s="5"/>
+      <c r="F669" s="4"/>
     </row>
     <row r="670" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F670" s="5"/>
+      <c r="F670" s="4"/>
     </row>
     <row r="671" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F671" s="5"/>
+      <c r="F671" s="4"/>
     </row>
     <row r="672" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F672" s="5"/>
+      <c r="F672" s="4"/>
     </row>
     <row r="673" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F673" s="5"/>
+      <c r="F673" s="4"/>
     </row>
     <row r="674" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F674" s="5"/>
+      <c r="F674" s="4"/>
     </row>
     <row r="675" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F675" s="5"/>
+      <c r="F675" s="4"/>
     </row>
     <row r="676" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F676" s="5"/>
+      <c r="F676" s="4"/>
     </row>
     <row r="677" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F677" s="5"/>
+      <c r="F677" s="4"/>
     </row>
     <row r="678" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F678" s="5"/>
+      <c r="F678" s="4"/>
     </row>
     <row r="679" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F679" s="5"/>
+      <c r="F679" s="4"/>
     </row>
     <row r="680" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F680" s="5"/>
+      <c r="F680" s="4"/>
     </row>
     <row r="681" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F681" s="5"/>
+      <c r="F681" s="4"/>
     </row>
     <row r="682" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F682" s="5"/>
+      <c r="F682" s="4"/>
     </row>
     <row r="683" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F683" s="5"/>
+      <c r="F683" s="4"/>
     </row>
     <row r="684" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F684" s="5"/>
+      <c r="F684" s="4"/>
     </row>
     <row r="685" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F685" s="5"/>
+      <c r="F685" s="4"/>
     </row>
     <row r="686" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F686" s="5"/>
+      <c r="F686" s="4"/>
     </row>
     <row r="687" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F687" s="5"/>
+      <c r="F687" s="4"/>
     </row>
     <row r="688" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F688" s="5"/>
+      <c r="F688" s="4"/>
     </row>
     <row r="689" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F689" s="5"/>
+      <c r="F689" s="4"/>
     </row>
     <row r="690" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F690" s="5"/>
+      <c r="F690" s="4"/>
     </row>
     <row r="691" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F691" s="5"/>
+      <c r="F691" s="4"/>
     </row>
     <row r="692" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F692" s="5"/>
+      <c r="F692" s="4"/>
     </row>
     <row r="693" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F693" s="5"/>
+      <c r="F693" s="4"/>
     </row>
     <row r="694" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F694" s="5"/>
+      <c r="F694" s="4"/>
     </row>
     <row r="695" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F695" s="5"/>
+      <c r="F695" s="4"/>
     </row>
     <row r="696" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F696" s="5"/>
+      <c r="F696" s="4"/>
     </row>
     <row r="697" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F697" s="5"/>
+      <c r="F697" s="4"/>
     </row>
     <row r="698" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F698" s="5"/>
+      <c r="F698" s="4"/>
     </row>
     <row r="699" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F699" s="5"/>
+      <c r="F699" s="4"/>
     </row>
     <row r="700" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F700" s="5"/>
+      <c r="F700" s="4"/>
     </row>
     <row r="701" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F701" s="5"/>
+      <c r="F701" s="4"/>
     </row>
     <row r="702" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F702" s="5"/>
+      <c r="F702" s="4"/>
     </row>
     <row r="703" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F703" s="5"/>
+      <c r="F703" s="4"/>
     </row>
     <row r="704" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F704" s="5"/>
+      <c r="F704" s="4"/>
     </row>
     <row r="705" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F705" s="5"/>
+      <c r="F705" s="4"/>
     </row>
     <row r="706" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F706" s="5"/>
+      <c r="F706" s="4"/>
     </row>
     <row r="707" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F707" s="5"/>
+      <c r="F707" s="4"/>
     </row>
     <row r="708" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F708" s="5"/>
+      <c r="F708" s="4"/>
     </row>
     <row r="709" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F709" s="5"/>
+      <c r="F709" s="4"/>
     </row>
     <row r="710" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F710" s="5"/>
+      <c r="F710" s="4"/>
     </row>
     <row r="711" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F711" s="5"/>
+      <c r="F711" s="4"/>
     </row>
     <row r="712" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F712" s="5"/>
+      <c r="F712" s="4"/>
     </row>
     <row r="713" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F713" s="5"/>
+      <c r="F713" s="4"/>
     </row>
     <row r="714" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F714" s="5"/>
+      <c r="F714" s="4"/>
     </row>
     <row r="715" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F715" s="5"/>
+      <c r="F715" s="4"/>
     </row>
     <row r="716" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F716" s="5"/>
+      <c r="F716" s="4"/>
     </row>
     <row r="717" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F717" s="5"/>
+      <c r="F717" s="4"/>
     </row>
     <row r="718" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F718" s="5"/>
+      <c r="F718" s="4"/>
     </row>
     <row r="719" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F719" s="5"/>
+      <c r="F719" s="4"/>
     </row>
     <row r="720" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F720" s="5"/>
+      <c r="F720" s="4"/>
     </row>
     <row r="721" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F721" s="5"/>
+      <c r="F721" s="4"/>
     </row>
     <row r="722" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F722" s="5"/>
+      <c r="F722" s="4"/>
     </row>
     <row r="723" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F723" s="5"/>
+      <c r="F723" s="4"/>
     </row>
     <row r="724" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F724" s="5"/>
+      <c r="F724" s="4"/>
     </row>
     <row r="725" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F725" s="5"/>
+      <c r="F725" s="4"/>
     </row>
     <row r="726" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F726" s="5"/>
+      <c r="F726" s="4"/>
     </row>
     <row r="727" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F727" s="5"/>
+      <c r="F727" s="4"/>
     </row>
     <row r="728" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F728" s="5"/>
+      <c r="F728" s="4"/>
     </row>
     <row r="729" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F729" s="5"/>
+      <c r="F729" s="4"/>
     </row>
     <row r="730" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F730" s="5"/>
+      <c r="F730" s="4"/>
     </row>
     <row r="731" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F731" s="5"/>
+      <c r="F731" s="4"/>
     </row>
     <row r="732" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F732" s="5"/>
+      <c r="F732" s="4"/>
     </row>
     <row r="733" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F733" s="5"/>
+      <c r="F733" s="4"/>
     </row>
     <row r="734" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F734" s="5"/>
+      <c r="F734" s="4"/>
     </row>
     <row r="735" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F735" s="5"/>
+      <c r="F735" s="4"/>
     </row>
     <row r="736" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F736" s="5"/>
+      <c r="F736" s="4"/>
     </row>
     <row r="737" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F737" s="5"/>
+      <c r="F737" s="4"/>
     </row>
     <row r="738" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F738" s="5"/>
+      <c r="F738" s="4"/>
     </row>
     <row r="739" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F739" s="5"/>
+      <c r="F739" s="4"/>
     </row>
     <row r="740" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F740" s="5"/>
+      <c r="F740" s="4"/>
     </row>
     <row r="741" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F741" s="5"/>
+      <c r="F741" s="4"/>
     </row>
     <row r="742" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F742" s="5"/>
+      <c r="F742" s="4"/>
     </row>
     <row r="743" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F743" s="5"/>
+      <c r="F743" s="4"/>
     </row>
     <row r="744" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F744" s="5"/>
+      <c r="F744" s="4"/>
     </row>
     <row r="745" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F745" s="5"/>
+      <c r="F745" s="4"/>
     </row>
     <row r="746" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F746" s="5"/>
+      <c r="F746" s="4"/>
     </row>
     <row r="747" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F747" s="5"/>
+      <c r="F747" s="4"/>
     </row>
     <row r="748" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F748" s="5"/>
+      <c r="F748" s="4"/>
     </row>
     <row r="749" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F749" s="5"/>
+      <c r="F749" s="4"/>
     </row>
     <row r="750" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F750" s="5"/>
+      <c r="F750" s="4"/>
     </row>
     <row r="751" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F751" s="5"/>
+      <c r="F751" s="4"/>
     </row>
     <row r="752" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F752" s="5"/>
+      <c r="F752" s="4"/>
     </row>
     <row r="753" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F753" s="5"/>
+      <c r="F753" s="4"/>
     </row>
     <row r="754" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F754" s="5"/>
+      <c r="F754" s="4"/>
     </row>
     <row r="755" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F755" s="5"/>
+      <c r="F755" s="4"/>
     </row>
     <row r="756" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F756" s="5"/>
+      <c r="F756" s="4"/>
     </row>
     <row r="757" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F757" s="5"/>
+      <c r="F757" s="4"/>
     </row>
     <row r="758" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F758" s="5"/>
+      <c r="F758" s="4"/>
     </row>
     <row r="759" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F759" s="5"/>
+      <c r="F759" s="4"/>
     </row>
     <row r="760" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F760" s="5"/>
+      <c r="F760" s="4"/>
     </row>
     <row r="761" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F761" s="5"/>
+      <c r="F761" s="4"/>
     </row>
     <row r="762" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F762" s="5"/>
+      <c r="F762" s="4"/>
     </row>
     <row r="763" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F763" s="5"/>
+      <c r="F763" s="4"/>
     </row>
     <row r="764" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F764" s="5"/>
+      <c r="F764" s="4"/>
     </row>
     <row r="765" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F765" s="5"/>
+      <c r="F765" s="4"/>
     </row>
     <row r="766" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F766" s="5"/>
+      <c r="F766" s="4"/>
     </row>
     <row r="767" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F767" s="5"/>
+      <c r="F767" s="4"/>
     </row>
     <row r="768" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F768" s="5"/>
+      <c r="F768" s="4"/>
     </row>
     <row r="769" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F769" s="5"/>
+      <c r="F769" s="4"/>
     </row>
     <row r="770" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F770" s="5"/>
+      <c r="F770" s="4"/>
     </row>
     <row r="771" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F771" s="5"/>
+      <c r="F771" s="4"/>
     </row>
     <row r="772" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F772" s="5"/>
+      <c r="F772" s="4"/>
     </row>
     <row r="773" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F773" s="5"/>
+      <c r="F773" s="4"/>
     </row>
     <row r="774" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F774" s="5"/>
+      <c r="F774" s="4"/>
     </row>
     <row r="775" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F775" s="5"/>
+      <c r="F775" s="4"/>
     </row>
     <row r="776" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F776" s="5"/>
+      <c r="F776" s="4"/>
     </row>
     <row r="777" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F777" s="5"/>
+      <c r="F777" s="4"/>
     </row>
     <row r="778" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F778" s="5"/>
+      <c r="F778" s="4"/>
     </row>
     <row r="779" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F779" s="5"/>
+      <c r="F779" s="4"/>
     </row>
     <row r="780" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F780" s="5"/>
+      <c r="F780" s="4"/>
     </row>
     <row r="781" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F781" s="5"/>
+      <c r="F781" s="4"/>
     </row>
     <row r="782" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F782" s="5"/>
+      <c r="F782" s="4"/>
     </row>
     <row r="783" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F783" s="5"/>
+      <c r="F783" s="4"/>
     </row>
     <row r="784" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F784" s="5"/>
+      <c r="F784" s="4"/>
     </row>
     <row r="785" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F785" s="5"/>
+      <c r="F785" s="4"/>
     </row>
     <row r="786" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F786" s="5"/>
+      <c r="F786" s="4"/>
     </row>
     <row r="787" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F787" s="5"/>
+      <c r="F787" s="4"/>
     </row>
     <row r="788" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F788" s="5"/>
+      <c r="F788" s="4"/>
     </row>
     <row r="789" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F789" s="5"/>
+      <c r="F789" s="4"/>
     </row>
     <row r="790" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F790" s="5"/>
+      <c r="F790" s="4"/>
     </row>
     <row r="791" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F791" s="5"/>
+      <c r="F791" s="4"/>
     </row>
     <row r="792" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F792" s="5"/>
+      <c r="F792" s="4"/>
     </row>
     <row r="793" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F793" s="5"/>
+      <c r="F793" s="4"/>
     </row>
     <row r="794" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F794" s="5"/>
+      <c r="F794" s="4"/>
     </row>
     <row r="795" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F795" s="5"/>
+      <c r="F795" s="4"/>
     </row>
     <row r="796" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F796" s="5"/>
+      <c r="F796" s="4"/>
     </row>
     <row r="797" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F797" s="5"/>
+      <c r="F797" s="4"/>
     </row>
     <row r="798" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F798" s="5"/>
+      <c r="F798" s="4"/>
     </row>
     <row r="799" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F799" s="5"/>
+      <c r="F799" s="4"/>
     </row>
     <row r="800" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F800" s="5"/>
+      <c r="F800" s="4"/>
     </row>
     <row r="801" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F801" s="5"/>
+      <c r="F801" s="4"/>
     </row>
     <row r="802" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F802" s="5"/>
+      <c r="F802" s="4"/>
     </row>
     <row r="803" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F803" s="5"/>
+      <c r="F803" s="4"/>
     </row>
     <row r="804" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F804" s="5"/>
+      <c r="F804" s="4"/>
     </row>
     <row r="805" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F805" s="5"/>
+      <c r="F805" s="4"/>
     </row>
     <row r="806" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F806" s="5"/>
+      <c r="F806" s="4"/>
     </row>
     <row r="807" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F807" s="5"/>
+      <c r="F807" s="4"/>
     </row>
     <row r="808" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F808" s="5"/>
+      <c r="F808" s="4"/>
     </row>
     <row r="809" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F809" s="5"/>
+      <c r="F809" s="4"/>
     </row>
     <row r="810" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F810" s="5"/>
+      <c r="F810" s="4"/>
     </row>
     <row r="811" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F811" s="5"/>
+      <c r="F811" s="4"/>
     </row>
     <row r="812" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F812" s="5"/>
+      <c r="F812" s="4"/>
     </row>
     <row r="813" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F813" s="5"/>
+      <c r="F813" s="4"/>
     </row>
     <row r="814" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F814" s="5"/>
+      <c r="F814" s="4"/>
     </row>
     <row r="815" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F815" s="5"/>
+      <c r="F815" s="4"/>
     </row>
     <row r="816" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F816" s="5"/>
+      <c r="F816" s="4"/>
     </row>
     <row r="817" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F817" s="5"/>
+      <c r="F817" s="4"/>
     </row>
     <row r="818" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F818" s="5"/>
+      <c r="F818" s="4"/>
     </row>
     <row r="819" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F819" s="5"/>
+      <c r="F819" s="4"/>
     </row>
     <row r="820" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F820" s="5"/>
+      <c r="F820" s="4"/>
     </row>
     <row r="821" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F821" s="5"/>
+      <c r="F821" s="4"/>
     </row>
     <row r="822" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F822" s="5"/>
+      <c r="F822" s="4"/>
     </row>
     <row r="823" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F823" s="5"/>
+      <c r="F823" s="4"/>
     </row>
     <row r="824" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F824" s="5"/>
+      <c r="F824" s="4"/>
     </row>
     <row r="825" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F825" s="5"/>
+      <c r="F825" s="4"/>
     </row>
     <row r="826" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F826" s="5"/>
+      <c r="F826" s="4"/>
     </row>
     <row r="827" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F827" s="5"/>
+      <c r="F827" s="4"/>
     </row>
     <row r="828" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F828" s="5"/>
+      <c r="F828" s="4"/>
     </row>
     <row r="829" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F829" s="5"/>
+      <c r="F829" s="4"/>
     </row>
     <row r="830" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F830" s="5"/>
+      <c r="F830" s="4"/>
     </row>
     <row r="831" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F831" s="5"/>
+      <c r="F831" s="4"/>
     </row>
     <row r="832" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F832" s="5"/>
+      <c r="F832" s="4"/>
     </row>
     <row r="833" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F833" s="5"/>
+      <c r="F833" s="4"/>
     </row>
     <row r="834" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F834" s="5"/>
+      <c r="F834" s="4"/>
     </row>
     <row r="835" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F835" s="5"/>
+      <c r="F835" s="4"/>
     </row>
     <row r="836" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F836" s="5"/>
+      <c r="F836" s="4"/>
     </row>
     <row r="837" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F837" s="5"/>
+      <c r="F837" s="4"/>
     </row>
     <row r="838" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F838" s="5"/>
+      <c r="F838" s="4"/>
     </row>
     <row r="839" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F839" s="5"/>
+      <c r="F839" s="4"/>
     </row>
     <row r="840" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F840" s="5"/>
+      <c r="F840" s="4"/>
     </row>
     <row r="841" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F841" s="5"/>
+      <c r="F841" s="4"/>
     </row>
     <row r="842" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F842" s="5"/>
+      <c r="F842" s="4"/>
     </row>
     <row r="843" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F843" s="5"/>
+      <c r="F843" s="4"/>
     </row>
     <row r="844" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F844" s="5"/>
+      <c r="F844" s="4"/>
     </row>
     <row r="845" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F845" s="5"/>
+      <c r="F845" s="4"/>
     </row>
     <row r="846" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F846" s="5"/>
+      <c r="F846" s="4"/>
     </row>
     <row r="847" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F847" s="5"/>
+      <c r="F847" s="4"/>
     </row>
     <row r="848" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F848" s="5"/>
+      <c r="F848" s="4"/>
     </row>
     <row r="849" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F849" s="5"/>
+      <c r="F849" s="4"/>
     </row>
     <row r="850" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F850" s="5"/>
+      <c r="F850" s="4"/>
     </row>
     <row r="851" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F851" s="5"/>
+      <c r="F851" s="4"/>
     </row>
     <row r="852" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F852" s="5"/>
+      <c r="F852" s="4"/>
     </row>
     <row r="853" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F853" s="5"/>
+      <c r="F853" s="4"/>
     </row>
     <row r="854" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F854" s="5"/>
+      <c r="F854" s="4"/>
     </row>
     <row r="855" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F855" s="5"/>
+      <c r="F855" s="4"/>
     </row>
     <row r="856" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F856" s="5"/>
+      <c r="F856" s="4"/>
     </row>
     <row r="857" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F857" s="5"/>
+      <c r="F857" s="4"/>
     </row>
     <row r="858" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F858" s="5"/>
+      <c r="F858" s="4"/>
     </row>
     <row r="859" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F859" s="5"/>
+      <c r="F859" s="4"/>
     </row>
     <row r="860" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F860" s="5"/>
+      <c r="F860" s="4"/>
     </row>
     <row r="861" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F861" s="5"/>
+      <c r="F861" s="4"/>
     </row>
     <row r="862" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F862" s="5"/>
+      <c r="F862" s="4"/>
     </row>
     <row r="863" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F863" s="5"/>
+      <c r="F863" s="4"/>
     </row>
     <row r="864" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F864" s="5"/>
+      <c r="F864" s="4"/>
     </row>
     <row r="865" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F865" s="5"/>
+      <c r="F865" s="4"/>
     </row>
     <row r="866" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F866" s="5"/>
+      <c r="F866" s="4"/>
     </row>
     <row r="867" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F867" s="5"/>
+      <c r="F867" s="4"/>
     </row>
     <row r="868" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F868" s="5"/>
+      <c r="F868" s="4"/>
     </row>
     <row r="869" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F869" s="5"/>
+      <c r="F869" s="4"/>
     </row>
     <row r="870" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F870" s="5"/>
+      <c r="F870" s="4"/>
     </row>
     <row r="871" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F871" s="5"/>
+      <c r="F871" s="4"/>
     </row>
     <row r="872" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F872" s="5"/>
+      <c r="F872" s="4"/>
     </row>
     <row r="873" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F873" s="5"/>
+      <c r="F873" s="4"/>
     </row>
     <row r="874" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F874" s="5"/>
+      <c r="F874" s="4"/>
     </row>
     <row r="875" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F875" s="5"/>
+      <c r="F875" s="4"/>
     </row>
     <row r="876" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F876" s="5"/>
+      <c r="F876" s="4"/>
     </row>
     <row r="877" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F877" s="5"/>
+      <c r="F877" s="4"/>
     </row>
     <row r="878" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F878" s="5"/>
+      <c r="F878" s="4"/>
     </row>
     <row r="879" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F879" s="5"/>
+      <c r="F879" s="4"/>
     </row>
     <row r="880" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F880" s="5"/>
+      <c r="F880" s="4"/>
     </row>
     <row r="881" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F881" s="5"/>
+      <c r="F881" s="4"/>
     </row>
     <row r="882" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F882" s="5"/>
+      <c r="F882" s="4"/>
     </row>
     <row r="883" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F883" s="5"/>
+      <c r="F883" s="4"/>
     </row>
     <row r="884" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F884" s="5"/>
+      <c r="F884" s="4"/>
     </row>
     <row r="885" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F885" s="5"/>
+      <c r="F885" s="4"/>
     </row>
     <row r="886" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F886" s="5"/>
+      <c r="F886" s="4"/>
     </row>
     <row r="887" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F887" s="5"/>
+      <c r="F887" s="4"/>
     </row>
     <row r="888" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F888" s="5"/>
+      <c r="F888" s="4"/>
     </row>
     <row r="889" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F889" s="5"/>
+      <c r="F889" s="4"/>
     </row>
     <row r="890" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F890" s="5"/>
+      <c r="F890" s="4"/>
     </row>
     <row r="891" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F891" s="5"/>
+      <c r="F891" s="4"/>
     </row>
     <row r="892" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F892" s="5"/>
+      <c r="F892" s="4"/>
     </row>
     <row r="893" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F893" s="5"/>
+      <c r="F893" s="4"/>
     </row>
     <row r="894" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F894" s="5"/>
+      <c r="F894" s="4"/>
     </row>
     <row r="895" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F895" s="5"/>
+      <c r="F895" s="4"/>
     </row>
     <row r="896" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F896" s="5"/>
+      <c r="F896" s="4"/>
     </row>
     <row r="897" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F897" s="5"/>
+      <c r="F897" s="4"/>
     </row>
     <row r="898" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F898" s="5"/>
+      <c r="F898" s="4"/>
     </row>
     <row r="899" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F899" s="5"/>
+      <c r="F899" s="4"/>
     </row>
     <row r="900" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F900" s="5"/>
+      <c r="F900" s="4"/>
     </row>
     <row r="901" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F901" s="5"/>
+      <c r="F901" s="4"/>
     </row>
     <row r="902" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F902" s="5"/>
+      <c r="F902" s="4"/>
     </row>
     <row r="903" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F903" s="5"/>
+      <c r="F903" s="4"/>
     </row>
     <row r="904" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F904" s="5"/>
+      <c r="F904" s="4"/>
     </row>
     <row r="905" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F905" s="5"/>
+      <c r="F905" s="4"/>
     </row>
     <row r="906" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F906" s="5"/>
+      <c r="F906" s="4"/>
     </row>
     <row r="907" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F907" s="5"/>
+      <c r="F907" s="4"/>
     </row>
     <row r="908" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F908" s="5"/>
+      <c r="F908" s="4"/>
     </row>
     <row r="909" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F909" s="5"/>
+      <c r="F909" s="4"/>
     </row>
     <row r="910" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F910" s="5"/>
+      <c r="F910" s="4"/>
     </row>
     <row r="911" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F911" s="5"/>
+      <c r="F911" s="4"/>
     </row>
     <row r="912" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F912" s="5"/>
+      <c r="F912" s="4"/>
     </row>
     <row r="913" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F913" s="5"/>
+      <c r="F913" s="4"/>
     </row>
     <row r="914" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F914" s="5"/>
+      <c r="F914" s="4"/>
     </row>
     <row r="915" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F915" s="5"/>
+      <c r="F915" s="4"/>
     </row>
     <row r="916" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F916" s="5"/>
+      <c r="F916" s="4"/>
     </row>
     <row r="917" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F917" s="5"/>
+      <c r="F917" s="4"/>
     </row>
     <row r="918" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F918" s="5"/>
+      <c r="F918" s="4"/>
     </row>
     <row r="919" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F919" s="5"/>
+      <c r="F919" s="4"/>
     </row>
     <row r="920" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F920" s="5"/>
+      <c r="F920" s="4"/>
     </row>
     <row r="921" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F921" s="5"/>
+      <c r="F921" s="4"/>
     </row>
     <row r="922" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F922" s="5"/>
+      <c r="F922" s="4"/>
     </row>
     <row r="923" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F923" s="5"/>
+      <c r="F923" s="4"/>
     </row>
     <row r="924" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F924" s="5"/>
+      <c r="F924" s="4"/>
     </row>
     <row r="925" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F925" s="5"/>
+      <c r="F925" s="4"/>
     </row>
     <row r="926" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F926" s="5"/>
+      <c r="F926" s="4"/>
     </row>
     <row r="927" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F927" s="5"/>
+      <c r="F927" s="4"/>
     </row>
     <row r="928" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F928" s="5"/>
+      <c r="F928" s="4"/>
     </row>
     <row r="929" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F929" s="5"/>
+      <c r="F929" s="4"/>
     </row>
     <row r="930" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F930" s="5"/>
+      <c r="F930" s="4"/>
     </row>
     <row r="931" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F931" s="5"/>
+      <c r="F931" s="4"/>
     </row>
     <row r="932" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F932" s="5"/>
+      <c r="F932" s="4"/>
     </row>
     <row r="933" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F933" s="5"/>
+      <c r="F933" s="4"/>
     </row>
     <row r="934" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F934" s="5"/>
+      <c r="F934" s="4"/>
     </row>
     <row r="935" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F935" s="5"/>
+      <c r="F935" s="4"/>
     </row>
     <row r="936" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F936" s="5"/>
+      <c r="F936" s="4"/>
     </row>
     <row r="937" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F937" s="5"/>
+      <c r="F937" s="4"/>
     </row>
     <row r="938" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F938" s="5"/>
+      <c r="F938" s="4"/>
     </row>
     <row r="939" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F939" s="5"/>
+      <c r="F939" s="4"/>
     </row>
     <row r="940" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F940" s="5"/>
+      <c r="F940" s="4"/>
     </row>
     <row r="941" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F941" s="5"/>
+      <c r="F941" s="4"/>
     </row>
     <row r="942" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F942" s="5"/>
+      <c r="F942" s="4"/>
     </row>
     <row r="943" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F943" s="5"/>
+      <c r="F943" s="4"/>
     </row>
     <row r="944" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F944" s="5"/>
+      <c r="F944" s="4"/>
     </row>
     <row r="945" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F945" s="5"/>
+      <c r="F945" s="4"/>
     </row>
     <row r="946" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F946" s="5"/>
+      <c r="F946" s="4"/>
     </row>
     <row r="947" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F947" s="5"/>
+      <c r="F947" s="4"/>
     </row>
     <row r="948" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F948" s="5"/>
+      <c r="F948" s="4"/>
     </row>
     <row r="949" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F949" s="5"/>
+      <c r="F949" s="4"/>
     </row>
     <row r="950" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F950" s="5"/>
+      <c r="F950" s="4"/>
     </row>
     <row r="951" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F951" s="5"/>
+      <c r="F951" s="4"/>
     </row>
     <row r="952" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F952" s="5"/>
+      <c r="F952" s="4"/>
     </row>
     <row r="953" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F953" s="5"/>
+      <c r="F953" s="4"/>
     </row>
     <row r="954" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F954" s="5"/>
+      <c r="F954" s="4"/>
     </row>
     <row r="955" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F955" s="5"/>
+      <c r="F955" s="4"/>
     </row>
     <row r="956" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F956" s="5"/>
+      <c r="F956" s="4"/>
     </row>
     <row r="957" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F957" s="5"/>
+      <c r="F957" s="4"/>
     </row>
     <row r="958" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F958" s="5"/>
+      <c r="F958" s="4"/>
     </row>
     <row r="959" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F959" s="5"/>
+      <c r="F959" s="4"/>
     </row>
     <row r="960" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F960" s="5"/>
+      <c r="F960" s="4"/>
     </row>
     <row r="961" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F961" s="5"/>
+      <c r="F961" s="4"/>
     </row>
     <row r="962" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F962" s="5"/>
+      <c r="F962" s="4"/>
     </row>
     <row r="963" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F963" s="5"/>
+      <c r="F963" s="4"/>
     </row>
     <row r="964" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F964" s="5"/>
+      <c r="F964" s="4"/>
     </row>
     <row r="965" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F965" s="5"/>
+      <c r="F965" s="4"/>
     </row>
     <row r="966" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F966" s="5"/>
+      <c r="F966" s="4"/>
     </row>
     <row r="967" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F967" s="5"/>
+      <c r="F967" s="4"/>
     </row>
     <row r="968" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F968" s="5"/>
+      <c r="F968" s="4"/>
     </row>
     <row r="969" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F969" s="5"/>
+      <c r="F969" s="4"/>
     </row>
     <row r="970" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F970" s="5"/>
+      <c r="F970" s="4"/>
     </row>
     <row r="971" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F971" s="5"/>
+      <c r="F971" s="4"/>
     </row>
     <row r="972" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F972" s="5"/>
+      <c r="F972" s="4"/>
     </row>
     <row r="973" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F973" s="5"/>
+      <c r="F973" s="4"/>
     </row>
     <row r="974" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F974" s="5"/>
+      <c r="F974" s="4"/>
     </row>
     <row r="975" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F975" s="5"/>
+      <c r="F975" s="4"/>
     </row>
     <row r="976" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F976" s="5"/>
+      <c r="F976" s="4"/>
     </row>
     <row r="977" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F977" s="5"/>
+      <c r="F977" s="4"/>
     </row>
     <row r="978" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F978" s="5"/>
+      <c r="F978" s="4"/>
     </row>
     <row r="979" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F979" s="5"/>
+      <c r="F979" s="4"/>
     </row>
     <row r="980" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F980" s="5"/>
+      <c r="F980" s="4"/>
     </row>
     <row r="981" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F981" s="5"/>
+      <c r="F981" s="4"/>
     </row>
     <row r="982" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F982" s="5"/>
+      <c r="F982" s="4"/>
     </row>
     <row r="983" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F983" s="5"/>
+      <c r="F983" s="4"/>
     </row>
     <row r="984" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F984" s="5"/>
+      <c r="F984" s="4"/>
     </row>
     <row r="985" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F985" s="5"/>
+      <c r="F985" s="4"/>
     </row>
     <row r="986" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F986" s="5"/>
+      <c r="F986" s="4"/>
     </row>
     <row r="987" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F987" s="5"/>
+      <c r="F987" s="4"/>
     </row>
     <row r="988" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F988" s="5"/>
+      <c r="F988" s="4"/>
     </row>
     <row r="989" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F989" s="5"/>
+      <c r="F989" s="4"/>
     </row>
     <row r="990" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F990" s="5"/>
+      <c r="F990" s="4"/>
     </row>
     <row r="991" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F991" s="5"/>
+      <c r="F991" s="4"/>
     </row>
     <row r="992" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F992" s="5"/>
+      <c r="F992" s="4"/>
     </row>
     <row r="993" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F993" s="5"/>
+      <c r="F993" s="4"/>
     </row>
     <row r="994" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F994" s="5"/>
+      <c r="F994" s="4"/>
     </row>
     <row r="995" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F995" s="5"/>
+      <c r="F995" s="4"/>
     </row>
     <row r="996" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F996" s="5"/>
+      <c r="F996" s="4"/>
     </row>
     <row r="997" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F997" s="5"/>
+      <c r="F997" s="4"/>
     </row>
     <row r="998" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F998" s="5"/>
+      <c r="F998" s="4"/>
     </row>
     <row r="999" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F999" s="5"/>
+      <c r="F999" s="4"/>
     </row>
     <row r="1000" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F1000" s="5"/>
+      <c r="F1000" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/2023.xlsx
+++ b/2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\test-flask-python-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1672A5-0F88-46BF-8670-B241463503F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3096BE-3F86-4C9A-A68B-188971031046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -145,15 +145,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -184,11 +175,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -196,13 +184,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,16 +197,16 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,3556 +439,3616 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" style="17"/>
+    <col min="2" max="2" width="12.6640625" style="14"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13">
+      <c r="A1" s="10">
         <v>2.4091800000000001</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="15">
         <v>2.4154</v>
       </c>
-      <c r="C1" s="18">
+      <c r="C1" s="15">
         <v>2.4215399999999998</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="15">
         <v>2.4270800000000001</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="E1" s="15">
+        <v>2.4321700000000002</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="10">
         <v>2.4093800000000001</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="15">
         <v>2.4156200000000001</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="15">
         <v>2.4217399999999998</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="15">
         <v>2.4272499999999999</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="E2" s="15">
+        <v>2.4323299999999999</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="10">
         <v>2.4095800000000001</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="15">
         <v>2.4158400000000002</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="15">
         <v>2.4219400000000002</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="15">
         <v>2.4274200000000001</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="E3" s="15">
+        <v>2.43249</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="10">
         <v>2.40978</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="15">
         <v>2.4160599999999999</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="15">
         <v>2.4221400000000002</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="15">
         <v>2.4275899999999999</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="E4" s="15">
+        <v>2.4326500000000002</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="10">
         <v>2.40998</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="15">
         <v>2.41628</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="15">
         <v>2.4223400000000002</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="15">
         <v>2.4277600000000001</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="E5" s="15">
+        <v>2.4328099999999999</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="10">
         <v>2.41018</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="15">
         <v>2.4165000000000001</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="15">
         <v>2.4225400000000001</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <v>2.4279299999999999</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="E6" s="15">
+        <v>2.4329700000000001</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="10">
         <v>2.41038</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="15">
         <v>2.4167200000000002</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="15">
         <v>2.4227400000000001</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="15">
         <v>2.4281000000000001</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="E7" s="15">
+        <v>2.4331299999999998</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>2.4105799999999999</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="15">
         <v>2.4169399999999999</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="15">
         <v>2.4229400000000001</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="15">
         <v>2.4282699999999999</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="E8" s="15">
+        <v>2.43329</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="10">
         <v>2.4107799999999999</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="15">
         <v>2.41716</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>2.4231400000000001</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <v>2.4284400000000002</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="E9" s="15">
+        <v>2.4334500000000001</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="10">
         <v>2.4109799999999999</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="15">
         <v>2.4173800000000001</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="15">
         <v>2.42334</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <v>2.4286099999999999</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="E10" s="15">
+        <v>2.4336099999999998</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="10">
         <v>2.4111799999999999</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="15">
         <v>2.4176000000000002</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="15">
         <v>2.4235099999999998</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="D11" s="15">
+        <v>2.4287800000000002</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="10">
         <v>2.4113799999999999</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <v>2.4178199999999999</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="15">
         <v>2.4236800000000001</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="D12" s="15">
+        <v>2.4289499999999999</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="10">
         <v>2.4115799999999998</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="15">
         <v>2.41804</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="15">
         <v>2.4238499999999998</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="D13" s="15">
+        <v>2.4291200000000002</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="10">
         <v>2.4117799999999998</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="15">
         <v>2.4182600000000001</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="15">
         <v>2.4240200000000001</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="D14" s="15">
+        <v>2.4292899999999999</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="10">
         <v>2.4119799999999998</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="15">
         <v>2.4184800000000002</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="15">
         <v>2.4241899999999998</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="D15" s="15">
+        <v>2.4294600000000002</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="10">
         <v>2.4121800000000002</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="15">
         <v>2.4186999999999999</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="15">
         <v>2.4243600000000001</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="D16" s="15">
+        <v>2.42963</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="10">
         <v>2.4123800000000002</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="15">
         <v>2.41892</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="15">
         <v>2.4245299999999999</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="D17" s="15">
+        <v>2.4298000000000002</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="10">
         <v>2.4125800000000002</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="15">
         <v>2.4191400000000001</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="15">
         <v>2.4247000000000001</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="D18" s="15">
+        <v>2.42997</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="10">
         <v>2.4127800000000001</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="15">
         <v>2.4193600000000002</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="15">
         <v>2.4248699999999999</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="D19" s="15">
+        <v>2.4301400000000002</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="10">
         <v>2.4129800000000001</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="15">
         <v>2.4195799999999998</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="15">
         <v>2.4250400000000001</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="D20" s="15">
+        <v>2.43031</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21" s="10">
         <v>2.4131800000000001</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="15">
         <v>2.4198</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="15">
         <v>2.4252099999999999</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="D21" s="15">
+        <v>2.4304800000000002</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+      <c r="A22" s="10">
         <v>2.4133800000000001</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="15">
         <v>2.4200200000000001</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="15">
         <v>2.4253800000000001</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="D22" s="15">
+        <v>2.43065</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+      <c r="A23" s="10">
         <v>2.4135800000000001</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="15">
         <v>2.4202400000000002</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="15">
         <v>2.4255499999999999</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="D23" s="15">
+        <v>2.4308200000000002</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+      <c r="A24" s="10">
         <v>2.41378</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="15">
         <v>2.4204599999999998</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="15">
         <v>2.4257200000000001</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
+      <c r="D24" s="15">
+        <v>2.43099</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
+      <c r="A25" s="10">
         <v>2.41398</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="15">
         <v>2.4206799999999999</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="15">
         <v>2.4258899999999999</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
+      <c r="D25" s="15">
+        <v>2.4311600000000002</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+      <c r="A26" s="10">
         <v>2.41418</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="15">
         <v>2.4209000000000001</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="15">
         <v>2.4260600000000001</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="D26" s="15">
+        <v>2.43133</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
+      <c r="A27" s="10">
         <v>2.41438</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="15">
         <v>2.4211200000000002</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="15">
         <v>2.4262299999999999</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="D27" s="15">
+        <v>2.4315000000000002</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
+      <c r="A28" s="10">
         <v>2.4145799999999999</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="15">
         <v>2.4213399999999998</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="15">
         <v>2.4264000000000001</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="D28" s="15">
+        <v>2.43167</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
+      <c r="A29" s="10">
         <v>2.4147799999999999</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15">
         <v>2.4265699999999999</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="D29" s="15">
+        <v>2.4318399999999998</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
+      <c r="A30" s="10">
         <v>2.4149799999999999</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="18">
+      <c r="B30" s="13"/>
+      <c r="C30" s="15">
         <v>2.4267400000000001</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
+      <c r="D30" s="15">
+        <v>2.43201</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
+      <c r="A31" s="10">
         <v>2.4151799999999999</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="18">
+      <c r="B31" s="13"/>
+      <c r="C31" s="15">
         <v>2.4269099999999999</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="14"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F32" s="4"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F33" s="4"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F34" s="4"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F35" s="4"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F36" s="4"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F37" s="4"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F38" s="4"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F39" s="4"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F40" s="4"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F41" s="4"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F42" s="4"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F43" s="4"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F44" s="4"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F45" s="4"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F46" s="4"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F47" s="4"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F48" s="4"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F49" s="4"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F50" s="4"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F51" s="4"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F52" s="4"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F53" s="4"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F54" s="4"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F55" s="4"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F56" s="4"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F57" s="4"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F58" s="4"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F59" s="4"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F60" s="4"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F61" s="4"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F62" s="4"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F63" s="4"/>
+      <c r="F63" s="3"/>
     </row>
     <row r="64" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F64" s="4"/>
+      <c r="F64" s="3"/>
     </row>
     <row r="65" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F65" s="4"/>
+      <c r="F65" s="3"/>
     </row>
     <row r="66" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F66" s="4"/>
+      <c r="F66" s="3"/>
     </row>
     <row r="67" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F67" s="4"/>
+      <c r="F67" s="3"/>
     </row>
     <row r="68" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F68" s="4"/>
+      <c r="F68" s="3"/>
     </row>
     <row r="69" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F69" s="4"/>
+      <c r="F69" s="3"/>
     </row>
     <row r="70" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F70" s="4"/>
+      <c r="F70" s="3"/>
     </row>
     <row r="71" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F71" s="4"/>
+      <c r="F71" s="3"/>
     </row>
     <row r="72" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F72" s="4"/>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F73" s="4"/>
+      <c r="F73" s="3"/>
     </row>
     <row r="74" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F74" s="4"/>
+      <c r="F74" s="3"/>
     </row>
     <row r="75" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F75" s="4"/>
+      <c r="F75" s="3"/>
     </row>
     <row r="76" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F76" s="4"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F77" s="4"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F78" s="4"/>
+      <c r="F78" s="3"/>
     </row>
     <row r="79" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F79" s="4"/>
+      <c r="F79" s="3"/>
     </row>
     <row r="80" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F80" s="4"/>
+      <c r="F80" s="3"/>
     </row>
     <row r="81" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F81" s="4"/>
+      <c r="F81" s="3"/>
     </row>
     <row r="82" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F82" s="4"/>
+      <c r="F82" s="3"/>
     </row>
     <row r="83" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F83" s="4"/>
+      <c r="F83" s="3"/>
     </row>
     <row r="84" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F84" s="4"/>
+      <c r="F84" s="3"/>
     </row>
     <row r="85" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F85" s="4"/>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F86" s="4"/>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F87" s="4"/>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F88" s="4"/>
+      <c r="F88" s="3"/>
     </row>
     <row r="89" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F89" s="4"/>
+      <c r="F89" s="3"/>
     </row>
     <row r="90" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F90" s="4"/>
+      <c r="F90" s="3"/>
     </row>
     <row r="91" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F91" s="4"/>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F92" s="4"/>
+      <c r="F92" s="3"/>
     </row>
     <row r="93" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F93" s="4"/>
+      <c r="F93" s="3"/>
     </row>
     <row r="94" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F94" s="4"/>
+      <c r="F94" s="3"/>
     </row>
     <row r="95" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F95" s="4"/>
+      <c r="F95" s="3"/>
     </row>
     <row r="96" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F96" s="4"/>
+      <c r="F96" s="3"/>
     </row>
     <row r="97" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F97" s="4"/>
+      <c r="F97" s="3"/>
     </row>
     <row r="98" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F98" s="4"/>
+      <c r="F98" s="3"/>
     </row>
     <row r="99" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F99" s="4"/>
+      <c r="F99" s="3"/>
     </row>
     <row r="100" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F100" s="4"/>
+      <c r="F100" s="3"/>
     </row>
     <row r="101" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F101" s="4"/>
+      <c r="F101" s="3"/>
     </row>
     <row r="102" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F102" s="4"/>
+      <c r="F102" s="3"/>
     </row>
     <row r="103" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F103" s="4"/>
+      <c r="F103" s="3"/>
     </row>
     <row r="104" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F104" s="4"/>
+      <c r="F104" s="3"/>
     </row>
     <row r="105" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F105" s="4"/>
+      <c r="F105" s="3"/>
     </row>
     <row r="106" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F106" s="4"/>
+      <c r="F106" s="3"/>
     </row>
     <row r="107" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F107" s="4"/>
+      <c r="F107" s="3"/>
     </row>
     <row r="108" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F108" s="4"/>
+      <c r="F108" s="3"/>
     </row>
     <row r="109" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F109" s="4"/>
+      <c r="F109" s="3"/>
     </row>
     <row r="110" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F110" s="4"/>
+      <c r="F110" s="3"/>
     </row>
     <row r="111" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F111" s="4"/>
+      <c r="F111" s="3"/>
     </row>
     <row r="112" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F112" s="4"/>
+      <c r="F112" s="3"/>
     </row>
     <row r="113" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F113" s="4"/>
+      <c r="F113" s="3"/>
     </row>
     <row r="114" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F114" s="4"/>
+      <c r="F114" s="3"/>
     </row>
     <row r="115" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F115" s="4"/>
+      <c r="F115" s="3"/>
     </row>
     <row r="116" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F116" s="4"/>
+      <c r="F116" s="3"/>
     </row>
     <row r="117" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F117" s="4"/>
+      <c r="F117" s="3"/>
     </row>
     <row r="118" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F118" s="4"/>
+      <c r="F118" s="3"/>
     </row>
     <row r="119" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F119" s="4"/>
+      <c r="F119" s="3"/>
     </row>
     <row r="120" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F120" s="4"/>
+      <c r="F120" s="3"/>
     </row>
     <row r="121" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F121" s="4"/>
+      <c r="F121" s="3"/>
     </row>
     <row r="122" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F122" s="4"/>
+      <c r="F122" s="3"/>
     </row>
     <row r="123" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F123" s="4"/>
+      <c r="F123" s="3"/>
     </row>
     <row r="124" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F124" s="4"/>
+      <c r="F124" s="3"/>
     </row>
     <row r="125" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F125" s="4"/>
+      <c r="F125" s="3"/>
     </row>
     <row r="126" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F126" s="4"/>
+      <c r="F126" s="3"/>
     </row>
     <row r="127" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F127" s="4"/>
+      <c r="F127" s="3"/>
     </row>
     <row r="128" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F128" s="4"/>
+      <c r="F128" s="3"/>
     </row>
     <row r="129" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F129" s="4"/>
+      <c r="F129" s="3"/>
     </row>
     <row r="130" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F130" s="4"/>
+      <c r="F130" s="3"/>
     </row>
     <row r="131" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F131" s="4"/>
+      <c r="F131" s="3"/>
     </row>
     <row r="132" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F132" s="4"/>
+      <c r="F132" s="3"/>
     </row>
     <row r="133" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F133" s="4"/>
+      <c r="F133" s="3"/>
     </row>
     <row r="134" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F134" s="4"/>
+      <c r="F134" s="3"/>
     </row>
     <row r="135" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F135" s="4"/>
+      <c r="F135" s="3"/>
     </row>
     <row r="136" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F136" s="4"/>
+      <c r="F136" s="3"/>
     </row>
     <row r="137" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F137" s="4"/>
+      <c r="F137" s="3"/>
     </row>
     <row r="138" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F138" s="4"/>
+      <c r="F138" s="3"/>
     </row>
     <row r="139" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F139" s="4"/>
+      <c r="F139" s="3"/>
     </row>
     <row r="140" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F140" s="4"/>
+      <c r="F140" s="3"/>
     </row>
     <row r="141" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F141" s="4"/>
+      <c r="F141" s="3"/>
     </row>
     <row r="142" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F142" s="4"/>
+      <c r="F142" s="3"/>
     </row>
     <row r="143" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F143" s="4"/>
+      <c r="F143" s="3"/>
     </row>
     <row r="144" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F144" s="4"/>
+      <c r="F144" s="3"/>
     </row>
     <row r="145" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F145" s="4"/>
+      <c r="F145" s="3"/>
     </row>
     <row r="146" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F146" s="4"/>
+      <c r="F146" s="3"/>
     </row>
     <row r="147" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F147" s="4"/>
+      <c r="F147" s="3"/>
     </row>
     <row r="148" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F148" s="4"/>
+      <c r="F148" s="3"/>
     </row>
     <row r="149" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F149" s="4"/>
+      <c r="F149" s="3"/>
     </row>
     <row r="150" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F150" s="4"/>
+      <c r="F150" s="3"/>
     </row>
     <row r="151" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F151" s="4"/>
+      <c r="F151" s="3"/>
     </row>
     <row r="152" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F152" s="4"/>
+      <c r="F152" s="3"/>
     </row>
     <row r="153" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F153" s="4"/>
+      <c r="F153" s="3"/>
     </row>
     <row r="154" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F154" s="4"/>
+      <c r="F154" s="3"/>
     </row>
     <row r="155" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F155" s="4"/>
+      <c r="F155" s="3"/>
     </row>
     <row r="156" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F156" s="4"/>
+      <c r="F156" s="3"/>
     </row>
     <row r="157" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F157" s="4"/>
+      <c r="F157" s="3"/>
     </row>
     <row r="158" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F158" s="4"/>
+      <c r="F158" s="3"/>
     </row>
     <row r="159" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F159" s="4"/>
+      <c r="F159" s="3"/>
     </row>
     <row r="160" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F160" s="4"/>
+      <c r="F160" s="3"/>
     </row>
     <row r="161" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F161" s="4"/>
+      <c r="F161" s="3"/>
     </row>
     <row r="162" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F162" s="4"/>
+      <c r="F162" s="3"/>
     </row>
     <row r="163" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F163" s="4"/>
+      <c r="F163" s="3"/>
     </row>
     <row r="164" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F164" s="4"/>
+      <c r="F164" s="3"/>
     </row>
     <row r="165" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F165" s="4"/>
+      <c r="F165" s="3"/>
     </row>
     <row r="166" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F166" s="4"/>
+      <c r="F166" s="3"/>
     </row>
     <row r="167" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F167" s="4"/>
+      <c r="F167" s="3"/>
     </row>
     <row r="168" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F168" s="4"/>
+      <c r="F168" s="3"/>
     </row>
     <row r="169" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F169" s="4"/>
+      <c r="F169" s="3"/>
     </row>
     <row r="170" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F170" s="4"/>
+      <c r="F170" s="3"/>
     </row>
     <row r="171" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F171" s="4"/>
+      <c r="F171" s="3"/>
     </row>
     <row r="172" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F172" s="4"/>
+      <c r="F172" s="3"/>
     </row>
     <row r="173" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F173" s="4"/>
+      <c r="F173" s="3"/>
     </row>
     <row r="174" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F174" s="4"/>
+      <c r="F174" s="3"/>
     </row>
     <row r="175" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F175" s="4"/>
+      <c r="F175" s="3"/>
     </row>
     <row r="176" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F176" s="4"/>
+      <c r="F176" s="3"/>
     </row>
     <row r="177" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F177" s="4"/>
+      <c r="F177" s="3"/>
     </row>
     <row r="178" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F178" s="4"/>
+      <c r="F178" s="3"/>
     </row>
     <row r="179" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F179" s="4"/>
+      <c r="F179" s="3"/>
     </row>
     <row r="180" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F180" s="4"/>
+      <c r="F180" s="3"/>
     </row>
     <row r="181" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F181" s="4"/>
+      <c r="F181" s="3"/>
     </row>
     <row r="182" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F182" s="4"/>
+      <c r="F182" s="3"/>
     </row>
     <row r="183" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F183" s="4"/>
+      <c r="F183" s="3"/>
     </row>
     <row r="184" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F184" s="4"/>
+      <c r="F184" s="3"/>
     </row>
     <row r="185" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F185" s="4"/>
+      <c r="F185" s="3"/>
     </row>
     <row r="186" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F186" s="4"/>
+      <c r="F186" s="3"/>
     </row>
     <row r="187" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F187" s="4"/>
+      <c r="F187" s="3"/>
     </row>
     <row r="188" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F188" s="4"/>
+      <c r="F188" s="3"/>
     </row>
     <row r="189" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F189" s="4"/>
+      <c r="F189" s="3"/>
     </row>
     <row r="190" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F190" s="4"/>
+      <c r="F190" s="3"/>
     </row>
     <row r="191" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F191" s="4"/>
+      <c r="F191" s="3"/>
     </row>
     <row r="192" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F192" s="4"/>
+      <c r="F192" s="3"/>
     </row>
     <row r="193" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F193" s="4"/>
+      <c r="F193" s="3"/>
     </row>
     <row r="194" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F194" s="4"/>
+      <c r="F194" s="3"/>
     </row>
     <row r="195" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F195" s="4"/>
+      <c r="F195" s="3"/>
     </row>
     <row r="196" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F196" s="4"/>
+      <c r="F196" s="3"/>
     </row>
     <row r="197" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F197" s="4"/>
+      <c r="F197" s="3"/>
     </row>
     <row r="198" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F198" s="4"/>
+      <c r="F198" s="3"/>
     </row>
     <row r="199" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F199" s="4"/>
+      <c r="F199" s="3"/>
     </row>
     <row r="200" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F200" s="4"/>
+      <c r="F200" s="3"/>
     </row>
     <row r="201" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F201" s="4"/>
+      <c r="F201" s="3"/>
     </row>
     <row r="202" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F202" s="4"/>
+      <c r="F202" s="3"/>
     </row>
     <row r="203" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F203" s="4"/>
+      <c r="F203" s="3"/>
     </row>
     <row r="204" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F204" s="4"/>
+      <c r="F204" s="3"/>
     </row>
     <row r="205" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F205" s="4"/>
+      <c r="F205" s="3"/>
     </row>
     <row r="206" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F206" s="4"/>
+      <c r="F206" s="3"/>
     </row>
     <row r="207" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F207" s="4"/>
+      <c r="F207" s="3"/>
     </row>
     <row r="208" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F208" s="4"/>
+      <c r="F208" s="3"/>
     </row>
     <row r="209" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F209" s="4"/>
+      <c r="F209" s="3"/>
     </row>
     <row r="210" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F210" s="4"/>
+      <c r="F210" s="3"/>
     </row>
     <row r="211" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F211" s="4"/>
+      <c r="F211" s="3"/>
     </row>
     <row r="212" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F212" s="4"/>
+      <c r="F212" s="3"/>
     </row>
     <row r="213" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F213" s="4"/>
+      <c r="F213" s="3"/>
     </row>
     <row r="214" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F214" s="4"/>
+      <c r="F214" s="3"/>
     </row>
     <row r="215" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F215" s="4"/>
+      <c r="F215" s="3"/>
     </row>
     <row r="216" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F216" s="4"/>
+      <c r="F216" s="3"/>
     </row>
     <row r="217" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F217" s="4"/>
+      <c r="F217" s="3"/>
     </row>
     <row r="218" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F218" s="4"/>
+      <c r="F218" s="3"/>
     </row>
     <row r="219" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F219" s="4"/>
+      <c r="F219" s="3"/>
     </row>
     <row r="220" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F220" s="4"/>
+      <c r="F220" s="3"/>
     </row>
     <row r="221" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F221" s="4"/>
+      <c r="F221" s="3"/>
     </row>
     <row r="222" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F222" s="4"/>
+      <c r="F222" s="3"/>
     </row>
     <row r="223" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F223" s="4"/>
+      <c r="F223" s="3"/>
     </row>
     <row r="224" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F224" s="4"/>
+      <c r="F224" s="3"/>
     </row>
     <row r="225" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F225" s="4"/>
+      <c r="F225" s="3"/>
     </row>
     <row r="226" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F226" s="4"/>
+      <c r="F226" s="3"/>
     </row>
     <row r="227" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F227" s="4"/>
+      <c r="F227" s="3"/>
     </row>
     <row r="228" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F228" s="4"/>
+      <c r="F228" s="3"/>
     </row>
     <row r="229" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F229" s="4"/>
+      <c r="F229" s="3"/>
     </row>
     <row r="230" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F230" s="4"/>
+      <c r="F230" s="3"/>
     </row>
     <row r="231" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F231" s="4"/>
+      <c r="F231" s="3"/>
     </row>
     <row r="232" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F232" s="4"/>
+      <c r="F232" s="3"/>
     </row>
     <row r="233" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F233" s="4"/>
+      <c r="F233" s="3"/>
     </row>
     <row r="234" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F234" s="4"/>
+      <c r="F234" s="3"/>
     </row>
     <row r="235" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F235" s="4"/>
+      <c r="F235" s="3"/>
     </row>
     <row r="236" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F236" s="4"/>
+      <c r="F236" s="3"/>
     </row>
     <row r="237" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F237" s="4"/>
+      <c r="F237" s="3"/>
     </row>
     <row r="238" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F238" s="4"/>
+      <c r="F238" s="3"/>
     </row>
     <row r="239" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F239" s="4"/>
+      <c r="F239" s="3"/>
     </row>
     <row r="240" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F240" s="4"/>
+      <c r="F240" s="3"/>
     </row>
     <row r="241" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F241" s="4"/>
+      <c r="F241" s="3"/>
     </row>
     <row r="242" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F242" s="4"/>
+      <c r="F242" s="3"/>
     </row>
     <row r="243" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F243" s="4"/>
+      <c r="F243" s="3"/>
     </row>
     <row r="244" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F244" s="4"/>
+      <c r="F244" s="3"/>
     </row>
     <row r="245" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F245" s="4"/>
+      <c r="F245" s="3"/>
     </row>
     <row r="246" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F246" s="4"/>
+      <c r="F246" s="3"/>
     </row>
     <row r="247" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F247" s="4"/>
+      <c r="F247" s="3"/>
     </row>
     <row r="248" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F248" s="4"/>
+      <c r="F248" s="3"/>
     </row>
     <row r="249" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F249" s="4"/>
+      <c r="F249" s="3"/>
     </row>
     <row r="250" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F250" s="4"/>
+      <c r="F250" s="3"/>
     </row>
     <row r="251" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F251" s="4"/>
+      <c r="F251" s="3"/>
     </row>
     <row r="252" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F252" s="4"/>
+      <c r="F252" s="3"/>
     </row>
     <row r="253" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F253" s="4"/>
+      <c r="F253" s="3"/>
     </row>
     <row r="254" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F254" s="4"/>
+      <c r="F254" s="3"/>
     </row>
     <row r="255" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F255" s="4"/>
+      <c r="F255" s="3"/>
     </row>
     <row r="256" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F256" s="4"/>
+      <c r="F256" s="3"/>
     </row>
     <row r="257" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F257" s="4"/>
+      <c r="F257" s="3"/>
     </row>
     <row r="258" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F258" s="4"/>
+      <c r="F258" s="3"/>
     </row>
     <row r="259" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F259" s="4"/>
+      <c r="F259" s="3"/>
     </row>
     <row r="260" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F260" s="4"/>
+      <c r="F260" s="3"/>
     </row>
     <row r="261" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F261" s="4"/>
+      <c r="F261" s="3"/>
     </row>
     <row r="262" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F262" s="4"/>
+      <c r="F262" s="3"/>
     </row>
     <row r="263" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F263" s="4"/>
+      <c r="F263" s="3"/>
     </row>
     <row r="264" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F264" s="4"/>
+      <c r="F264" s="3"/>
     </row>
     <row r="265" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F265" s="4"/>
+      <c r="F265" s="3"/>
     </row>
     <row r="266" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F266" s="4"/>
+      <c r="F266" s="3"/>
     </row>
     <row r="267" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F267" s="4"/>
+      <c r="F267" s="3"/>
     </row>
     <row r="268" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F268" s="4"/>
+      <c r="F268" s="3"/>
     </row>
     <row r="269" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F269" s="4"/>
+      <c r="F269" s="3"/>
     </row>
     <row r="270" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F270" s="4"/>
+      <c r="F270" s="3"/>
     </row>
     <row r="271" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F271" s="4"/>
+      <c r="F271" s="3"/>
     </row>
     <row r="272" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F272" s="4"/>
+      <c r="F272" s="3"/>
     </row>
     <row r="273" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F273" s="4"/>
+      <c r="F273" s="3"/>
     </row>
     <row r="274" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F274" s="4"/>
+      <c r="F274" s="3"/>
     </row>
     <row r="275" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F275" s="4"/>
+      <c r="F275" s="3"/>
     </row>
     <row r="276" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F276" s="4"/>
+      <c r="F276" s="3"/>
     </row>
     <row r="277" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F277" s="4"/>
+      <c r="F277" s="3"/>
     </row>
     <row r="278" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F278" s="4"/>
+      <c r="F278" s="3"/>
     </row>
     <row r="279" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F279" s="4"/>
+      <c r="F279" s="3"/>
     </row>
     <row r="280" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F280" s="4"/>
+      <c r="F280" s="3"/>
     </row>
     <row r="281" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F281" s="4"/>
+      <c r="F281" s="3"/>
     </row>
     <row r="282" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F282" s="4"/>
+      <c r="F282" s="3"/>
     </row>
     <row r="283" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F283" s="4"/>
+      <c r="F283" s="3"/>
     </row>
     <row r="284" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F284" s="4"/>
+      <c r="F284" s="3"/>
     </row>
     <row r="285" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F285" s="4"/>
+      <c r="F285" s="3"/>
     </row>
     <row r="286" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F286" s="4"/>
+      <c r="F286" s="3"/>
     </row>
     <row r="287" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F287" s="4"/>
+      <c r="F287" s="3"/>
     </row>
     <row r="288" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F288" s="4"/>
+      <c r="F288" s="3"/>
     </row>
     <row r="289" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F289" s="4"/>
+      <c r="F289" s="3"/>
     </row>
     <row r="290" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F290" s="4"/>
+      <c r="F290" s="3"/>
     </row>
     <row r="291" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F291" s="4"/>
+      <c r="F291" s="3"/>
     </row>
     <row r="292" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F292" s="4"/>
+      <c r="F292" s="3"/>
     </row>
     <row r="293" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F293" s="4"/>
+      <c r="F293" s="3"/>
     </row>
     <row r="294" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F294" s="4"/>
+      <c r="F294" s="3"/>
     </row>
     <row r="295" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F295" s="4"/>
+      <c r="F295" s="3"/>
     </row>
     <row r="296" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F296" s="4"/>
+      <c r="F296" s="3"/>
     </row>
     <row r="297" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F297" s="4"/>
+      <c r="F297" s="3"/>
     </row>
     <row r="298" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F298" s="4"/>
+      <c r="F298" s="3"/>
     </row>
     <row r="299" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F299" s="4"/>
+      <c r="F299" s="3"/>
     </row>
     <row r="300" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F300" s="4"/>
+      <c r="F300" s="3"/>
     </row>
     <row r="301" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F301" s="4"/>
+      <c r="F301" s="3"/>
     </row>
     <row r="302" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F302" s="4"/>
+      <c r="F302" s="3"/>
     </row>
     <row r="303" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F303" s="4"/>
+      <c r="F303" s="3"/>
     </row>
     <row r="304" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F304" s="4"/>
+      <c r="F304" s="3"/>
     </row>
     <row r="305" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F305" s="4"/>
+      <c r="F305" s="3"/>
     </row>
     <row r="306" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F306" s="4"/>
+      <c r="F306" s="3"/>
     </row>
     <row r="307" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F307" s="4"/>
+      <c r="F307" s="3"/>
     </row>
     <row r="308" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F308" s="4"/>
+      <c r="F308" s="3"/>
     </row>
     <row r="309" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F309" s="4"/>
+      <c r="F309" s="3"/>
     </row>
     <row r="310" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F310" s="4"/>
+      <c r="F310" s="3"/>
     </row>
     <row r="311" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F311" s="4"/>
+      <c r="F311" s="3"/>
     </row>
     <row r="312" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F312" s="4"/>
+      <c r="F312" s="3"/>
     </row>
     <row r="313" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F313" s="4"/>
+      <c r="F313" s="3"/>
     </row>
     <row r="314" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F314" s="4"/>
+      <c r="F314" s="3"/>
     </row>
     <row r="315" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F315" s="4"/>
+      <c r="F315" s="3"/>
     </row>
     <row r="316" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F316" s="4"/>
+      <c r="F316" s="3"/>
     </row>
     <row r="317" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F317" s="4"/>
+      <c r="F317" s="3"/>
     </row>
     <row r="318" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F318" s="4"/>
+      <c r="F318" s="3"/>
     </row>
     <row r="319" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F319" s="4"/>
+      <c r="F319" s="3"/>
     </row>
     <row r="320" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F320" s="4"/>
+      <c r="F320" s="3"/>
     </row>
     <row r="321" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F321" s="4"/>
+      <c r="F321" s="3"/>
     </row>
     <row r="322" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F322" s="4"/>
+      <c r="F322" s="3"/>
     </row>
     <row r="323" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F323" s="4"/>
+      <c r="F323" s="3"/>
     </row>
     <row r="324" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F324" s="4"/>
+      <c r="F324" s="3"/>
     </row>
     <row r="325" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F325" s="4"/>
+      <c r="F325" s="3"/>
     </row>
     <row r="326" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F326" s="4"/>
+      <c r="F326" s="3"/>
     </row>
     <row r="327" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F327" s="4"/>
+      <c r="F327" s="3"/>
     </row>
     <row r="328" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F328" s="4"/>
+      <c r="F328" s="3"/>
     </row>
     <row r="329" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F329" s="4"/>
+      <c r="F329" s="3"/>
     </row>
     <row r="330" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F330" s="4"/>
+      <c r="F330" s="3"/>
     </row>
     <row r="331" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F331" s="4"/>
+      <c r="F331" s="3"/>
     </row>
     <row r="332" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F332" s="4"/>
+      <c r="F332" s="3"/>
     </row>
     <row r="333" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F333" s="4"/>
+      <c r="F333" s="3"/>
     </row>
     <row r="334" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F334" s="4"/>
+      <c r="F334" s="3"/>
     </row>
     <row r="335" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F335" s="4"/>
+      <c r="F335" s="3"/>
     </row>
     <row r="336" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F336" s="4"/>
+      <c r="F336" s="3"/>
     </row>
     <row r="337" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F337" s="4"/>
+      <c r="F337" s="3"/>
     </row>
     <row r="338" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F338" s="4"/>
+      <c r="F338" s="3"/>
     </row>
     <row r="339" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F339" s="4"/>
+      <c r="F339" s="3"/>
     </row>
     <row r="340" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F340" s="4"/>
+      <c r="F340" s="3"/>
     </row>
     <row r="341" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F341" s="4"/>
+      <c r="F341" s="3"/>
     </row>
     <row r="342" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F342" s="4"/>
+      <c r="F342" s="3"/>
     </row>
     <row r="343" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F343" s="4"/>
+      <c r="F343" s="3"/>
     </row>
     <row r="344" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F344" s="4"/>
+      <c r="F344" s="3"/>
     </row>
     <row r="345" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F345" s="4"/>
+      <c r="F345" s="3"/>
     </row>
     <row r="346" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F346" s="4"/>
+      <c r="F346" s="3"/>
     </row>
     <row r="347" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F347" s="4"/>
+      <c r="F347" s="3"/>
     </row>
     <row r="348" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F348" s="4"/>
+      <c r="F348" s="3"/>
     </row>
     <row r="349" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F349" s="4"/>
+      <c r="F349" s="3"/>
     </row>
     <row r="350" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F350" s="4"/>
+      <c r="F350" s="3"/>
     </row>
     <row r="351" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F351" s="4"/>
+      <c r="F351" s="3"/>
     </row>
     <row r="352" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F352" s="4"/>
+      <c r="F352" s="3"/>
     </row>
     <row r="353" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F353" s="4"/>
+      <c r="F353" s="3"/>
     </row>
     <row r="354" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F354" s="4"/>
+      <c r="F354" s="3"/>
     </row>
     <row r="355" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F355" s="4"/>
+      <c r="F355" s="3"/>
     </row>
     <row r="356" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F356" s="4"/>
+      <c r="F356" s="3"/>
     </row>
     <row r="357" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F357" s="4"/>
+      <c r="F357" s="3"/>
     </row>
     <row r="358" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F358" s="4"/>
+      <c r="F358" s="3"/>
     </row>
     <row r="359" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F359" s="4"/>
+      <c r="F359" s="3"/>
     </row>
     <row r="360" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F360" s="4"/>
+      <c r="F360" s="3"/>
     </row>
     <row r="361" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F361" s="4"/>
+      <c r="F361" s="3"/>
     </row>
     <row r="362" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F362" s="4"/>
+      <c r="F362" s="3"/>
     </row>
     <row r="363" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F363" s="4"/>
+      <c r="F363" s="3"/>
     </row>
     <row r="364" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F364" s="4"/>
+      <c r="F364" s="3"/>
     </row>
     <row r="365" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F365" s="4"/>
+      <c r="F365" s="3"/>
     </row>
     <row r="366" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F366" s="4"/>
+      <c r="F366" s="3"/>
     </row>
     <row r="367" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F367" s="4"/>
+      <c r="F367" s="3"/>
     </row>
     <row r="368" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F368" s="4"/>
+      <c r="F368" s="3"/>
     </row>
     <row r="369" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F369" s="4"/>
+      <c r="F369" s="3"/>
     </row>
     <row r="370" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F370" s="4"/>
+      <c r="F370" s="3"/>
     </row>
     <row r="371" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F371" s="4"/>
+      <c r="F371" s="3"/>
     </row>
     <row r="372" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F372" s="4"/>
+      <c r="F372" s="3"/>
     </row>
     <row r="373" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F373" s="4"/>
+      <c r="F373" s="3"/>
     </row>
     <row r="374" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F374" s="4"/>
+      <c r="F374" s="3"/>
     </row>
     <row r="375" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F375" s="4"/>
+      <c r="F375" s="3"/>
     </row>
     <row r="376" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F376" s="4"/>
+      <c r="F376" s="3"/>
     </row>
     <row r="377" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F377" s="4"/>
+      <c r="F377" s="3"/>
     </row>
     <row r="378" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F378" s="4"/>
+      <c r="F378" s="3"/>
     </row>
     <row r="379" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F379" s="4"/>
+      <c r="F379" s="3"/>
     </row>
     <row r="380" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F380" s="4"/>
+      <c r="F380" s="3"/>
     </row>
     <row r="381" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F381" s="4"/>
+      <c r="F381" s="3"/>
     </row>
     <row r="382" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F382" s="4"/>
+      <c r="F382" s="3"/>
     </row>
     <row r="383" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F383" s="4"/>
+      <c r="F383" s="3"/>
     </row>
     <row r="384" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F384" s="4"/>
+      <c r="F384" s="3"/>
     </row>
     <row r="385" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F385" s="4"/>
+      <c r="F385" s="3"/>
     </row>
     <row r="386" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F386" s="4"/>
+      <c r="F386" s="3"/>
     </row>
     <row r="387" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F387" s="4"/>
+      <c r="F387" s="3"/>
     </row>
     <row r="388" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F388" s="4"/>
+      <c r="F388" s="3"/>
     </row>
     <row r="389" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F389" s="4"/>
+      <c r="F389" s="3"/>
     </row>
     <row r="390" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F390" s="4"/>
+      <c r="F390" s="3"/>
     </row>
     <row r="391" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F391" s="4"/>
+      <c r="F391" s="3"/>
     </row>
     <row r="392" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F392" s="4"/>
+      <c r="F392" s="3"/>
     </row>
     <row r="393" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F393" s="4"/>
+      <c r="F393" s="3"/>
     </row>
     <row r="394" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F394" s="4"/>
+      <c r="F394" s="3"/>
     </row>
     <row r="395" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F395" s="4"/>
+      <c r="F395" s="3"/>
     </row>
     <row r="396" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F396" s="4"/>
+      <c r="F396" s="3"/>
     </row>
     <row r="397" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F397" s="4"/>
+      <c r="F397" s="3"/>
     </row>
     <row r="398" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F398" s="4"/>
+      <c r="F398" s="3"/>
     </row>
     <row r="399" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F399" s="4"/>
+      <c r="F399" s="3"/>
     </row>
     <row r="400" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F400" s="4"/>
+      <c r="F400" s="3"/>
     </row>
     <row r="401" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F401" s="4"/>
+      <c r="F401" s="3"/>
     </row>
     <row r="402" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F402" s="4"/>
+      <c r="F402" s="3"/>
     </row>
     <row r="403" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F403" s="4"/>
+      <c r="F403" s="3"/>
     </row>
     <row r="404" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F404" s="4"/>
+      <c r="F404" s="3"/>
     </row>
     <row r="405" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F405" s="4"/>
+      <c r="F405" s="3"/>
     </row>
     <row r="406" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F406" s="4"/>
+      <c r="F406" s="3"/>
     </row>
     <row r="407" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F407" s="4"/>
+      <c r="F407" s="3"/>
     </row>
     <row r="408" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F408" s="4"/>
+      <c r="F408" s="3"/>
     </row>
     <row r="409" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F409" s="4"/>
+      <c r="F409" s="3"/>
     </row>
     <row r="410" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F410" s="4"/>
+      <c r="F410" s="3"/>
     </row>
     <row r="411" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F411" s="4"/>
+      <c r="F411" s="3"/>
     </row>
     <row r="412" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F412" s="4"/>
+      <c r="F412" s="3"/>
     </row>
     <row r="413" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F413" s="4"/>
+      <c r="F413" s="3"/>
     </row>
     <row r="414" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F414" s="4"/>
+      <c r="F414" s="3"/>
     </row>
     <row r="415" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F415" s="4"/>
+      <c r="F415" s="3"/>
     </row>
     <row r="416" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F416" s="4"/>
+      <c r="F416" s="3"/>
     </row>
     <row r="417" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F417" s="4"/>
+      <c r="F417" s="3"/>
     </row>
     <row r="418" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F418" s="4"/>
+      <c r="F418" s="3"/>
     </row>
     <row r="419" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F419" s="4"/>
+      <c r="F419" s="3"/>
     </row>
     <row r="420" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F420" s="4"/>
+      <c r="F420" s="3"/>
     </row>
     <row r="421" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F421" s="4"/>
+      <c r="F421" s="3"/>
     </row>
     <row r="422" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F422" s="4"/>
+      <c r="F422" s="3"/>
     </row>
     <row r="423" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F423" s="4"/>
+      <c r="F423" s="3"/>
     </row>
     <row r="424" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F424" s="4"/>
+      <c r="F424" s="3"/>
     </row>
     <row r="425" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F425" s="4"/>
+      <c r="F425" s="3"/>
     </row>
     <row r="426" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F426" s="4"/>
+      <c r="F426" s="3"/>
     </row>
     <row r="427" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F427" s="4"/>
+      <c r="F427" s="3"/>
     </row>
     <row r="428" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F428" s="4"/>
+      <c r="F428" s="3"/>
     </row>
     <row r="429" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F429" s="4"/>
+      <c r="F429" s="3"/>
     </row>
     <row r="430" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F430" s="4"/>
+      <c r="F430" s="3"/>
     </row>
     <row r="431" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F431" s="4"/>
+      <c r="F431" s="3"/>
     </row>
     <row r="432" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F432" s="4"/>
+      <c r="F432" s="3"/>
     </row>
     <row r="433" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F433" s="4"/>
+      <c r="F433" s="3"/>
     </row>
     <row r="434" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F434" s="4"/>
+      <c r="F434" s="3"/>
     </row>
     <row r="435" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F435" s="4"/>
+      <c r="F435" s="3"/>
     </row>
     <row r="436" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F436" s="4"/>
+      <c r="F436" s="3"/>
     </row>
     <row r="437" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F437" s="4"/>
+      <c r="F437" s="3"/>
     </row>
     <row r="438" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F438" s="4"/>
+      <c r="F438" s="3"/>
     </row>
     <row r="439" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F439" s="4"/>
+      <c r="F439" s="3"/>
     </row>
     <row r="440" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F440" s="4"/>
+      <c r="F440" s="3"/>
     </row>
     <row r="441" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F441" s="4"/>
+      <c r="F441" s="3"/>
     </row>
     <row r="442" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F442" s="4"/>
+      <c r="F442" s="3"/>
     </row>
     <row r="443" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F443" s="4"/>
+      <c r="F443" s="3"/>
     </row>
     <row r="444" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F444" s="4"/>
+      <c r="F444" s="3"/>
     </row>
     <row r="445" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F445" s="4"/>
+      <c r="F445" s="3"/>
     </row>
     <row r="446" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F446" s="4"/>
+      <c r="F446" s="3"/>
     </row>
     <row r="447" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F447" s="4"/>
+      <c r="F447" s="3"/>
     </row>
     <row r="448" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F448" s="4"/>
+      <c r="F448" s="3"/>
     </row>
     <row r="449" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F449" s="4"/>
+      <c r="F449" s="3"/>
     </row>
     <row r="450" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F450" s="4"/>
+      <c r="F450" s="3"/>
     </row>
     <row r="451" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F451" s="4"/>
+      <c r="F451" s="3"/>
     </row>
     <row r="452" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F452" s="4"/>
+      <c r="F452" s="3"/>
     </row>
     <row r="453" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F453" s="4"/>
+      <c r="F453" s="3"/>
     </row>
     <row r="454" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F454" s="4"/>
+      <c r="F454" s="3"/>
     </row>
     <row r="455" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F455" s="4"/>
+      <c r="F455" s="3"/>
     </row>
     <row r="456" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F456" s="4"/>
+      <c r="F456" s="3"/>
     </row>
     <row r="457" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F457" s="4"/>
+      <c r="F457" s="3"/>
     </row>
     <row r="458" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F458" s="4"/>
+      <c r="F458" s="3"/>
     </row>
     <row r="459" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F459" s="4"/>
+      <c r="F459" s="3"/>
     </row>
     <row r="460" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F460" s="4"/>
+      <c r="F460" s="3"/>
     </row>
     <row r="461" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F461" s="4"/>
+      <c r="F461" s="3"/>
     </row>
     <row r="462" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F462" s="4"/>
+      <c r="F462" s="3"/>
     </row>
     <row r="463" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F463" s="4"/>
+      <c r="F463" s="3"/>
     </row>
     <row r="464" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F464" s="4"/>
+      <c r="F464" s="3"/>
     </row>
     <row r="465" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F465" s="4"/>
+      <c r="F465" s="3"/>
     </row>
     <row r="466" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F466" s="4"/>
+      <c r="F466" s="3"/>
     </row>
     <row r="467" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F467" s="4"/>
+      <c r="F467" s="3"/>
     </row>
     <row r="468" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F468" s="4"/>
+      <c r="F468" s="3"/>
     </row>
     <row r="469" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F469" s="4"/>
+      <c r="F469" s="3"/>
     </row>
     <row r="470" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F470" s="4"/>
+      <c r="F470" s="3"/>
     </row>
     <row r="471" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F471" s="4"/>
+      <c r="F471" s="3"/>
     </row>
     <row r="472" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F472" s="4"/>
+      <c r="F472" s="3"/>
     </row>
     <row r="473" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F473" s="4"/>
+      <c r="F473" s="3"/>
     </row>
     <row r="474" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F474" s="4"/>
+      <c r="F474" s="3"/>
     </row>
     <row r="475" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F475" s="4"/>
+      <c r="F475" s="3"/>
     </row>
     <row r="476" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F476" s="4"/>
+      <c r="F476" s="3"/>
     </row>
     <row r="477" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F477" s="4"/>
+      <c r="F477" s="3"/>
     </row>
     <row r="478" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F478" s="4"/>
+      <c r="F478" s="3"/>
     </row>
     <row r="479" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F479" s="4"/>
+      <c r="F479" s="3"/>
     </row>
     <row r="480" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F480" s="4"/>
+      <c r="F480" s="3"/>
     </row>
     <row r="481" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F481" s="4"/>
+      <c r="F481" s="3"/>
     </row>
     <row r="482" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F482" s="4"/>
+      <c r="F482" s="3"/>
     </row>
     <row r="483" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F483" s="4"/>
+      <c r="F483" s="3"/>
     </row>
     <row r="484" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F484" s="4"/>
+      <c r="F484" s="3"/>
     </row>
     <row r="485" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F485" s="4"/>
+      <c r="F485" s="3"/>
     </row>
     <row r="486" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F486" s="4"/>
+      <c r="F486" s="3"/>
     </row>
     <row r="487" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F487" s="4"/>
+      <c r="F487" s="3"/>
     </row>
     <row r="488" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F488" s="4"/>
+      <c r="F488" s="3"/>
     </row>
     <row r="489" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F489" s="4"/>
+      <c r="F489" s="3"/>
     </row>
     <row r="490" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F490" s="4"/>
+      <c r="F490" s="3"/>
     </row>
     <row r="491" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F491" s="4"/>
+      <c r="F491" s="3"/>
     </row>
     <row r="492" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F492" s="4"/>
+      <c r="F492" s="3"/>
     </row>
     <row r="493" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F493" s="4"/>
+      <c r="F493" s="3"/>
     </row>
     <row r="494" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F494" s="4"/>
+      <c r="F494" s="3"/>
     </row>
     <row r="495" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F495" s="4"/>
+      <c r="F495" s="3"/>
     </row>
     <row r="496" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F496" s="4"/>
+      <c r="F496" s="3"/>
     </row>
     <row r="497" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F497" s="4"/>
+      <c r="F497" s="3"/>
     </row>
     <row r="498" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F498" s="4"/>
+      <c r="F498" s="3"/>
     </row>
     <row r="499" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F499" s="4"/>
+      <c r="F499" s="3"/>
     </row>
     <row r="500" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F500" s="4"/>
+      <c r="F500" s="3"/>
     </row>
     <row r="501" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F501" s="4"/>
+      <c r="F501" s="3"/>
     </row>
     <row r="502" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F502" s="4"/>
+      <c r="F502" s="3"/>
     </row>
     <row r="503" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F503" s="4"/>
+      <c r="F503" s="3"/>
     </row>
     <row r="504" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F504" s="4"/>
+      <c r="F504" s="3"/>
     </row>
     <row r="505" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F505" s="4"/>
+      <c r="F505" s="3"/>
     </row>
     <row r="506" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F506" s="4"/>
+      <c r="F506" s="3"/>
     </row>
     <row r="507" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F507" s="4"/>
+      <c r="F507" s="3"/>
     </row>
     <row r="508" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F508" s="4"/>
+      <c r="F508" s="3"/>
     </row>
     <row r="509" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F509" s="4"/>
+      <c r="F509" s="3"/>
     </row>
     <row r="510" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F510" s="4"/>
+      <c r="F510" s="3"/>
     </row>
     <row r="511" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F511" s="4"/>
+      <c r="F511" s="3"/>
     </row>
     <row r="512" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F512" s="4"/>
+      <c r="F512" s="3"/>
     </row>
     <row r="513" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F513" s="4"/>
+      <c r="F513" s="3"/>
     </row>
     <row r="514" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F514" s="4"/>
+      <c r="F514" s="3"/>
     </row>
     <row r="515" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F515" s="4"/>
+      <c r="F515" s="3"/>
     </row>
     <row r="516" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F516" s="4"/>
+      <c r="F516" s="3"/>
     </row>
     <row r="517" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F517" s="4"/>
+      <c r="F517" s="3"/>
     </row>
     <row r="518" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F518" s="4"/>
+      <c r="F518" s="3"/>
     </row>
     <row r="519" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F519" s="4"/>
+      <c r="F519" s="3"/>
     </row>
     <row r="520" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F520" s="4"/>
+      <c r="F520" s="3"/>
     </row>
     <row r="521" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F521" s="4"/>
+      <c r="F521" s="3"/>
     </row>
     <row r="522" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F522" s="4"/>
+      <c r="F522" s="3"/>
     </row>
     <row r="523" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F523" s="4"/>
+      <c r="F523" s="3"/>
     </row>
     <row r="524" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F524" s="4"/>
+      <c r="F524" s="3"/>
     </row>
     <row r="525" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F525" s="4"/>
+      <c r="F525" s="3"/>
     </row>
     <row r="526" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F526" s="4"/>
+      <c r="F526" s="3"/>
     </row>
     <row r="527" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F527" s="4"/>
+      <c r="F527" s="3"/>
     </row>
     <row r="528" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F528" s="4"/>
+      <c r="F528" s="3"/>
     </row>
     <row r="529" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F529" s="4"/>
+      <c r="F529" s="3"/>
     </row>
     <row r="530" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F530" s="4"/>
+      <c r="F530" s="3"/>
     </row>
     <row r="531" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F531" s="4"/>
+      <c r="F531" s="3"/>
     </row>
     <row r="532" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F532" s="4"/>
+      <c r="F532" s="3"/>
     </row>
     <row r="533" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F533" s="4"/>
+      <c r="F533" s="3"/>
     </row>
     <row r="534" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F534" s="4"/>
+      <c r="F534" s="3"/>
     </row>
     <row r="535" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F535" s="4"/>
+      <c r="F535" s="3"/>
     </row>
     <row r="536" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F536" s="4"/>
+      <c r="F536" s="3"/>
     </row>
     <row r="537" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F537" s="4"/>
+      <c r="F537" s="3"/>
     </row>
     <row r="538" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F538" s="4"/>
+      <c r="F538" s="3"/>
     </row>
     <row r="539" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F539" s="4"/>
+      <c r="F539" s="3"/>
     </row>
     <row r="540" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F540" s="4"/>
+      <c r="F540" s="3"/>
     </row>
     <row r="541" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F541" s="4"/>
+      <c r="F541" s="3"/>
     </row>
     <row r="542" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F542" s="4"/>
+      <c r="F542" s="3"/>
     </row>
     <row r="543" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F543" s="4"/>
+      <c r="F543" s="3"/>
     </row>
     <row r="544" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F544" s="4"/>
+      <c r="F544" s="3"/>
     </row>
     <row r="545" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F545" s="4"/>
+      <c r="F545" s="3"/>
     </row>
     <row r="546" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F546" s="4"/>
+      <c r="F546" s="3"/>
     </row>
     <row r="547" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F547" s="4"/>
+      <c r="F547" s="3"/>
     </row>
     <row r="548" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F548" s="4"/>
+      <c r="F548" s="3"/>
     </row>
     <row r="549" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F549" s="4"/>
+      <c r="F549" s="3"/>
     </row>
     <row r="550" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F550" s="4"/>
+      <c r="F550" s="3"/>
     </row>
     <row r="551" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F551" s="4"/>
+      <c r="F551" s="3"/>
     </row>
     <row r="552" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F552" s="4"/>
+      <c r="F552" s="3"/>
     </row>
     <row r="553" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F553" s="4"/>
+      <c r="F553" s="3"/>
     </row>
     <row r="554" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F554" s="4"/>
+      <c r="F554" s="3"/>
     </row>
     <row r="555" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F555" s="4"/>
+      <c r="F555" s="3"/>
     </row>
     <row r="556" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F556" s="4"/>
+      <c r="F556" s="3"/>
     </row>
     <row r="557" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F557" s="4"/>
+      <c r="F557" s="3"/>
     </row>
     <row r="558" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F558" s="4"/>
+      <c r="F558" s="3"/>
     </row>
     <row r="559" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F559" s="4"/>
+      <c r="F559" s="3"/>
     </row>
     <row r="560" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F560" s="4"/>
+      <c r="F560" s="3"/>
     </row>
     <row r="561" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F561" s="4"/>
+      <c r="F561" s="3"/>
     </row>
     <row r="562" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F562" s="4"/>
+      <c r="F562" s="3"/>
     </row>
     <row r="563" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F563" s="4"/>
+      <c r="F563" s="3"/>
     </row>
     <row r="564" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F564" s="4"/>
+      <c r="F564" s="3"/>
     </row>
     <row r="565" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F565" s="4"/>
+      <c r="F565" s="3"/>
     </row>
     <row r="566" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F566" s="4"/>
+      <c r="F566" s="3"/>
     </row>
     <row r="567" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F567" s="4"/>
+      <c r="F567" s="3"/>
     </row>
     <row r="568" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F568" s="4"/>
+      <c r="F568" s="3"/>
     </row>
     <row r="569" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F569" s="4"/>
+      <c r="F569" s="3"/>
     </row>
     <row r="570" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F570" s="4"/>
+      <c r="F570" s="3"/>
     </row>
     <row r="571" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F571" s="4"/>
+      <c r="F571" s="3"/>
     </row>
     <row r="572" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F572" s="4"/>
+      <c r="F572" s="3"/>
     </row>
     <row r="573" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F573" s="4"/>
+      <c r="F573" s="3"/>
     </row>
     <row r="574" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F574" s="4"/>
+      <c r="F574" s="3"/>
     </row>
     <row r="575" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F575" s="4"/>
+      <c r="F575" s="3"/>
     </row>
     <row r="576" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F576" s="4"/>
+      <c r="F576" s="3"/>
     </row>
     <row r="577" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F577" s="4"/>
+      <c r="F577" s="3"/>
     </row>
     <row r="578" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F578" s="4"/>
+      <c r="F578" s="3"/>
     </row>
     <row r="579" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F579" s="4"/>
+      <c r="F579" s="3"/>
     </row>
     <row r="580" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F580" s="4"/>
+      <c r="F580" s="3"/>
     </row>
     <row r="581" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F581" s="4"/>
+      <c r="F581" s="3"/>
     </row>
     <row r="582" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F582" s="4"/>
+      <c r="F582" s="3"/>
     </row>
     <row r="583" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F583" s="4"/>
+      <c r="F583" s="3"/>
     </row>
     <row r="584" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F584" s="4"/>
+      <c r="F584" s="3"/>
     </row>
     <row r="585" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F585" s="4"/>
+      <c r="F585" s="3"/>
     </row>
     <row r="586" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F586" s="4"/>
+      <c r="F586" s="3"/>
     </row>
     <row r="587" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F587" s="4"/>
+      <c r="F587" s="3"/>
     </row>
     <row r="588" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F588" s="4"/>
+      <c r="F588" s="3"/>
     </row>
     <row r="589" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F589" s="4"/>
+      <c r="F589" s="3"/>
     </row>
     <row r="590" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F590" s="4"/>
+      <c r="F590" s="3"/>
     </row>
     <row r="591" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F591" s="4"/>
+      <c r="F591" s="3"/>
     </row>
     <row r="592" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F592" s="4"/>
+      <c r="F592" s="3"/>
     </row>
     <row r="593" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F593" s="4"/>
+      <c r="F593" s="3"/>
     </row>
     <row r="594" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F594" s="4"/>
+      <c r="F594" s="3"/>
     </row>
     <row r="595" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F595" s="4"/>
+      <c r="F595" s="3"/>
     </row>
     <row r="596" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F596" s="4"/>
+      <c r="F596" s="3"/>
     </row>
     <row r="597" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F597" s="4"/>
+      <c r="F597" s="3"/>
     </row>
     <row r="598" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F598" s="4"/>
+      <c r="F598" s="3"/>
     </row>
     <row r="599" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F599" s="4"/>
+      <c r="F599" s="3"/>
     </row>
     <row r="600" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F600" s="4"/>
+      <c r="F600" s="3"/>
     </row>
     <row r="601" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F601" s="4"/>
+      <c r="F601" s="3"/>
     </row>
     <row r="602" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F602" s="4"/>
+      <c r="F602" s="3"/>
     </row>
     <row r="603" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F603" s="4"/>
+      <c r="F603" s="3"/>
     </row>
     <row r="604" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F604" s="4"/>
+      <c r="F604" s="3"/>
     </row>
     <row r="605" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F605" s="4"/>
+      <c r="F605" s="3"/>
     </row>
     <row r="606" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F606" s="4"/>
+      <c r="F606" s="3"/>
     </row>
     <row r="607" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F607" s="4"/>
+      <c r="F607" s="3"/>
     </row>
     <row r="608" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F608" s="4"/>
+      <c r="F608" s="3"/>
     </row>
     <row r="609" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F609" s="4"/>
+      <c r="F609" s="3"/>
     </row>
     <row r="610" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F610" s="4"/>
+      <c r="F610" s="3"/>
     </row>
     <row r="611" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F611" s="4"/>
+      <c r="F611" s="3"/>
     </row>
     <row r="612" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F612" s="4"/>
+      <c r="F612" s="3"/>
     </row>
     <row r="613" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F613" s="4"/>
+      <c r="F613" s="3"/>
     </row>
     <row r="614" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F614" s="4"/>
+      <c r="F614" s="3"/>
     </row>
     <row r="615" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F615" s="4"/>
+      <c r="F615" s="3"/>
     </row>
     <row r="616" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F616" s="4"/>
+      <c r="F616" s="3"/>
     </row>
     <row r="617" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F617" s="4"/>
+      <c r="F617" s="3"/>
     </row>
     <row r="618" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F618" s="4"/>
+      <c r="F618" s="3"/>
     </row>
     <row r="619" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F619" s="4"/>
+      <c r="F619" s="3"/>
     </row>
     <row r="620" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F620" s="4"/>
+      <c r="F620" s="3"/>
     </row>
     <row r="621" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F621" s="4"/>
+      <c r="F621" s="3"/>
     </row>
     <row r="622" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F622" s="4"/>
+      <c r="F622" s="3"/>
     </row>
     <row r="623" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F623" s="4"/>
+      <c r="F623" s="3"/>
     </row>
     <row r="624" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F624" s="4"/>
+      <c r="F624" s="3"/>
     </row>
     <row r="625" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F625" s="4"/>
+      <c r="F625" s="3"/>
     </row>
     <row r="626" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F626" s="4"/>
+      <c r="F626" s="3"/>
     </row>
     <row r="627" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F627" s="4"/>
+      <c r="F627" s="3"/>
     </row>
     <row r="628" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F628" s="4"/>
+      <c r="F628" s="3"/>
     </row>
     <row r="629" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F629" s="4"/>
+      <c r="F629" s="3"/>
     </row>
     <row r="630" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F630" s="4"/>
+      <c r="F630" s="3"/>
     </row>
     <row r="631" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F631" s="4"/>
+      <c r="F631" s="3"/>
     </row>
     <row r="632" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F632" s="4"/>
+      <c r="F632" s="3"/>
     </row>
     <row r="633" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F633" s="4"/>
+      <c r="F633" s="3"/>
     </row>
     <row r="634" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F634" s="4"/>
+      <c r="F634" s="3"/>
     </row>
     <row r="635" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F635" s="4"/>
+      <c r="F635" s="3"/>
     </row>
     <row r="636" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F636" s="4"/>
+      <c r="F636" s="3"/>
     </row>
     <row r="637" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F637" s="4"/>
+      <c r="F637" s="3"/>
     </row>
     <row r="638" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F638" s="4"/>
+      <c r="F638" s="3"/>
     </row>
     <row r="639" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F639" s="4"/>
+      <c r="F639" s="3"/>
     </row>
     <row r="640" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F640" s="4"/>
+      <c r="F640" s="3"/>
     </row>
     <row r="641" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F641" s="4"/>
+      <c r="F641" s="3"/>
     </row>
     <row r="642" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F642" s="4"/>
+      <c r="F642" s="3"/>
     </row>
     <row r="643" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F643" s="4"/>
+      <c r="F643" s="3"/>
     </row>
     <row r="644" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F644" s="4"/>
+      <c r="F644" s="3"/>
     </row>
     <row r="645" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F645" s="4"/>
+      <c r="F645" s="3"/>
     </row>
     <row r="646" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F646" s="4"/>
+      <c r="F646" s="3"/>
     </row>
     <row r="647" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F647" s="4"/>
+      <c r="F647" s="3"/>
     </row>
     <row r="648" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F648" s="4"/>
+      <c r="F648" s="3"/>
     </row>
     <row r="649" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F649" s="4"/>
+      <c r="F649" s="3"/>
     </row>
     <row r="650" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F650" s="4"/>
+      <c r="F650" s="3"/>
     </row>
     <row r="651" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F651" s="4"/>
+      <c r="F651" s="3"/>
     </row>
     <row r="652" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F652" s="4"/>
+      <c r="F652" s="3"/>
     </row>
     <row r="653" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F653" s="4"/>
+      <c r="F653" s="3"/>
     </row>
     <row r="654" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F654" s="4"/>
+      <c r="F654" s="3"/>
     </row>
     <row r="655" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F655" s="4"/>
+      <c r="F655" s="3"/>
     </row>
     <row r="656" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F656" s="4"/>
+      <c r="F656" s="3"/>
     </row>
     <row r="657" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F657" s="4"/>
+      <c r="F657" s="3"/>
     </row>
     <row r="658" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F658" s="4"/>
+      <c r="F658" s="3"/>
     </row>
     <row r="659" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F659" s="4"/>
+      <c r="F659" s="3"/>
     </row>
     <row r="660" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F660" s="4"/>
+      <c r="F660" s="3"/>
     </row>
     <row r="661" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F661" s="4"/>
+      <c r="F661" s="3"/>
     </row>
     <row r="662" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F662" s="4"/>
+      <c r="F662" s="3"/>
     </row>
     <row r="663" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F663" s="4"/>
+      <c r="F663" s="3"/>
     </row>
     <row r="664" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F664" s="4"/>
+      <c r="F664" s="3"/>
     </row>
     <row r="665" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F665" s="4"/>
+      <c r="F665" s="3"/>
     </row>
     <row r="666" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F666" s="4"/>
+      <c r="F666" s="3"/>
     </row>
     <row r="667" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F667" s="4"/>
+      <c r="F667" s="3"/>
     </row>
     <row r="668" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F668" s="4"/>
+      <c r="F668" s="3"/>
     </row>
     <row r="669" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F669" s="4"/>
+      <c r="F669" s="3"/>
     </row>
     <row r="670" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F670" s="4"/>
+      <c r="F670" s="3"/>
     </row>
     <row r="671" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F671" s="4"/>
+      <c r="F671" s="3"/>
     </row>
     <row r="672" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F672" s="4"/>
+      <c r="F672" s="3"/>
     </row>
     <row r="673" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F673" s="4"/>
+      <c r="F673" s="3"/>
     </row>
     <row r="674" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F674" s="4"/>
+      <c r="F674" s="3"/>
     </row>
     <row r="675" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F675" s="4"/>
+      <c r="F675" s="3"/>
     </row>
     <row r="676" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F676" s="4"/>
+      <c r="F676" s="3"/>
     </row>
     <row r="677" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F677" s="4"/>
+      <c r="F677" s="3"/>
     </row>
     <row r="678" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F678" s="4"/>
+      <c r="F678" s="3"/>
     </row>
     <row r="679" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F679" s="4"/>
+      <c r="F679" s="3"/>
     </row>
     <row r="680" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F680" s="4"/>
+      <c r="F680" s="3"/>
     </row>
     <row r="681" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F681" s="4"/>
+      <c r="F681" s="3"/>
     </row>
     <row r="682" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F682" s="4"/>
+      <c r="F682" s="3"/>
     </row>
     <row r="683" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F683" s="4"/>
+      <c r="F683" s="3"/>
     </row>
     <row r="684" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F684" s="4"/>
+      <c r="F684" s="3"/>
     </row>
     <row r="685" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F685" s="4"/>
+      <c r="F685" s="3"/>
     </row>
     <row r="686" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F686" s="4"/>
+      <c r="F686" s="3"/>
     </row>
     <row r="687" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F687" s="4"/>
+      <c r="F687" s="3"/>
     </row>
     <row r="688" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F688" s="4"/>
+      <c r="F688" s="3"/>
     </row>
     <row r="689" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F689" s="4"/>
+      <c r="F689" s="3"/>
     </row>
     <row r="690" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F690" s="4"/>
+      <c r="F690" s="3"/>
     </row>
     <row r="691" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F691" s="4"/>
+      <c r="F691" s="3"/>
     </row>
     <row r="692" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F692" s="4"/>
+      <c r="F692" s="3"/>
     </row>
     <row r="693" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F693" s="4"/>
+      <c r="F693" s="3"/>
     </row>
     <row r="694" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F694" s="4"/>
+      <c r="F694" s="3"/>
     </row>
     <row r="695" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F695" s="4"/>
+      <c r="F695" s="3"/>
     </row>
     <row r="696" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F696" s="4"/>
+      <c r="F696" s="3"/>
     </row>
     <row r="697" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F697" s="4"/>
+      <c r="F697" s="3"/>
     </row>
     <row r="698" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F698" s="4"/>
+      <c r="F698" s="3"/>
     </row>
     <row r="699" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F699" s="4"/>
+      <c r="F699" s="3"/>
     </row>
     <row r="700" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F700" s="4"/>
+      <c r="F700" s="3"/>
     </row>
     <row r="701" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F701" s="4"/>
+      <c r="F701" s="3"/>
     </row>
     <row r="702" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F702" s="4"/>
+      <c r="F702" s="3"/>
     </row>
     <row r="703" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F703" s="4"/>
+      <c r="F703" s="3"/>
     </row>
     <row r="704" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F704" s="4"/>
+      <c r="F704" s="3"/>
     </row>
     <row r="705" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F705" s="4"/>
+      <c r="F705" s="3"/>
     </row>
     <row r="706" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F706" s="4"/>
+      <c r="F706" s="3"/>
     </row>
     <row r="707" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F707" s="4"/>
+      <c r="F707" s="3"/>
     </row>
     <row r="708" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F708" s="4"/>
+      <c r="F708" s="3"/>
     </row>
     <row r="709" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F709" s="4"/>
+      <c r="F709" s="3"/>
     </row>
     <row r="710" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F710" s="4"/>
+      <c r="F710" s="3"/>
     </row>
     <row r="711" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F711" s="4"/>
+      <c r="F711" s="3"/>
     </row>
     <row r="712" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F712" s="4"/>
+      <c r="F712" s="3"/>
     </row>
     <row r="713" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F713" s="4"/>
+      <c r="F713" s="3"/>
     </row>
     <row r="714" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F714" s="4"/>
+      <c r="F714" s="3"/>
     </row>
     <row r="715" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F715" s="4"/>
+      <c r="F715" s="3"/>
     </row>
     <row r="716" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F716" s="4"/>
+      <c r="F716" s="3"/>
     </row>
     <row r="717" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F717" s="4"/>
+      <c r="F717" s="3"/>
     </row>
     <row r="718" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F718" s="4"/>
+      <c r="F718" s="3"/>
     </row>
     <row r="719" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F719" s="4"/>
+      <c r="F719" s="3"/>
     </row>
     <row r="720" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F720" s="4"/>
+      <c r="F720" s="3"/>
     </row>
     <row r="721" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F721" s="4"/>
+      <c r="F721" s="3"/>
     </row>
     <row r="722" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F722" s="4"/>
+      <c r="F722" s="3"/>
     </row>
     <row r="723" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F723" s="4"/>
+      <c r="F723" s="3"/>
     </row>
     <row r="724" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F724" s="4"/>
+      <c r="F724" s="3"/>
     </row>
     <row r="725" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F725" s="4"/>
+      <c r="F725" s="3"/>
     </row>
     <row r="726" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F726" s="4"/>
+      <c r="F726" s="3"/>
     </row>
     <row r="727" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F727" s="4"/>
+      <c r="F727" s="3"/>
     </row>
     <row r="728" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F728" s="4"/>
+      <c r="F728" s="3"/>
     </row>
     <row r="729" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F729" s="4"/>
+      <c r="F729" s="3"/>
     </row>
     <row r="730" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F730" s="4"/>
+      <c r="F730" s="3"/>
     </row>
     <row r="731" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F731" s="4"/>
+      <c r="F731" s="3"/>
     </row>
     <row r="732" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F732" s="4"/>
+      <c r="F732" s="3"/>
     </row>
     <row r="733" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F733" s="4"/>
+      <c r="F733" s="3"/>
     </row>
     <row r="734" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F734" s="4"/>
+      <c r="F734" s="3"/>
     </row>
     <row r="735" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F735" s="4"/>
+      <c r="F735" s="3"/>
     </row>
     <row r="736" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F736" s="4"/>
+      <c r="F736" s="3"/>
     </row>
     <row r="737" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F737" s="4"/>
+      <c r="F737" s="3"/>
     </row>
     <row r="738" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F738" s="4"/>
+      <c r="F738" s="3"/>
     </row>
     <row r="739" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F739" s="4"/>
+      <c r="F739" s="3"/>
     </row>
     <row r="740" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F740" s="4"/>
+      <c r="F740" s="3"/>
     </row>
     <row r="741" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F741" s="4"/>
+      <c r="F741" s="3"/>
     </row>
     <row r="742" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F742" s="4"/>
+      <c r="F742" s="3"/>
     </row>
     <row r="743" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F743" s="4"/>
+      <c r="F743" s="3"/>
     </row>
     <row r="744" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F744" s="4"/>
+      <c r="F744" s="3"/>
     </row>
     <row r="745" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F745" s="4"/>
+      <c r="F745" s="3"/>
     </row>
     <row r="746" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F746" s="4"/>
+      <c r="F746" s="3"/>
     </row>
     <row r="747" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F747" s="4"/>
+      <c r="F747" s="3"/>
     </row>
     <row r="748" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F748" s="4"/>
+      <c r="F748" s="3"/>
     </row>
     <row r="749" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F749" s="4"/>
+      <c r="F749" s="3"/>
     </row>
     <row r="750" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F750" s="4"/>
+      <c r="F750" s="3"/>
     </row>
     <row r="751" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F751" s="4"/>
+      <c r="F751" s="3"/>
     </row>
     <row r="752" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F752" s="4"/>
+      <c r="F752" s="3"/>
     </row>
     <row r="753" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F753" s="4"/>
+      <c r="F753" s="3"/>
     </row>
     <row r="754" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F754" s="4"/>
+      <c r="F754" s="3"/>
     </row>
     <row r="755" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F755" s="4"/>
+      <c r="F755" s="3"/>
     </row>
     <row r="756" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F756" s="4"/>
+      <c r="F756" s="3"/>
     </row>
     <row r="757" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F757" s="4"/>
+      <c r="F757" s="3"/>
     </row>
     <row r="758" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F758" s="4"/>
+      <c r="F758" s="3"/>
     </row>
     <row r="759" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F759" s="4"/>
+      <c r="F759" s="3"/>
     </row>
     <row r="760" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F760" s="4"/>
+      <c r="F760" s="3"/>
     </row>
     <row r="761" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F761" s="4"/>
+      <c r="F761" s="3"/>
     </row>
     <row r="762" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F762" s="4"/>
+      <c r="F762" s="3"/>
     </row>
     <row r="763" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F763" s="4"/>
+      <c r="F763" s="3"/>
     </row>
     <row r="764" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F764" s="4"/>
+      <c r="F764" s="3"/>
     </row>
     <row r="765" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F765" s="4"/>
+      <c r="F765" s="3"/>
     </row>
     <row r="766" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F766" s="4"/>
+      <c r="F766" s="3"/>
     </row>
     <row r="767" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F767" s="4"/>
+      <c r="F767" s="3"/>
     </row>
     <row r="768" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F768" s="4"/>
+      <c r="F768" s="3"/>
     </row>
     <row r="769" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F769" s="4"/>
+      <c r="F769" s="3"/>
     </row>
     <row r="770" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F770" s="4"/>
+      <c r="F770" s="3"/>
     </row>
     <row r="771" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F771" s="4"/>
+      <c r="F771" s="3"/>
     </row>
     <row r="772" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F772" s="4"/>
+      <c r="F772" s="3"/>
     </row>
     <row r="773" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F773" s="4"/>
+      <c r="F773" s="3"/>
     </row>
     <row r="774" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F774" s="4"/>
+      <c r="F774" s="3"/>
     </row>
     <row r="775" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F775" s="4"/>
+      <c r="F775" s="3"/>
     </row>
     <row r="776" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F776" s="4"/>
+      <c r="F776" s="3"/>
     </row>
     <row r="777" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F777" s="4"/>
+      <c r="F777" s="3"/>
     </row>
     <row r="778" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F778" s="4"/>
+      <c r="F778" s="3"/>
     </row>
     <row r="779" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F779" s="4"/>
+      <c r="F779" s="3"/>
     </row>
     <row r="780" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F780" s="4"/>
+      <c r="F780" s="3"/>
     </row>
     <row r="781" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F781" s="4"/>
+      <c r="F781" s="3"/>
     </row>
     <row r="782" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F782" s="4"/>
+      <c r="F782" s="3"/>
     </row>
     <row r="783" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F783" s="4"/>
+      <c r="F783" s="3"/>
     </row>
     <row r="784" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F784" s="4"/>
+      <c r="F784" s="3"/>
     </row>
     <row r="785" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F785" s="4"/>
+      <c r="F785" s="3"/>
     </row>
     <row r="786" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F786" s="4"/>
+      <c r="F786" s="3"/>
     </row>
     <row r="787" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F787" s="4"/>
+      <c r="F787" s="3"/>
     </row>
     <row r="788" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F788" s="4"/>
+      <c r="F788" s="3"/>
     </row>
     <row r="789" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F789" s="4"/>
+      <c r="F789" s="3"/>
     </row>
     <row r="790" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F790" s="4"/>
+      <c r="F790" s="3"/>
     </row>
     <row r="791" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F791" s="4"/>
+      <c r="F791" s="3"/>
     </row>
     <row r="792" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F792" s="4"/>
+      <c r="F792" s="3"/>
     </row>
     <row r="793" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F793" s="4"/>
+      <c r="F793" s="3"/>
     </row>
     <row r="794" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F794" s="4"/>
+      <c r="F794" s="3"/>
     </row>
     <row r="795" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F795" s="4"/>
+      <c r="F795" s="3"/>
     </row>
     <row r="796" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F796" s="4"/>
+      <c r="F796" s="3"/>
     </row>
     <row r="797" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F797" s="4"/>
+      <c r="F797" s="3"/>
     </row>
     <row r="798" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F798" s="4"/>
+      <c r="F798" s="3"/>
     </row>
     <row r="799" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F799" s="4"/>
+      <c r="F799" s="3"/>
     </row>
     <row r="800" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F800" s="4"/>
+      <c r="F800" s="3"/>
     </row>
     <row r="801" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F801" s="4"/>
+      <c r="F801" s="3"/>
     </row>
     <row r="802" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F802" s="4"/>
+      <c r="F802" s="3"/>
     </row>
     <row r="803" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F803" s="4"/>
+      <c r="F803" s="3"/>
     </row>
     <row r="804" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F804" s="4"/>
+      <c r="F804" s="3"/>
     </row>
     <row r="805" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F805" s="4"/>
+      <c r="F805" s="3"/>
     </row>
     <row r="806" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F806" s="4"/>
+      <c r="F806" s="3"/>
     </row>
     <row r="807" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F807" s="4"/>
+      <c r="F807" s="3"/>
     </row>
     <row r="808" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F808" s="4"/>
+      <c r="F808" s="3"/>
     </row>
     <row r="809" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F809" s="4"/>
+      <c r="F809" s="3"/>
     </row>
     <row r="810" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F810" s="4"/>
+      <c r="F810" s="3"/>
     </row>
     <row r="811" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F811" s="4"/>
+      <c r="F811" s="3"/>
     </row>
     <row r="812" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F812" s="4"/>
+      <c r="F812" s="3"/>
     </row>
     <row r="813" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F813" s="4"/>
+      <c r="F813" s="3"/>
     </row>
     <row r="814" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F814" s="4"/>
+      <c r="F814" s="3"/>
     </row>
     <row r="815" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F815" s="4"/>
+      <c r="F815" s="3"/>
     </row>
     <row r="816" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F816" s="4"/>
+      <c r="F816" s="3"/>
     </row>
     <row r="817" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F817" s="4"/>
+      <c r="F817" s="3"/>
     </row>
     <row r="818" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F818" s="4"/>
+      <c r="F818" s="3"/>
     </row>
     <row r="819" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F819" s="4"/>
+      <c r="F819" s="3"/>
     </row>
     <row r="820" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F820" s="4"/>
+      <c r="F820" s="3"/>
     </row>
     <row r="821" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F821" s="4"/>
+      <c r="F821" s="3"/>
     </row>
     <row r="822" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F822" s="4"/>
+      <c r="F822" s="3"/>
     </row>
     <row r="823" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F823" s="4"/>
+      <c r="F823" s="3"/>
     </row>
     <row r="824" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F824" s="4"/>
+      <c r="F824" s="3"/>
     </row>
     <row r="825" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F825" s="4"/>
+      <c r="F825" s="3"/>
     </row>
     <row r="826" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F826" s="4"/>
+      <c r="F826" s="3"/>
     </row>
     <row r="827" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F827" s="4"/>
+      <c r="F827" s="3"/>
     </row>
     <row r="828" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F828" s="4"/>
+      <c r="F828" s="3"/>
     </row>
     <row r="829" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F829" s="4"/>
+      <c r="F829" s="3"/>
     </row>
     <row r="830" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F830" s="4"/>
+      <c r="F830" s="3"/>
     </row>
     <row r="831" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F831" s="4"/>
+      <c r="F831" s="3"/>
     </row>
     <row r="832" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F832" s="4"/>
+      <c r="F832" s="3"/>
     </row>
     <row r="833" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F833" s="4"/>
+      <c r="F833" s="3"/>
     </row>
     <row r="834" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F834" s="4"/>
+      <c r="F834" s="3"/>
     </row>
     <row r="835" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F835" s="4"/>
+      <c r="F835" s="3"/>
     </row>
     <row r="836" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F836" s="4"/>
+      <c r="F836" s="3"/>
     </row>
     <row r="837" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F837" s="4"/>
+      <c r="F837" s="3"/>
     </row>
     <row r="838" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F838" s="4"/>
+      <c r="F838" s="3"/>
     </row>
     <row r="839" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F839" s="4"/>
+      <c r="F839" s="3"/>
     </row>
     <row r="840" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F840" s="4"/>
+      <c r="F840" s="3"/>
     </row>
     <row r="841" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F841" s="4"/>
+      <c r="F841" s="3"/>
     </row>
     <row r="842" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F842" s="4"/>
+      <c r="F842" s="3"/>
     </row>
     <row r="843" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F843" s="4"/>
+      <c r="F843" s="3"/>
     </row>
     <row r="844" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F844" s="4"/>
+      <c r="F844" s="3"/>
     </row>
     <row r="845" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F845" s="4"/>
+      <c r="F845" s="3"/>
     </row>
     <row r="846" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F846" s="4"/>
+      <c r="F846" s="3"/>
     </row>
     <row r="847" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F847" s="4"/>
+      <c r="F847" s="3"/>
     </row>
     <row r="848" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F848" s="4"/>
+      <c r="F848" s="3"/>
     </row>
     <row r="849" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F849" s="4"/>
+      <c r="F849" s="3"/>
     </row>
     <row r="850" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F850" s="4"/>
+      <c r="F850" s="3"/>
     </row>
     <row r="851" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F851" s="4"/>
+      <c r="F851" s="3"/>
     </row>
     <row r="852" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F852" s="4"/>
+      <c r="F852" s="3"/>
     </row>
     <row r="853" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F853" s="4"/>
+      <c r="F853" s="3"/>
     </row>
     <row r="854" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F854" s="4"/>
+      <c r="F854" s="3"/>
     </row>
     <row r="855" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F855" s="4"/>
+      <c r="F855" s="3"/>
     </row>
     <row r="856" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F856" s="4"/>
+      <c r="F856" s="3"/>
     </row>
     <row r="857" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F857" s="4"/>
+      <c r="F857" s="3"/>
     </row>
     <row r="858" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F858" s="4"/>
+      <c r="F858" s="3"/>
     </row>
     <row r="859" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F859" s="4"/>
+      <c r="F859" s="3"/>
     </row>
     <row r="860" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F860" s="4"/>
+      <c r="F860" s="3"/>
     </row>
     <row r="861" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F861" s="4"/>
+      <c r="F861" s="3"/>
     </row>
     <row r="862" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F862" s="4"/>
+      <c r="F862" s="3"/>
     </row>
     <row r="863" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F863" s="4"/>
+      <c r="F863" s="3"/>
     </row>
     <row r="864" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F864" s="4"/>
+      <c r="F864" s="3"/>
     </row>
     <row r="865" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F865" s="4"/>
+      <c r="F865" s="3"/>
     </row>
     <row r="866" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F866" s="4"/>
+      <c r="F866" s="3"/>
     </row>
     <row r="867" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F867" s="4"/>
+      <c r="F867" s="3"/>
     </row>
     <row r="868" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F868" s="4"/>
+      <c r="F868" s="3"/>
     </row>
     <row r="869" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F869" s="4"/>
+      <c r="F869" s="3"/>
     </row>
     <row r="870" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F870" s="4"/>
+      <c r="F870" s="3"/>
     </row>
     <row r="871" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F871" s="4"/>
+      <c r="F871" s="3"/>
     </row>
     <row r="872" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F872" s="4"/>
+      <c r="F872" s="3"/>
     </row>
     <row r="873" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F873" s="4"/>
+      <c r="F873" s="3"/>
     </row>
     <row r="874" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F874" s="4"/>
+      <c r="F874" s="3"/>
     </row>
     <row r="875" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F875" s="4"/>
+      <c r="F875" s="3"/>
     </row>
     <row r="876" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F876" s="4"/>
+      <c r="F876" s="3"/>
     </row>
     <row r="877" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F877" s="4"/>
+      <c r="F877" s="3"/>
     </row>
     <row r="878" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F878" s="4"/>
+      <c r="F878" s="3"/>
     </row>
     <row r="879" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F879" s="4"/>
+      <c r="F879" s="3"/>
     </row>
     <row r="880" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F880" s="4"/>
+      <c r="F880" s="3"/>
     </row>
     <row r="881" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F881" s="4"/>
+      <c r="F881" s="3"/>
     </row>
     <row r="882" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F882" s="4"/>
+      <c r="F882" s="3"/>
     </row>
     <row r="883" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F883" s="4"/>
+      <c r="F883" s="3"/>
     </row>
     <row r="884" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F884" s="4"/>
+      <c r="F884" s="3"/>
     </row>
     <row r="885" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F885" s="4"/>
+      <c r="F885" s="3"/>
     </row>
     <row r="886" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F886" s="4"/>
+      <c r="F886" s="3"/>
     </row>
     <row r="887" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F887" s="4"/>
+      <c r="F887" s="3"/>
     </row>
     <row r="888" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F888" s="4"/>
+      <c r="F888" s="3"/>
     </row>
     <row r="889" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F889" s="4"/>
+      <c r="F889" s="3"/>
     </row>
     <row r="890" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F890" s="4"/>
+      <c r="F890" s="3"/>
     </row>
     <row r="891" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F891" s="4"/>
+      <c r="F891" s="3"/>
     </row>
     <row r="892" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F892" s="4"/>
+      <c r="F892" s="3"/>
     </row>
     <row r="893" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F893" s="4"/>
+      <c r="F893" s="3"/>
     </row>
     <row r="894" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F894" s="4"/>
+      <c r="F894" s="3"/>
     </row>
     <row r="895" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F895" s="4"/>
+      <c r="F895" s="3"/>
     </row>
     <row r="896" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F896" s="4"/>
+      <c r="F896" s="3"/>
     </row>
     <row r="897" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F897" s="4"/>
+      <c r="F897" s="3"/>
     </row>
     <row r="898" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F898" s="4"/>
+      <c r="F898" s="3"/>
     </row>
     <row r="899" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F899" s="4"/>
+      <c r="F899" s="3"/>
     </row>
     <row r="900" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F900" s="4"/>
+      <c r="F900" s="3"/>
     </row>
     <row r="901" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F901" s="4"/>
+      <c r="F901" s="3"/>
     </row>
     <row r="902" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F902" s="4"/>
+      <c r="F902" s="3"/>
     </row>
     <row r="903" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F903" s="4"/>
+      <c r="F903" s="3"/>
     </row>
     <row r="904" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F904" s="4"/>
+      <c r="F904" s="3"/>
     </row>
     <row r="905" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F905" s="4"/>
+      <c r="F905" s="3"/>
     </row>
     <row r="906" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F906" s="4"/>
+      <c r="F906" s="3"/>
     </row>
     <row r="907" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F907" s="4"/>
+      <c r="F907" s="3"/>
     </row>
     <row r="908" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F908" s="4"/>
+      <c r="F908" s="3"/>
     </row>
     <row r="909" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F909" s="4"/>
+      <c r="F909" s="3"/>
     </row>
     <row r="910" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F910" s="4"/>
+      <c r="F910" s="3"/>
     </row>
     <row r="911" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F911" s="4"/>
+      <c r="F911" s="3"/>
     </row>
     <row r="912" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F912" s="4"/>
+      <c r="F912" s="3"/>
     </row>
     <row r="913" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F913" s="4"/>
+      <c r="F913" s="3"/>
     </row>
     <row r="914" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F914" s="4"/>
+      <c r="F914" s="3"/>
     </row>
     <row r="915" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F915" s="4"/>
+      <c r="F915" s="3"/>
     </row>
     <row r="916" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F916" s="4"/>
+      <c r="F916" s="3"/>
     </row>
     <row r="917" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F917" s="4"/>
+      <c r="F917" s="3"/>
     </row>
     <row r="918" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F918" s="4"/>
+      <c r="F918" s="3"/>
     </row>
     <row r="919" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F919" s="4"/>
+      <c r="F919" s="3"/>
     </row>
     <row r="920" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F920" s="4"/>
+      <c r="F920" s="3"/>
     </row>
     <row r="921" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F921" s="4"/>
+      <c r="F921" s="3"/>
     </row>
     <row r="922" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F922" s="4"/>
+      <c r="F922" s="3"/>
     </row>
     <row r="923" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F923" s="4"/>
+      <c r="F923" s="3"/>
     </row>
     <row r="924" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F924" s="4"/>
+      <c r="F924" s="3"/>
     </row>
     <row r="925" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F925" s="4"/>
+      <c r="F925" s="3"/>
     </row>
     <row r="926" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F926" s="4"/>
+      <c r="F926" s="3"/>
     </row>
     <row r="927" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F927" s="4"/>
+      <c r="F927" s="3"/>
     </row>
     <row r="928" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F928" s="4"/>
+      <c r="F928" s="3"/>
     </row>
     <row r="929" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F929" s="4"/>
+      <c r="F929" s="3"/>
     </row>
     <row r="930" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F930" s="4"/>
+      <c r="F930" s="3"/>
     </row>
     <row r="931" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F931" s="4"/>
+      <c r="F931" s="3"/>
     </row>
     <row r="932" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F932" s="4"/>
+      <c r="F932" s="3"/>
     </row>
     <row r="933" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F933" s="4"/>
+      <c r="F933" s="3"/>
     </row>
     <row r="934" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F934" s="4"/>
+      <c r="F934" s="3"/>
     </row>
     <row r="935" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F935" s="4"/>
+      <c r="F935" s="3"/>
     </row>
     <row r="936" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F936" s="4"/>
+      <c r="F936" s="3"/>
     </row>
     <row r="937" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F937" s="4"/>
+      <c r="F937" s="3"/>
     </row>
     <row r="938" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F938" s="4"/>
+      <c r="F938" s="3"/>
     </row>
     <row r="939" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F939" s="4"/>
+      <c r="F939" s="3"/>
     </row>
     <row r="940" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F940" s="4"/>
+      <c r="F940" s="3"/>
     </row>
     <row r="941" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F941" s="4"/>
+      <c r="F941" s="3"/>
     </row>
     <row r="942" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F942" s="4"/>
+      <c r="F942" s="3"/>
     </row>
     <row r="943" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F943" s="4"/>
+      <c r="F943" s="3"/>
     </row>
     <row r="944" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F944" s="4"/>
+      <c r="F944" s="3"/>
     </row>
     <row r="945" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F945" s="4"/>
+      <c r="F945" s="3"/>
     </row>
     <row r="946" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F946" s="4"/>
+      <c r="F946" s="3"/>
     </row>
     <row r="947" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F947" s="4"/>
+      <c r="F947" s="3"/>
     </row>
     <row r="948" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F948" s="4"/>
+      <c r="F948" s="3"/>
     </row>
     <row r="949" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F949" s="4"/>
+      <c r="F949" s="3"/>
     </row>
     <row r="950" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F950" s="4"/>
+      <c r="F950" s="3"/>
     </row>
     <row r="951" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F951" s="4"/>
+      <c r="F951" s="3"/>
     </row>
     <row r="952" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F952" s="4"/>
+      <c r="F952" s="3"/>
     </row>
     <row r="953" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F953" s="4"/>
+      <c r="F953" s="3"/>
     </row>
     <row r="954" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F954" s="4"/>
+      <c r="F954" s="3"/>
     </row>
     <row r="955" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F955" s="4"/>
+      <c r="F955" s="3"/>
     </row>
     <row r="956" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F956" s="4"/>
+      <c r="F956" s="3"/>
     </row>
     <row r="957" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F957" s="4"/>
+      <c r="F957" s="3"/>
     </row>
     <row r="958" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F958" s="4"/>
+      <c r="F958" s="3"/>
     </row>
     <row r="959" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F959" s="4"/>
+      <c r="F959" s="3"/>
     </row>
     <row r="960" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F960" s="4"/>
+      <c r="F960" s="3"/>
     </row>
     <row r="961" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F961" s="4"/>
+      <c r="F961" s="3"/>
     </row>
     <row r="962" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F962" s="4"/>
+      <c r="F962" s="3"/>
     </row>
     <row r="963" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F963" s="4"/>
+      <c r="F963" s="3"/>
     </row>
     <row r="964" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F964" s="4"/>
+      <c r="F964" s="3"/>
     </row>
     <row r="965" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F965" s="4"/>
+      <c r="F965" s="3"/>
     </row>
     <row r="966" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F966" s="4"/>
+      <c r="F966" s="3"/>
     </row>
     <row r="967" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F967" s="4"/>
+      <c r="F967" s="3"/>
     </row>
     <row r="968" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F968" s="4"/>
+      <c r="F968" s="3"/>
     </row>
     <row r="969" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F969" s="4"/>
+      <c r="F969" s="3"/>
     </row>
     <row r="970" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F970" s="4"/>
+      <c r="F970" s="3"/>
     </row>
     <row r="971" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F971" s="4"/>
+      <c r="F971" s="3"/>
     </row>
     <row r="972" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F972" s="4"/>
+      <c r="F972" s="3"/>
     </row>
     <row r="973" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F973" s="4"/>
+      <c r="F973" s="3"/>
     </row>
     <row r="974" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F974" s="4"/>
+      <c r="F974" s="3"/>
     </row>
     <row r="975" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F975" s="4"/>
+      <c r="F975" s="3"/>
     </row>
     <row r="976" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F976" s="4"/>
+      <c r="F976" s="3"/>
     </row>
     <row r="977" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F977" s="4"/>
+      <c r="F977" s="3"/>
     </row>
     <row r="978" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F978" s="4"/>
+      <c r="F978" s="3"/>
     </row>
     <row r="979" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F979" s="4"/>
+      <c r="F979" s="3"/>
     </row>
     <row r="980" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F980" s="4"/>
+      <c r="F980" s="3"/>
     </row>
     <row r="981" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F981" s="4"/>
+      <c r="F981" s="3"/>
     </row>
     <row r="982" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F982" s="4"/>
+      <c r="F982" s="3"/>
     </row>
     <row r="983" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F983" s="4"/>
+      <c r="F983" s="3"/>
     </row>
     <row r="984" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F984" s="4"/>
+      <c r="F984" s="3"/>
     </row>
     <row r="985" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F985" s="4"/>
+      <c r="F985" s="3"/>
     </row>
     <row r="986" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F986" s="4"/>
+      <c r="F986" s="3"/>
     </row>
     <row r="987" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F987" s="4"/>
+      <c r="F987" s="3"/>
     </row>
     <row r="988" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F988" s="4"/>
+      <c r="F988" s="3"/>
     </row>
     <row r="989" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F989" s="4"/>
+      <c r="F989" s="3"/>
     </row>
     <row r="990" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F990" s="4"/>
+      <c r="F990" s="3"/>
     </row>
     <row r="991" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F991" s="4"/>
+      <c r="F991" s="3"/>
     </row>
     <row r="992" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F992" s="4"/>
+      <c r="F992" s="3"/>
     </row>
     <row r="993" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F993" s="4"/>
+      <c r="F993" s="3"/>
     </row>
     <row r="994" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F994" s="4"/>
+      <c r="F994" s="3"/>
     </row>
     <row r="995" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F995" s="4"/>
+      <c r="F995" s="3"/>
     </row>
     <row r="996" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F996" s="4"/>
+      <c r="F996" s="3"/>
     </row>
     <row r="997" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F997" s="4"/>
+      <c r="F997" s="3"/>
     </row>
     <row r="998" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F998" s="4"/>
+      <c r="F998" s="3"/>
     </row>
     <row r="999" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F999" s="4"/>
+      <c r="F999" s="3"/>
     </row>
     <row r="1000" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F1000" s="4"/>
+      <c r="F1000" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/2023.xlsx
+++ b/2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3096BE-3F86-4C9A-A68B-188971031046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81800513-81F0-4212-8191-07847EB5650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -39,16 +39,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -99,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -134,30 +124,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -173,49 +139,37 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -439,3619 +393,3681 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" style="14"/>
+    <col min="2" max="2" width="12.6640625" style="11"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10">
+      <c r="A1" s="7">
         <v>2.4091800000000001</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="12">
         <v>2.4154</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="12">
         <v>2.4215399999999998</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="12">
         <v>2.4270800000000001</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="12">
         <v>2.4321700000000002</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="F1" s="12">
+        <v>2.43736</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="7">
         <v>2.4093800000000001</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="12">
         <v>2.4156200000000001</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="12">
         <v>2.4217399999999998</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="12">
         <v>2.4272499999999999</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="12">
         <v>2.4323299999999999</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="F2" s="12">
+        <v>2.4375399999999998</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>2.4095800000000001</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>2.4158400000000002</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>2.4219400000000002</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>2.4274200000000001</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>2.43249</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="F3" s="12">
+        <v>2.4377200000000001</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>2.40978</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="12">
         <v>2.4160599999999999</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>2.4221400000000002</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>2.4275899999999999</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>2.4326500000000002</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="F4" s="12">
+        <v>2.4379</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>2.40998</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="12">
         <v>2.41628</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>2.4223400000000002</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>2.4277600000000001</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>2.4328099999999999</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="F5" s="12">
+        <v>2.4380799999999998</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>2.41018</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="12">
         <v>2.4165000000000001</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>2.4225400000000001</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>2.4279299999999999</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>2.4329700000000001</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="F6" s="12">
+        <v>2.4382600000000001</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>2.41038</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="12">
         <v>2.4167200000000002</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>2.4227400000000001</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>2.4281000000000001</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>2.4331299999999998</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="F7" s="12">
+        <v>2.4384399999999999</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>2.4105799999999999</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="12">
         <v>2.4169399999999999</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>2.4229400000000001</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>2.4282699999999999</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>2.43329</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="F8" s="12">
+        <v>2.4386199999999998</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>2.4107799999999999</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>2.41716</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>2.4231400000000001</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>2.4284400000000002</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>2.4334500000000001</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="F9" s="12">
+        <v>2.4388000000000001</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>2.4109799999999999</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>2.4173800000000001</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>2.42334</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>2.4286099999999999</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>2.4336099999999998</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="F10" s="12">
+        <v>2.4389799999999999</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>2.4111799999999999</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <v>2.4176000000000002</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>2.4235099999999998</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>2.4287800000000002</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="E11" s="12">
+        <v>2.4337800000000001</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <v>2.4113799999999999</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="12">
         <v>2.4178199999999999</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>2.4236800000000001</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>2.4289499999999999</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="E12" s="12">
+        <v>2.4339499999999998</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <v>2.4115799999999998</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="12">
         <v>2.41804</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>2.4238499999999998</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <v>2.4291200000000002</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="E13" s="12">
+        <v>2.4341200000000001</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <v>2.4117799999999998</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="12">
         <v>2.4182600000000001</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>2.4240200000000001</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <v>2.4292899999999999</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="E14" s="12">
+        <v>2.4342899999999998</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="7">
         <v>2.4119799999999998</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="12">
         <v>2.4184800000000002</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <v>2.4241899999999998</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="12">
         <v>2.4294600000000002</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="E15" s="12">
+        <v>2.4344600000000001</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="7">
         <v>2.4121800000000002</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="12">
         <v>2.4186999999999999</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="12">
         <v>2.4243600000000001</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="12">
         <v>2.42963</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="E16" s="12">
+        <v>2.4346299999999998</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="7">
         <v>2.4123800000000002</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="12">
         <v>2.41892</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <v>2.4245299999999999</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="12">
         <v>2.4298000000000002</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="E17" s="12">
+        <v>2.4348000000000001</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="7">
         <v>2.4125800000000002</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="12">
         <v>2.4191400000000001</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="12">
         <v>2.4247000000000001</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="12">
         <v>2.42997</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="E18" s="12">
+        <v>2.4349699999999999</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="7">
         <v>2.4127800000000001</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="12">
         <v>2.4193600000000002</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>2.4248699999999999</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="12">
         <v>2.4301400000000002</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="E19" s="12">
+        <v>2.4351400000000001</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>2.4129800000000001</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="12">
         <v>2.4195799999999998</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="12">
         <v>2.4250400000000001</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="12">
         <v>2.43031</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="E20" s="12">
+        <v>2.4353099999999999</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="7">
         <v>2.4131800000000001</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="12">
         <v>2.4198</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="12">
         <v>2.4252099999999999</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="12">
         <v>2.4304800000000002</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="E21" s="12">
+        <v>2.4354800000000001</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="7">
         <v>2.4133800000000001</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="12">
         <v>2.4200200000000001</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="12">
         <v>2.4253800000000001</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="12">
         <v>2.43065</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
+      <c r="E22" s="12">
+        <v>2.4356499999999999</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="7">
         <v>2.4135800000000001</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="12">
         <v>2.4202400000000002</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>2.4255499999999999</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="12">
         <v>2.4308200000000002</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+      <c r="E23" s="12">
+        <v>2.4358200000000001</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="A24" s="7">
         <v>2.41378</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="12">
         <v>2.4204599999999998</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="12">
         <v>2.4257200000000001</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="12">
         <v>2.43099</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
+      <c r="E24" s="12">
+        <v>2.4359899999999999</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="A25" s="7">
         <v>2.41398</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="12">
         <v>2.4206799999999999</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="12">
         <v>2.4258899999999999</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="12">
         <v>2.4311600000000002</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
+      <c r="E25" s="12">
+        <v>2.4361600000000001</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="A26" s="7">
         <v>2.41418</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="12">
         <v>2.4209000000000001</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="12">
         <v>2.4260600000000001</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="12">
         <v>2.43133</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
+      <c r="E26" s="12">
+        <v>2.4363299999999999</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="A27" s="7">
         <v>2.41438</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="12">
         <v>2.4211200000000002</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>2.4262299999999999</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="12">
         <v>2.4315000000000002</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
+      <c r="E27" s="12">
+        <v>2.4365000000000001</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+      <c r="A28" s="7">
         <v>2.4145799999999999</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="12">
         <v>2.4213399999999998</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <v>2.4264000000000001</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="12">
         <v>2.43167</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
+      <c r="E28" s="12">
+        <v>2.4366699999999999</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29" s="7">
         <v>2.4147799999999999</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12">
         <v>2.4265699999999999</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="12">
         <v>2.4318399999999998</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
+      <c r="E29" s="12">
+        <v>2.4368400000000001</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="A30" s="7">
         <v>2.4149799999999999</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="15">
+      <c r="B30" s="10"/>
+      <c r="C30" s="12">
         <v>2.4267400000000001</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="12">
         <v>2.43201</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
+      <c r="E30" s="12">
+        <v>2.4370099999999999</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="A31" s="7">
         <v>2.4151799999999999</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="15">
+      <c r="B31" s="10"/>
+      <c r="C31" s="12">
         <v>2.4269099999999999</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="11"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="12">
+        <v>2.4371800000000001</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F32" s="3"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F33" s="3"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F34" s="3"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F35" s="3"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F36" s="3"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F37" s="3"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F38" s="3"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F39" s="3"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F40" s="3"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F41" s="3"/>
+      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F42" s="3"/>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F43" s="3"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F44" s="3"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F45" s="3"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F46" s="3"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F47" s="3"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F48" s="3"/>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F49" s="3"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F50" s="3"/>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F51" s="3"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F52" s="3"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F53" s="3"/>
+      <c r="F53" s="2"/>
     </row>
     <row r="54" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F54" s="3"/>
+      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F55" s="3"/>
+      <c r="F55" s="2"/>
     </row>
     <row r="56" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F56" s="3"/>
+      <c r="F56" s="2"/>
     </row>
     <row r="57" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F57" s="3"/>
+      <c r="F57" s="2"/>
     </row>
     <row r="58" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F58" s="3"/>
+      <c r="F58" s="2"/>
     </row>
     <row r="59" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F59" s="3"/>
+      <c r="F59" s="2"/>
     </row>
     <row r="60" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F60" s="3"/>
+      <c r="F60" s="2"/>
     </row>
     <row r="61" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F61" s="3"/>
+      <c r="F61" s="2"/>
     </row>
     <row r="62" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F62" s="3"/>
+      <c r="F62" s="2"/>
     </row>
     <row r="63" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F63" s="3"/>
+      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F64" s="3"/>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F65" s="3"/>
+      <c r="F65" s="2"/>
     </row>
     <row r="66" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F66" s="3"/>
+      <c r="F66" s="2"/>
     </row>
     <row r="67" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F67" s="3"/>
+      <c r="F67" s="2"/>
     </row>
     <row r="68" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F68" s="3"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F69" s="3"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F70" s="3"/>
+      <c r="F70" s="2"/>
     </row>
     <row r="71" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F71" s="3"/>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F72" s="3"/>
+      <c r="F72" s="2"/>
     </row>
     <row r="73" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F73" s="3"/>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F74" s="3"/>
+      <c r="F74" s="2"/>
     </row>
     <row r="75" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F75" s="3"/>
+      <c r="F75" s="2"/>
     </row>
     <row r="76" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F76" s="3"/>
+      <c r="F76" s="2"/>
     </row>
     <row r="77" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F77" s="3"/>
+      <c r="F77" s="2"/>
     </row>
     <row r="78" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F78" s="3"/>
+      <c r="F78" s="2"/>
     </row>
     <row r="79" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F79" s="3"/>
+      <c r="F79" s="2"/>
     </row>
     <row r="80" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F80" s="3"/>
+      <c r="F80" s="2"/>
     </row>
     <row r="81" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F81" s="3"/>
+      <c r="F81" s="2"/>
     </row>
     <row r="82" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F82" s="3"/>
+      <c r="F82" s="2"/>
     </row>
     <row r="83" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F83" s="3"/>
+      <c r="F83" s="2"/>
     </row>
     <row r="84" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F84" s="3"/>
+      <c r="F84" s="2"/>
     </row>
     <row r="85" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F85" s="3"/>
+      <c r="F85" s="2"/>
     </row>
     <row r="86" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F86" s="3"/>
+      <c r="F86" s="2"/>
     </row>
     <row r="87" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F87" s="3"/>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F88" s="3"/>
+      <c r="F88" s="2"/>
     </row>
     <row r="89" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F89" s="3"/>
+      <c r="F89" s="2"/>
     </row>
     <row r="90" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F90" s="3"/>
+      <c r="F90" s="2"/>
     </row>
     <row r="91" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F91" s="3"/>
+      <c r="F91" s="2"/>
     </row>
     <row r="92" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F92" s="3"/>
+      <c r="F92" s="2"/>
     </row>
     <row r="93" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F93" s="3"/>
+      <c r="F93" s="2"/>
     </row>
     <row r="94" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F94" s="3"/>
+      <c r="F94" s="2"/>
     </row>
     <row r="95" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F95" s="3"/>
+      <c r="F95" s="2"/>
     </row>
     <row r="96" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F96" s="3"/>
+      <c r="F96" s="2"/>
     </row>
     <row r="97" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F97" s="3"/>
+      <c r="F97" s="2"/>
     </row>
     <row r="98" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F98" s="3"/>
+      <c r="F98" s="2"/>
     </row>
     <row r="99" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F99" s="3"/>
+      <c r="F99" s="2"/>
     </row>
     <row r="100" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F100" s="3"/>
+      <c r="F100" s="2"/>
     </row>
     <row r="101" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F101" s="3"/>
+      <c r="F101" s="2"/>
     </row>
     <row r="102" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F102" s="3"/>
+      <c r="F102" s="2"/>
     </row>
     <row r="103" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F103" s="3"/>
+      <c r="F103" s="2"/>
     </row>
     <row r="104" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F104" s="3"/>
+      <c r="F104" s="2"/>
     </row>
     <row r="105" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F105" s="3"/>
+      <c r="F105" s="2"/>
     </row>
     <row r="106" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F106" s="3"/>
+      <c r="F106" s="2"/>
     </row>
     <row r="107" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F107" s="3"/>
+      <c r="F107" s="2"/>
     </row>
     <row r="108" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F108" s="3"/>
+      <c r="F108" s="2"/>
     </row>
     <row r="109" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F109" s="3"/>
+      <c r="F109" s="2"/>
     </row>
     <row r="110" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F110" s="3"/>
+      <c r="F110" s="2"/>
     </row>
     <row r="111" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F111" s="3"/>
+      <c r="F111" s="2"/>
     </row>
     <row r="112" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F112" s="3"/>
+      <c r="F112" s="2"/>
     </row>
     <row r="113" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F113" s="3"/>
+      <c r="F113" s="2"/>
     </row>
     <row r="114" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F114" s="3"/>
+      <c r="F114" s="2"/>
     </row>
     <row r="115" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F115" s="3"/>
+      <c r="F115" s="2"/>
     </row>
     <row r="116" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F116" s="3"/>
+      <c r="F116" s="2"/>
     </row>
     <row r="117" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F117" s="3"/>
+      <c r="F117" s="2"/>
     </row>
     <row r="118" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F118" s="3"/>
+      <c r="F118" s="2"/>
     </row>
     <row r="119" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F119" s="3"/>
+      <c r="F119" s="2"/>
     </row>
     <row r="120" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F120" s="3"/>
+      <c r="F120" s="2"/>
     </row>
     <row r="121" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F121" s="3"/>
+      <c r="F121" s="2"/>
     </row>
     <row r="122" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F122" s="3"/>
+      <c r="F122" s="2"/>
     </row>
     <row r="123" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F123" s="3"/>
+      <c r="F123" s="2"/>
     </row>
     <row r="124" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F124" s="3"/>
+      <c r="F124" s="2"/>
     </row>
     <row r="125" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F125" s="3"/>
+      <c r="F125" s="2"/>
     </row>
     <row r="126" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F126" s="3"/>
+      <c r="F126" s="2"/>
     </row>
     <row r="127" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F127" s="3"/>
+      <c r="F127" s="2"/>
     </row>
     <row r="128" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F128" s="3"/>
+      <c r="F128" s="2"/>
     </row>
     <row r="129" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F129" s="3"/>
+      <c r="F129" s="2"/>
     </row>
     <row r="130" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F130" s="3"/>
+      <c r="F130" s="2"/>
     </row>
     <row r="131" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F131" s="3"/>
+      <c r="F131" s="2"/>
     </row>
     <row r="132" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F132" s="3"/>
+      <c r="F132" s="2"/>
     </row>
     <row r="133" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F133" s="3"/>
+      <c r="F133" s="2"/>
     </row>
     <row r="134" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F134" s="3"/>
+      <c r="F134" s="2"/>
     </row>
     <row r="135" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F135" s="3"/>
+      <c r="F135" s="2"/>
     </row>
     <row r="136" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F136" s="3"/>
+      <c r="F136" s="2"/>
     </row>
     <row r="137" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F137" s="3"/>
+      <c r="F137" s="2"/>
     </row>
     <row r="138" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F138" s="3"/>
+      <c r="F138" s="2"/>
     </row>
     <row r="139" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F139" s="3"/>
+      <c r="F139" s="2"/>
     </row>
     <row r="140" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F140" s="3"/>
+      <c r="F140" s="2"/>
     </row>
     <row r="141" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F141" s="3"/>
+      <c r="F141" s="2"/>
     </row>
     <row r="142" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F142" s="3"/>
+      <c r="F142" s="2"/>
     </row>
     <row r="143" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F143" s="3"/>
+      <c r="F143" s="2"/>
     </row>
     <row r="144" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F144" s="3"/>
+      <c r="F144" s="2"/>
     </row>
     <row r="145" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F145" s="3"/>
+      <c r="F145" s="2"/>
     </row>
     <row r="146" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F146" s="3"/>
+      <c r="F146" s="2"/>
     </row>
     <row r="147" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F147" s="3"/>
+      <c r="F147" s="2"/>
     </row>
     <row r="148" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F148" s="3"/>
+      <c r="F148" s="2"/>
     </row>
     <row r="149" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F149" s="3"/>
+      <c r="F149" s="2"/>
     </row>
     <row r="150" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F150" s="3"/>
+      <c r="F150" s="2"/>
     </row>
     <row r="151" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F151" s="3"/>
+      <c r="F151" s="2"/>
     </row>
     <row r="152" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F152" s="3"/>
+      <c r="F152" s="2"/>
     </row>
     <row r="153" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F153" s="3"/>
+      <c r="F153" s="2"/>
     </row>
     <row r="154" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F154" s="3"/>
+      <c r="F154" s="2"/>
     </row>
     <row r="155" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F155" s="3"/>
+      <c r="F155" s="2"/>
     </row>
     <row r="156" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F156" s="3"/>
+      <c r="F156" s="2"/>
     </row>
     <row r="157" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F157" s="3"/>
+      <c r="F157" s="2"/>
     </row>
     <row r="158" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F158" s="3"/>
+      <c r="F158" s="2"/>
     </row>
     <row r="159" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F159" s="3"/>
+      <c r="F159" s="2"/>
     </row>
     <row r="160" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F160" s="3"/>
+      <c r="F160" s="2"/>
     </row>
     <row r="161" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F161" s="3"/>
+      <c r="F161" s="2"/>
     </row>
     <row r="162" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F162" s="3"/>
+      <c r="F162" s="2"/>
     </row>
     <row r="163" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F163" s="3"/>
+      <c r="F163" s="2"/>
     </row>
     <row r="164" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F164" s="3"/>
+      <c r="F164" s="2"/>
     </row>
     <row r="165" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F165" s="3"/>
+      <c r="F165" s="2"/>
     </row>
     <row r="166" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F166" s="3"/>
+      <c r="F166" s="2"/>
     </row>
     <row r="167" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F167" s="3"/>
+      <c r="F167" s="2"/>
     </row>
     <row r="168" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F168" s="3"/>
+      <c r="F168" s="2"/>
     </row>
     <row r="169" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F169" s="3"/>
+      <c r="F169" s="2"/>
     </row>
     <row r="170" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F170" s="3"/>
+      <c r="F170" s="2"/>
     </row>
     <row r="171" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F171" s="3"/>
+      <c r="F171" s="2"/>
     </row>
     <row r="172" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F172" s="3"/>
+      <c r="F172" s="2"/>
     </row>
     <row r="173" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F173" s="3"/>
+      <c r="F173" s="2"/>
     </row>
     <row r="174" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F174" s="3"/>
+      <c r="F174" s="2"/>
     </row>
     <row r="175" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F175" s="3"/>
+      <c r="F175" s="2"/>
     </row>
     <row r="176" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F176" s="3"/>
+      <c r="F176" s="2"/>
     </row>
     <row r="177" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F177" s="3"/>
+      <c r="F177" s="2"/>
     </row>
     <row r="178" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F178" s="3"/>
+      <c r="F178" s="2"/>
     </row>
     <row r="179" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F179" s="3"/>
+      <c r="F179" s="2"/>
     </row>
     <row r="180" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F180" s="3"/>
+      <c r="F180" s="2"/>
     </row>
     <row r="181" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F181" s="3"/>
+      <c r="F181" s="2"/>
     </row>
     <row r="182" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F182" s="3"/>
+      <c r="F182" s="2"/>
     </row>
     <row r="183" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F183" s="3"/>
+      <c r="F183" s="2"/>
     </row>
     <row r="184" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F184" s="3"/>
+      <c r="F184" s="2"/>
     </row>
     <row r="185" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F185" s="3"/>
+      <c r="F185" s="2"/>
     </row>
     <row r="186" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F186" s="3"/>
+      <c r="F186" s="2"/>
     </row>
     <row r="187" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F187" s="3"/>
+      <c r="F187" s="2"/>
     </row>
     <row r="188" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F188" s="3"/>
+      <c r="F188" s="2"/>
     </row>
     <row r="189" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F189" s="3"/>
+      <c r="F189" s="2"/>
     </row>
     <row r="190" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F190" s="3"/>
+      <c r="F190" s="2"/>
     </row>
     <row r="191" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F191" s="3"/>
+      <c r="F191" s="2"/>
     </row>
     <row r="192" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F192" s="3"/>
+      <c r="F192" s="2"/>
     </row>
     <row r="193" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F193" s="3"/>
+      <c r="F193" s="2"/>
     </row>
     <row r="194" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F194" s="3"/>
+      <c r="F194" s="2"/>
     </row>
     <row r="195" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F195" s="3"/>
+      <c r="F195" s="2"/>
     </row>
     <row r="196" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F196" s="3"/>
+      <c r="F196" s="2"/>
     </row>
     <row r="197" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F197" s="3"/>
+      <c r="F197" s="2"/>
     </row>
     <row r="198" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F198" s="3"/>
+      <c r="F198" s="2"/>
     </row>
     <row r="199" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F199" s="3"/>
+      <c r="F199" s="2"/>
     </row>
     <row r="200" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F200" s="3"/>
+      <c r="F200" s="2"/>
     </row>
     <row r="201" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F201" s="3"/>
+      <c r="F201" s="2"/>
     </row>
     <row r="202" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F202" s="3"/>
+      <c r="F202" s="2"/>
     </row>
     <row r="203" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F203" s="3"/>
+      <c r="F203" s="2"/>
     </row>
     <row r="204" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F204" s="3"/>
+      <c r="F204" s="2"/>
     </row>
     <row r="205" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F205" s="3"/>
+      <c r="F205" s="2"/>
     </row>
     <row r="206" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F206" s="3"/>
+      <c r="F206" s="2"/>
     </row>
     <row r="207" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F207" s="3"/>
+      <c r="F207" s="2"/>
     </row>
     <row r="208" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F208" s="3"/>
+      <c r="F208" s="2"/>
     </row>
     <row r="209" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F209" s="3"/>
+      <c r="F209" s="2"/>
     </row>
     <row r="210" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F210" s="3"/>
+      <c r="F210" s="2"/>
     </row>
     <row r="211" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F211" s="3"/>
+      <c r="F211" s="2"/>
     </row>
     <row r="212" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F212" s="3"/>
+      <c r="F212" s="2"/>
     </row>
     <row r="213" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F213" s="3"/>
+      <c r="F213" s="2"/>
     </row>
     <row r="214" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F214" s="3"/>
+      <c r="F214" s="2"/>
     </row>
     <row r="215" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F215" s="3"/>
+      <c r="F215" s="2"/>
     </row>
     <row r="216" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F216" s="3"/>
+      <c r="F216" s="2"/>
     </row>
     <row r="217" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F217" s="3"/>
+      <c r="F217" s="2"/>
     </row>
     <row r="218" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F218" s="3"/>
+      <c r="F218" s="2"/>
     </row>
     <row r="219" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F219" s="3"/>
+      <c r="F219" s="2"/>
     </row>
     <row r="220" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F220" s="3"/>
+      <c r="F220" s="2"/>
     </row>
     <row r="221" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F221" s="3"/>
+      <c r="F221" s="2"/>
     </row>
     <row r="222" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F222" s="3"/>
+      <c r="F222" s="2"/>
     </row>
     <row r="223" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F223" s="3"/>
+      <c r="F223" s="2"/>
     </row>
     <row r="224" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F224" s="3"/>
+      <c r="F224" s="2"/>
     </row>
     <row r="225" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F225" s="3"/>
+      <c r="F225" s="2"/>
     </row>
     <row r="226" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F226" s="3"/>
+      <c r="F226" s="2"/>
     </row>
     <row r="227" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F227" s="3"/>
+      <c r="F227" s="2"/>
     </row>
     <row r="228" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F228" s="3"/>
+      <c r="F228" s="2"/>
     </row>
     <row r="229" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F229" s="3"/>
+      <c r="F229" s="2"/>
     </row>
     <row r="230" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F230" s="3"/>
+      <c r="F230" s="2"/>
     </row>
     <row r="231" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F231" s="3"/>
+      <c r="F231" s="2"/>
     </row>
     <row r="232" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F232" s="3"/>
+      <c r="F232" s="2"/>
     </row>
     <row r="233" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F233" s="3"/>
+      <c r="F233" s="2"/>
     </row>
     <row r="234" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F234" s="3"/>
+      <c r="F234" s="2"/>
     </row>
     <row r="235" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F235" s="3"/>
+      <c r="F235" s="2"/>
     </row>
     <row r="236" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F236" s="3"/>
+      <c r="F236" s="2"/>
     </row>
     <row r="237" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F237" s="3"/>
+      <c r="F237" s="2"/>
     </row>
     <row r="238" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F238" s="3"/>
+      <c r="F238" s="2"/>
     </row>
     <row r="239" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F239" s="3"/>
+      <c r="F239" s="2"/>
     </row>
     <row r="240" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F240" s="3"/>
+      <c r="F240" s="2"/>
     </row>
     <row r="241" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F241" s="3"/>
+      <c r="F241" s="2"/>
     </row>
     <row r="242" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F242" s="3"/>
+      <c r="F242" s="2"/>
     </row>
     <row r="243" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F243" s="3"/>
+      <c r="F243" s="2"/>
     </row>
     <row r="244" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F244" s="3"/>
+      <c r="F244" s="2"/>
     </row>
     <row r="245" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F245" s="3"/>
+      <c r="F245" s="2"/>
     </row>
     <row r="246" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F246" s="3"/>
+      <c r="F246" s="2"/>
     </row>
     <row r="247" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F247" s="3"/>
+      <c r="F247" s="2"/>
     </row>
     <row r="248" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F248" s="3"/>
+      <c r="F248" s="2"/>
     </row>
     <row r="249" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F249" s="3"/>
+      <c r="F249" s="2"/>
     </row>
     <row r="250" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F250" s="3"/>
+      <c r="F250" s="2"/>
     </row>
     <row r="251" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F251" s="3"/>
+      <c r="F251" s="2"/>
     </row>
     <row r="252" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F252" s="3"/>
+      <c r="F252" s="2"/>
     </row>
     <row r="253" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F253" s="3"/>
+      <c r="F253" s="2"/>
     </row>
     <row r="254" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F254" s="3"/>
+      <c r="F254" s="2"/>
     </row>
     <row r="255" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F255" s="3"/>
+      <c r="F255" s="2"/>
     </row>
     <row r="256" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F256" s="3"/>
+      <c r="F256" s="2"/>
     </row>
     <row r="257" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F257" s="3"/>
+      <c r="F257" s="2"/>
     </row>
     <row r="258" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F258" s="3"/>
+      <c r="F258" s="2"/>
     </row>
     <row r="259" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F259" s="3"/>
+      <c r="F259" s="2"/>
     </row>
     <row r="260" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F260" s="3"/>
+      <c r="F260" s="2"/>
     </row>
     <row r="261" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F261" s="3"/>
+      <c r="F261" s="2"/>
     </row>
     <row r="262" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F262" s="3"/>
+      <c r="F262" s="2"/>
     </row>
     <row r="263" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F263" s="3"/>
+      <c r="F263" s="2"/>
     </row>
     <row r="264" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F264" s="3"/>
+      <c r="F264" s="2"/>
     </row>
     <row r="265" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F265" s="3"/>
+      <c r="F265" s="2"/>
     </row>
     <row r="266" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F266" s="3"/>
+      <c r="F266" s="2"/>
     </row>
     <row r="267" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F267" s="3"/>
+      <c r="F267" s="2"/>
     </row>
     <row r="268" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F268" s="3"/>
+      <c r="F268" s="2"/>
     </row>
     <row r="269" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F269" s="3"/>
+      <c r="F269" s="2"/>
     </row>
     <row r="270" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F270" s="3"/>
+      <c r="F270" s="2"/>
     </row>
     <row r="271" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F271" s="3"/>
+      <c r="F271" s="2"/>
     </row>
     <row r="272" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F272" s="3"/>
+      <c r="F272" s="2"/>
     </row>
     <row r="273" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F273" s="3"/>
+      <c r="F273" s="2"/>
     </row>
     <row r="274" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F274" s="3"/>
+      <c r="F274" s="2"/>
     </row>
     <row r="275" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F275" s="3"/>
+      <c r="F275" s="2"/>
     </row>
     <row r="276" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F276" s="3"/>
+      <c r="F276" s="2"/>
     </row>
     <row r="277" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F277" s="3"/>
+      <c r="F277" s="2"/>
     </row>
     <row r="278" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F278" s="3"/>
+      <c r="F278" s="2"/>
     </row>
     <row r="279" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F279" s="3"/>
+      <c r="F279" s="2"/>
     </row>
     <row r="280" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F280" s="3"/>
+      <c r="F280" s="2"/>
     </row>
     <row r="281" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F281" s="3"/>
+      <c r="F281" s="2"/>
     </row>
     <row r="282" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F282" s="3"/>
+      <c r="F282" s="2"/>
     </row>
     <row r="283" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F283" s="3"/>
+      <c r="F283" s="2"/>
     </row>
     <row r="284" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F284" s="3"/>
+      <c r="F284" s="2"/>
     </row>
     <row r="285" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F285" s="3"/>
+      <c r="F285" s="2"/>
     </row>
     <row r="286" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F286" s="3"/>
+      <c r="F286" s="2"/>
     </row>
     <row r="287" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F287" s="3"/>
+      <c r="F287" s="2"/>
     </row>
     <row r="288" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F288" s="3"/>
+      <c r="F288" s="2"/>
     </row>
     <row r="289" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F289" s="3"/>
+      <c r="F289" s="2"/>
     </row>
     <row r="290" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F290" s="3"/>
+      <c r="F290" s="2"/>
     </row>
     <row r="291" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F291" s="3"/>
+      <c r="F291" s="2"/>
     </row>
     <row r="292" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F292" s="3"/>
+      <c r="F292" s="2"/>
     </row>
     <row r="293" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F293" s="3"/>
+      <c r="F293" s="2"/>
     </row>
     <row r="294" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F294" s="3"/>
+      <c r="F294" s="2"/>
     </row>
     <row r="295" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F295" s="3"/>
+      <c r="F295" s="2"/>
     </row>
     <row r="296" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F296" s="3"/>
+      <c r="F296" s="2"/>
     </row>
     <row r="297" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F297" s="3"/>
+      <c r="F297" s="2"/>
     </row>
     <row r="298" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F298" s="3"/>
+      <c r="F298" s="2"/>
     </row>
     <row r="299" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F299" s="3"/>
+      <c r="F299" s="2"/>
     </row>
     <row r="300" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F300" s="3"/>
+      <c r="F300" s="2"/>
     </row>
     <row r="301" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F301" s="3"/>
+      <c r="F301" s="2"/>
     </row>
     <row r="302" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F302" s="3"/>
+      <c r="F302" s="2"/>
     </row>
     <row r="303" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F303" s="3"/>
+      <c r="F303" s="2"/>
     </row>
     <row r="304" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F304" s="3"/>
+      <c r="F304" s="2"/>
     </row>
     <row r="305" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F305" s="3"/>
+      <c r="F305" s="2"/>
     </row>
     <row r="306" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F306" s="3"/>
+      <c r="F306" s="2"/>
     </row>
     <row r="307" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F307" s="3"/>
+      <c r="F307" s="2"/>
     </row>
     <row r="308" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F308" s="3"/>
+      <c r="F308" s="2"/>
     </row>
     <row r="309" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F309" s="3"/>
+      <c r="F309" s="2"/>
     </row>
     <row r="310" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F310" s="3"/>
+      <c r="F310" s="2"/>
     </row>
     <row r="311" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F311" s="3"/>
+      <c r="F311" s="2"/>
     </row>
     <row r="312" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F312" s="3"/>
+      <c r="F312" s="2"/>
     </row>
     <row r="313" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F313" s="3"/>
+      <c r="F313" s="2"/>
     </row>
     <row r="314" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F314" s="3"/>
+      <c r="F314" s="2"/>
     </row>
     <row r="315" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F315" s="3"/>
+      <c r="F315" s="2"/>
     </row>
     <row r="316" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F316" s="3"/>
+      <c r="F316" s="2"/>
     </row>
     <row r="317" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F317" s="3"/>
+      <c r="F317" s="2"/>
     </row>
     <row r="318" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F318" s="3"/>
+      <c r="F318" s="2"/>
     </row>
     <row r="319" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F319" s="3"/>
+      <c r="F319" s="2"/>
     </row>
     <row r="320" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F320" s="3"/>
+      <c r="F320" s="2"/>
     </row>
     <row r="321" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F321" s="3"/>
+      <c r="F321" s="2"/>
     </row>
     <row r="322" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F322" s="3"/>
+      <c r="F322" s="2"/>
     </row>
     <row r="323" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F323" s="3"/>
+      <c r="F323" s="2"/>
     </row>
     <row r="324" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F324" s="3"/>
+      <c r="F324" s="2"/>
     </row>
     <row r="325" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F325" s="3"/>
+      <c r="F325" s="2"/>
     </row>
     <row r="326" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F326" s="3"/>
+      <c r="F326" s="2"/>
     </row>
     <row r="327" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F327" s="3"/>
+      <c r="F327" s="2"/>
     </row>
     <row r="328" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F328" s="3"/>
+      <c r="F328" s="2"/>
     </row>
     <row r="329" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F329" s="3"/>
+      <c r="F329" s="2"/>
     </row>
     <row r="330" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F330" s="3"/>
+      <c r="F330" s="2"/>
     </row>
     <row r="331" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F331" s="3"/>
+      <c r="F331" s="2"/>
     </row>
     <row r="332" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F332" s="3"/>
+      <c r="F332" s="2"/>
     </row>
     <row r="333" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F333" s="3"/>
+      <c r="F333" s="2"/>
     </row>
     <row r="334" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F334" s="3"/>
+      <c r="F334" s="2"/>
     </row>
     <row r="335" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F335" s="3"/>
+      <c r="F335" s="2"/>
     </row>
     <row r="336" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F336" s="3"/>
+      <c r="F336" s="2"/>
     </row>
     <row r="337" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F337" s="3"/>
+      <c r="F337" s="2"/>
     </row>
     <row r="338" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F338" s="3"/>
+      <c r="F338" s="2"/>
     </row>
     <row r="339" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F339" s="3"/>
+      <c r="F339" s="2"/>
     </row>
     <row r="340" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F340" s="3"/>
+      <c r="F340" s="2"/>
     </row>
     <row r="341" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F341" s="3"/>
+      <c r="F341" s="2"/>
     </row>
     <row r="342" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F342" s="3"/>
+      <c r="F342" s="2"/>
     </row>
     <row r="343" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F343" s="3"/>
+      <c r="F343" s="2"/>
     </row>
     <row r="344" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F344" s="3"/>
+      <c r="F344" s="2"/>
     </row>
     <row r="345" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F345" s="3"/>
+      <c r="F345" s="2"/>
     </row>
     <row r="346" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F346" s="3"/>
+      <c r="F346" s="2"/>
     </row>
     <row r="347" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F347" s="3"/>
+      <c r="F347" s="2"/>
     </row>
     <row r="348" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F348" s="3"/>
+      <c r="F348" s="2"/>
     </row>
     <row r="349" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F349" s="3"/>
+      <c r="F349" s="2"/>
     </row>
     <row r="350" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F350" s="3"/>
+      <c r="F350" s="2"/>
     </row>
     <row r="351" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F351" s="3"/>
+      <c r="F351" s="2"/>
     </row>
     <row r="352" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F352" s="3"/>
+      <c r="F352" s="2"/>
     </row>
     <row r="353" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F353" s="3"/>
+      <c r="F353" s="2"/>
     </row>
     <row r="354" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F354" s="3"/>
+      <c r="F354" s="2"/>
     </row>
     <row r="355" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F355" s="3"/>
+      <c r="F355" s="2"/>
     </row>
     <row r="356" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F356" s="3"/>
+      <c r="F356" s="2"/>
     </row>
     <row r="357" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F357" s="3"/>
+      <c r="F357" s="2"/>
     </row>
     <row r="358" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F358" s="3"/>
+      <c r="F358" s="2"/>
     </row>
     <row r="359" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F359" s="3"/>
+      <c r="F359" s="2"/>
     </row>
     <row r="360" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F360" s="3"/>
+      <c r="F360" s="2"/>
     </row>
     <row r="361" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F361" s="3"/>
+      <c r="F361" s="2"/>
     </row>
     <row r="362" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F362" s="3"/>
+      <c r="F362" s="2"/>
     </row>
     <row r="363" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F363" s="3"/>
+      <c r="F363" s="2"/>
     </row>
     <row r="364" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F364" s="3"/>
+      <c r="F364" s="2"/>
     </row>
     <row r="365" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F365" s="3"/>
+      <c r="F365" s="2"/>
     </row>
     <row r="366" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F366" s="3"/>
+      <c r="F366" s="2"/>
     </row>
     <row r="367" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F367" s="3"/>
+      <c r="F367" s="2"/>
     </row>
     <row r="368" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F368" s="3"/>
+      <c r="F368" s="2"/>
     </row>
     <row r="369" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F369" s="3"/>
+      <c r="F369" s="2"/>
     </row>
     <row r="370" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F370" s="3"/>
+      <c r="F370" s="2"/>
     </row>
     <row r="371" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F371" s="3"/>
+      <c r="F371" s="2"/>
     </row>
     <row r="372" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F372" s="3"/>
+      <c r="F372" s="2"/>
     </row>
     <row r="373" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F373" s="3"/>
+      <c r="F373" s="2"/>
     </row>
     <row r="374" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F374" s="3"/>
+      <c r="F374" s="2"/>
     </row>
     <row r="375" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F375" s="3"/>
+      <c r="F375" s="2"/>
     </row>
     <row r="376" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F376" s="3"/>
+      <c r="F376" s="2"/>
     </row>
     <row r="377" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F377" s="3"/>
+      <c r="F377" s="2"/>
     </row>
     <row r="378" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F378" s="3"/>
+      <c r="F378" s="2"/>
     </row>
     <row r="379" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F379" s="3"/>
+      <c r="F379" s="2"/>
     </row>
     <row r="380" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F380" s="3"/>
+      <c r="F380" s="2"/>
     </row>
     <row r="381" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F381" s="3"/>
+      <c r="F381" s="2"/>
     </row>
     <row r="382" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F382" s="3"/>
+      <c r="F382" s="2"/>
     </row>
     <row r="383" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F383" s="3"/>
+      <c r="F383" s="2"/>
     </row>
     <row r="384" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F384" s="3"/>
+      <c r="F384" s="2"/>
     </row>
     <row r="385" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F385" s="3"/>
+      <c r="F385" s="2"/>
     </row>
     <row r="386" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F386" s="3"/>
+      <c r="F386" s="2"/>
     </row>
     <row r="387" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F387" s="3"/>
+      <c r="F387" s="2"/>
     </row>
     <row r="388" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F388" s="3"/>
+      <c r="F388" s="2"/>
     </row>
     <row r="389" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F389" s="3"/>
+      <c r="F389" s="2"/>
     </row>
     <row r="390" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F390" s="3"/>
+      <c r="F390" s="2"/>
     </row>
     <row r="391" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F391" s="3"/>
+      <c r="F391" s="2"/>
     </row>
     <row r="392" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F392" s="3"/>
+      <c r="F392" s="2"/>
     </row>
     <row r="393" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F393" s="3"/>
+      <c r="F393" s="2"/>
     </row>
     <row r="394" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F394" s="3"/>
+      <c r="F394" s="2"/>
     </row>
     <row r="395" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F395" s="3"/>
+      <c r="F395" s="2"/>
     </row>
     <row r="396" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F396" s="3"/>
+      <c r="F396" s="2"/>
     </row>
     <row r="397" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F397" s="3"/>
+      <c r="F397" s="2"/>
     </row>
     <row r="398" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F398" s="3"/>
+      <c r="F398" s="2"/>
     </row>
     <row r="399" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F399" s="3"/>
+      <c r="F399" s="2"/>
     </row>
     <row r="400" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F400" s="3"/>
+      <c r="F400" s="2"/>
     </row>
     <row r="401" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F401" s="3"/>
+      <c r="F401" s="2"/>
     </row>
     <row r="402" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F402" s="3"/>
+      <c r="F402" s="2"/>
     </row>
     <row r="403" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F403" s="3"/>
+      <c r="F403" s="2"/>
     </row>
     <row r="404" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F404" s="3"/>
+      <c r="F404" s="2"/>
     </row>
     <row r="405" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F405" s="3"/>
+      <c r="F405" s="2"/>
     </row>
     <row r="406" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F406" s="3"/>
+      <c r="F406" s="2"/>
     </row>
     <row r="407" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F407" s="3"/>
+      <c r="F407" s="2"/>
     </row>
     <row r="408" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F408" s="3"/>
+      <c r="F408" s="2"/>
     </row>
     <row r="409" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F409" s="3"/>
+      <c r="F409" s="2"/>
     </row>
     <row r="410" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F410" s="3"/>
+      <c r="F410" s="2"/>
     </row>
     <row r="411" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F411" s="3"/>
+      <c r="F411" s="2"/>
     </row>
     <row r="412" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F412" s="3"/>
+      <c r="F412" s="2"/>
     </row>
     <row r="413" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F413" s="3"/>
+      <c r="F413" s="2"/>
     </row>
     <row r="414" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F414" s="3"/>
+      <c r="F414" s="2"/>
     </row>
     <row r="415" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F415" s="3"/>
+      <c r="F415" s="2"/>
     </row>
     <row r="416" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F416" s="3"/>
+      <c r="F416" s="2"/>
     </row>
     <row r="417" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F417" s="3"/>
+      <c r="F417" s="2"/>
     </row>
     <row r="418" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F418" s="3"/>
+      <c r="F418" s="2"/>
     </row>
     <row r="419" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F419" s="3"/>
+      <c r="F419" s="2"/>
     </row>
     <row r="420" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F420" s="3"/>
+      <c r="F420" s="2"/>
     </row>
     <row r="421" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F421" s="3"/>
+      <c r="F421" s="2"/>
     </row>
     <row r="422" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F422" s="3"/>
+      <c r="F422" s="2"/>
     </row>
     <row r="423" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F423" s="3"/>
+      <c r="F423" s="2"/>
     </row>
     <row r="424" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F424" s="3"/>
+      <c r="F424" s="2"/>
     </row>
     <row r="425" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F425" s="3"/>
+      <c r="F425" s="2"/>
     </row>
     <row r="426" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F426" s="3"/>
+      <c r="F426" s="2"/>
     </row>
     <row r="427" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F427" s="3"/>
+      <c r="F427" s="2"/>
     </row>
     <row r="428" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F428" s="3"/>
+      <c r="F428" s="2"/>
     </row>
     <row r="429" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F429" s="3"/>
+      <c r="F429" s="2"/>
     </row>
     <row r="430" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F430" s="3"/>
+      <c r="F430" s="2"/>
     </row>
     <row r="431" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F431" s="3"/>
+      <c r="F431" s="2"/>
     </row>
     <row r="432" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F432" s="3"/>
+      <c r="F432" s="2"/>
     </row>
     <row r="433" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F433" s="3"/>
+      <c r="F433" s="2"/>
     </row>
     <row r="434" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F434" s="3"/>
+      <c r="F434" s="2"/>
     </row>
     <row r="435" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F435" s="3"/>
+      <c r="F435" s="2"/>
     </row>
     <row r="436" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F436" s="3"/>
+      <c r="F436" s="2"/>
     </row>
     <row r="437" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F437" s="3"/>
+      <c r="F437" s="2"/>
     </row>
     <row r="438" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F438" s="3"/>
+      <c r="F438" s="2"/>
     </row>
     <row r="439" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F439" s="3"/>
+      <c r="F439" s="2"/>
     </row>
     <row r="440" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F440" s="3"/>
+      <c r="F440" s="2"/>
     </row>
     <row r="441" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F441" s="3"/>
+      <c r="F441" s="2"/>
     </row>
     <row r="442" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F442" s="3"/>
+      <c r="F442" s="2"/>
     </row>
     <row r="443" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F443" s="3"/>
+      <c r="F443" s="2"/>
     </row>
     <row r="444" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F444" s="3"/>
+      <c r="F444" s="2"/>
     </row>
     <row r="445" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F445" s="3"/>
+      <c r="F445" s="2"/>
     </row>
     <row r="446" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F446" s="3"/>
+      <c r="F446" s="2"/>
     </row>
     <row r="447" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F447" s="3"/>
+      <c r="F447" s="2"/>
     </row>
     <row r="448" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F448" s="3"/>
+      <c r="F448" s="2"/>
     </row>
     <row r="449" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F449" s="3"/>
+      <c r="F449" s="2"/>
     </row>
     <row r="450" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F450" s="3"/>
+      <c r="F450" s="2"/>
     </row>
     <row r="451" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F451" s="3"/>
+      <c r="F451" s="2"/>
     </row>
     <row r="452" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F452" s="3"/>
+      <c r="F452" s="2"/>
     </row>
     <row r="453" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F453" s="3"/>
+      <c r="F453" s="2"/>
     </row>
     <row r="454" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F454" s="3"/>
+      <c r="F454" s="2"/>
     </row>
     <row r="455" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F455" s="3"/>
+      <c r="F455" s="2"/>
     </row>
     <row r="456" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F456" s="3"/>
+      <c r="F456" s="2"/>
     </row>
     <row r="457" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F457" s="3"/>
+      <c r="F457" s="2"/>
     </row>
     <row r="458" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F458" s="3"/>
+      <c r="F458" s="2"/>
     </row>
     <row r="459" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F459" s="3"/>
+      <c r="F459" s="2"/>
     </row>
     <row r="460" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F460" s="3"/>
+      <c r="F460" s="2"/>
     </row>
     <row r="461" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F461" s="3"/>
+      <c r="F461" s="2"/>
     </row>
     <row r="462" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F462" s="3"/>
+      <c r="F462" s="2"/>
     </row>
     <row r="463" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F463" s="3"/>
+      <c r="F463" s="2"/>
     </row>
     <row r="464" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F464" s="3"/>
+      <c r="F464" s="2"/>
     </row>
     <row r="465" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F465" s="3"/>
+      <c r="F465" s="2"/>
     </row>
     <row r="466" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F466" s="3"/>
+      <c r="F466" s="2"/>
     </row>
     <row r="467" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F467" s="3"/>
+      <c r="F467" s="2"/>
     </row>
     <row r="468" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F468" s="3"/>
+      <c r="F468" s="2"/>
     </row>
     <row r="469" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F469" s="3"/>
+      <c r="F469" s="2"/>
     </row>
     <row r="470" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F470" s="3"/>
+      <c r="F470" s="2"/>
     </row>
     <row r="471" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F471" s="3"/>
+      <c r="F471" s="2"/>
     </row>
     <row r="472" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F472" s="3"/>
+      <c r="F472" s="2"/>
     </row>
     <row r="473" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F473" s="3"/>
+      <c r="F473" s="2"/>
     </row>
     <row r="474" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F474" s="3"/>
+      <c r="F474" s="2"/>
     </row>
     <row r="475" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F475" s="3"/>
+      <c r="F475" s="2"/>
     </row>
     <row r="476" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F476" s="3"/>
+      <c r="F476" s="2"/>
     </row>
     <row r="477" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F477" s="3"/>
+      <c r="F477" s="2"/>
     </row>
     <row r="478" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F478" s="3"/>
+      <c r="F478" s="2"/>
     </row>
     <row r="479" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F479" s="3"/>
+      <c r="F479" s="2"/>
     </row>
     <row r="480" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F480" s="3"/>
+      <c r="F480" s="2"/>
     </row>
     <row r="481" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F481" s="3"/>
+      <c r="F481" s="2"/>
     </row>
     <row r="482" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F482" s="3"/>
+      <c r="F482" s="2"/>
     </row>
     <row r="483" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F483" s="3"/>
+      <c r="F483" s="2"/>
     </row>
     <row r="484" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F484" s="3"/>
+      <c r="F484" s="2"/>
     </row>
     <row r="485" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F485" s="3"/>
+      <c r="F485" s="2"/>
     </row>
     <row r="486" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F486" s="3"/>
+      <c r="F486" s="2"/>
     </row>
     <row r="487" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F487" s="3"/>
+      <c r="F487" s="2"/>
     </row>
     <row r="488" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F488" s="3"/>
+      <c r="F488" s="2"/>
     </row>
     <row r="489" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F489" s="3"/>
+      <c r="F489" s="2"/>
     </row>
     <row r="490" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F490" s="3"/>
+      <c r="F490" s="2"/>
     </row>
     <row r="491" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F491" s="3"/>
+      <c r="F491" s="2"/>
     </row>
     <row r="492" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F492" s="3"/>
+      <c r="F492" s="2"/>
     </row>
     <row r="493" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F493" s="3"/>
+      <c r="F493" s="2"/>
     </row>
     <row r="494" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F494" s="3"/>
+      <c r="F494" s="2"/>
     </row>
     <row r="495" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F495" s="3"/>
+      <c r="F495" s="2"/>
     </row>
     <row r="496" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F496" s="3"/>
+      <c r="F496" s="2"/>
     </row>
     <row r="497" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F497" s="3"/>
+      <c r="F497" s="2"/>
     </row>
     <row r="498" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F498" s="3"/>
+      <c r="F498" s="2"/>
     </row>
     <row r="499" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F499" s="3"/>
+      <c r="F499" s="2"/>
     </row>
     <row r="500" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F500" s="3"/>
+      <c r="F500" s="2"/>
     </row>
     <row r="501" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F501" s="3"/>
+      <c r="F501" s="2"/>
     </row>
     <row r="502" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F502" s="3"/>
+      <c r="F502" s="2"/>
     </row>
     <row r="503" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F503" s="3"/>
+      <c r="F503" s="2"/>
     </row>
     <row r="504" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F504" s="3"/>
+      <c r="F504" s="2"/>
     </row>
     <row r="505" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F505" s="3"/>
+      <c r="F505" s="2"/>
     </row>
     <row r="506" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F506" s="3"/>
+      <c r="F506" s="2"/>
     </row>
     <row r="507" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F507" s="3"/>
+      <c r="F507" s="2"/>
     </row>
     <row r="508" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F508" s="3"/>
+      <c r="F508" s="2"/>
     </row>
     <row r="509" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F509" s="3"/>
+      <c r="F509" s="2"/>
     </row>
     <row r="510" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F510" s="3"/>
+      <c r="F510" s="2"/>
     </row>
     <row r="511" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F511" s="3"/>
+      <c r="F511" s="2"/>
     </row>
     <row r="512" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F512" s="3"/>
+      <c r="F512" s="2"/>
     </row>
     <row r="513" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F513" s="3"/>
+      <c r="F513" s="2"/>
     </row>
     <row r="514" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F514" s="3"/>
+      <c r="F514" s="2"/>
     </row>
     <row r="515" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F515" s="3"/>
+      <c r="F515" s="2"/>
     </row>
     <row r="516" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F516" s="3"/>
+      <c r="F516" s="2"/>
     </row>
     <row r="517" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F517" s="3"/>
+      <c r="F517" s="2"/>
     </row>
     <row r="518" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F518" s="3"/>
+      <c r="F518" s="2"/>
     </row>
     <row r="519" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F519" s="3"/>
+      <c r="F519" s="2"/>
     </row>
     <row r="520" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F520" s="3"/>
+      <c r="F520" s="2"/>
     </row>
     <row r="521" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F521" s="3"/>
+      <c r="F521" s="2"/>
     </row>
     <row r="522" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F522" s="3"/>
+      <c r="F522" s="2"/>
     </row>
     <row r="523" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F523" s="3"/>
+      <c r="F523" s="2"/>
     </row>
     <row r="524" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F524" s="3"/>
+      <c r="F524" s="2"/>
     </row>
     <row r="525" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F525" s="3"/>
+      <c r="F525" s="2"/>
     </row>
     <row r="526" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F526" s="3"/>
+      <c r="F526" s="2"/>
     </row>
     <row r="527" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F527" s="3"/>
+      <c r="F527" s="2"/>
     </row>
     <row r="528" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F528" s="3"/>
+      <c r="F528" s="2"/>
     </row>
     <row r="529" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F529" s="3"/>
+      <c r="F529" s="2"/>
     </row>
     <row r="530" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F530" s="3"/>
+      <c r="F530" s="2"/>
     </row>
     <row r="531" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F531" s="3"/>
+      <c r="F531" s="2"/>
     </row>
     <row r="532" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F532" s="3"/>
+      <c r="F532" s="2"/>
     </row>
     <row r="533" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F533" s="3"/>
+      <c r="F533" s="2"/>
     </row>
     <row r="534" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F534" s="3"/>
+      <c r="F534" s="2"/>
     </row>
     <row r="535" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F535" s="3"/>
+      <c r="F535" s="2"/>
     </row>
     <row r="536" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F536" s="3"/>
+      <c r="F536" s="2"/>
     </row>
     <row r="537" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F537" s="3"/>
+      <c r="F537" s="2"/>
     </row>
     <row r="538" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F538" s="3"/>
+      <c r="F538" s="2"/>
     </row>
     <row r="539" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F539" s="3"/>
+      <c r="F539" s="2"/>
     </row>
     <row r="540" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F540" s="3"/>
+      <c r="F540" s="2"/>
     </row>
     <row r="541" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F541" s="3"/>
+      <c r="F541" s="2"/>
     </row>
     <row r="542" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F542" s="3"/>
+      <c r="F542" s="2"/>
     </row>
     <row r="543" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F543" s="3"/>
+      <c r="F543" s="2"/>
     </row>
     <row r="544" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F544" s="3"/>
+      <c r="F544" s="2"/>
     </row>
     <row r="545" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F545" s="3"/>
+      <c r="F545" s="2"/>
     </row>
     <row r="546" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F546" s="3"/>
+      <c r="F546" s="2"/>
     </row>
     <row r="547" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F547" s="3"/>
+      <c r="F547" s="2"/>
     </row>
     <row r="548" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F548" s="3"/>
+      <c r="F548" s="2"/>
     </row>
     <row r="549" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F549" s="3"/>
+      <c r="F549" s="2"/>
     </row>
     <row r="550" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F550" s="3"/>
+      <c r="F550" s="2"/>
     </row>
     <row r="551" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F551" s="3"/>
+      <c r="F551" s="2"/>
     </row>
     <row r="552" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F552" s="3"/>
+      <c r="F552" s="2"/>
     </row>
     <row r="553" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F553" s="3"/>
+      <c r="F553" s="2"/>
     </row>
     <row r="554" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F554" s="3"/>
+      <c r="F554" s="2"/>
     </row>
     <row r="555" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F555" s="3"/>
+      <c r="F555" s="2"/>
     </row>
     <row r="556" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F556" s="3"/>
+      <c r="F556" s="2"/>
     </row>
     <row r="557" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F557" s="3"/>
+      <c r="F557" s="2"/>
     </row>
     <row r="558" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F558" s="3"/>
+      <c r="F558" s="2"/>
     </row>
     <row r="559" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F559" s="3"/>
+      <c r="F559" s="2"/>
     </row>
     <row r="560" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F560" s="3"/>
+      <c r="F560" s="2"/>
     </row>
     <row r="561" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F561" s="3"/>
+      <c r="F561" s="2"/>
     </row>
     <row r="562" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F562" s="3"/>
+      <c r="F562" s="2"/>
     </row>
     <row r="563" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F563" s="3"/>
+      <c r="F563" s="2"/>
     </row>
     <row r="564" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F564" s="3"/>
+      <c r="F564" s="2"/>
     </row>
     <row r="565" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F565" s="3"/>
+      <c r="F565" s="2"/>
     </row>
     <row r="566" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F566" s="3"/>
+      <c r="F566" s="2"/>
     </row>
     <row r="567" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F567" s="3"/>
+      <c r="F567" s="2"/>
     </row>
     <row r="568" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F568" s="3"/>
+      <c r="F568" s="2"/>
     </row>
     <row r="569" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F569" s="3"/>
+      <c r="F569" s="2"/>
     </row>
     <row r="570" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F570" s="3"/>
+      <c r="F570" s="2"/>
     </row>
     <row r="571" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F571" s="3"/>
+      <c r="F571" s="2"/>
     </row>
     <row r="572" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F572" s="3"/>
+      <c r="F572" s="2"/>
     </row>
     <row r="573" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F573" s="3"/>
+      <c r="F573" s="2"/>
     </row>
     <row r="574" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F574" s="3"/>
+      <c r="F574" s="2"/>
     </row>
     <row r="575" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F575" s="3"/>
+      <c r="F575" s="2"/>
     </row>
     <row r="576" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F576" s="3"/>
+      <c r="F576" s="2"/>
     </row>
     <row r="577" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F577" s="3"/>
+      <c r="F577" s="2"/>
     </row>
     <row r="578" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F578" s="3"/>
+      <c r="F578" s="2"/>
     </row>
     <row r="579" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F579" s="3"/>
+      <c r="F579" s="2"/>
     </row>
     <row r="580" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F580" s="3"/>
+      <c r="F580" s="2"/>
     </row>
     <row r="581" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F581" s="3"/>
+      <c r="F581" s="2"/>
     </row>
     <row r="582" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F582" s="3"/>
+      <c r="F582" s="2"/>
     </row>
     <row r="583" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F583" s="3"/>
+      <c r="F583" s="2"/>
     </row>
     <row r="584" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F584" s="3"/>
+      <c r="F584" s="2"/>
     </row>
     <row r="585" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F585" s="3"/>
+      <c r="F585" s="2"/>
     </row>
     <row r="586" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F586" s="3"/>
+      <c r="F586" s="2"/>
     </row>
     <row r="587" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F587" s="3"/>
+      <c r="F587" s="2"/>
     </row>
     <row r="588" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F588" s="3"/>
+      <c r="F588" s="2"/>
     </row>
     <row r="589" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F589" s="3"/>
+      <c r="F589" s="2"/>
     </row>
     <row r="590" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F590" s="3"/>
+      <c r="F590" s="2"/>
     </row>
     <row r="591" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F591" s="3"/>
+      <c r="F591" s="2"/>
     </row>
     <row r="592" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F592" s="3"/>
+      <c r="F592" s="2"/>
     </row>
     <row r="593" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F593" s="3"/>
+      <c r="F593" s="2"/>
     </row>
     <row r="594" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F594" s="3"/>
+      <c r="F594" s="2"/>
     </row>
     <row r="595" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F595" s="3"/>
+      <c r="F595" s="2"/>
     </row>
     <row r="596" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F596" s="3"/>
+      <c r="F596" s="2"/>
     </row>
     <row r="597" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F597" s="3"/>
+      <c r="F597" s="2"/>
     </row>
     <row r="598" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F598" s="3"/>
+      <c r="F598" s="2"/>
     </row>
     <row r="599" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F599" s="3"/>
+      <c r="F599" s="2"/>
     </row>
     <row r="600" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F600" s="3"/>
+      <c r="F600" s="2"/>
     </row>
     <row r="601" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F601" s="3"/>
+      <c r="F601" s="2"/>
     </row>
     <row r="602" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F602" s="3"/>
+      <c r="F602" s="2"/>
     </row>
     <row r="603" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F603" s="3"/>
+      <c r="F603" s="2"/>
     </row>
     <row r="604" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F604" s="3"/>
+      <c r="F604" s="2"/>
     </row>
     <row r="605" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F605" s="3"/>
+      <c r="F605" s="2"/>
     </row>
     <row r="606" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F606" s="3"/>
+      <c r="F606" s="2"/>
     </row>
     <row r="607" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F607" s="3"/>
+      <c r="F607" s="2"/>
     </row>
     <row r="608" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F608" s="3"/>
+      <c r="F608" s="2"/>
     </row>
     <row r="609" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F609" s="3"/>
+      <c r="F609" s="2"/>
     </row>
     <row r="610" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F610" s="3"/>
+      <c r="F610" s="2"/>
     </row>
     <row r="611" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F611" s="3"/>
+      <c r="F611" s="2"/>
     </row>
     <row r="612" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F612" s="3"/>
+      <c r="F612" s="2"/>
     </row>
     <row r="613" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F613" s="3"/>
+      <c r="F613" s="2"/>
     </row>
     <row r="614" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F614" s="3"/>
+      <c r="F614" s="2"/>
     </row>
     <row r="615" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F615" s="3"/>
+      <c r="F615" s="2"/>
     </row>
     <row r="616" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F616" s="3"/>
+      <c r="F616" s="2"/>
     </row>
     <row r="617" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F617" s="3"/>
+      <c r="F617" s="2"/>
     </row>
     <row r="618" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F618" s="3"/>
+      <c r="F618" s="2"/>
     </row>
     <row r="619" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F619" s="3"/>
+      <c r="F619" s="2"/>
     </row>
     <row r="620" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F620" s="3"/>
+      <c r="F620" s="2"/>
     </row>
     <row r="621" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F621" s="3"/>
+      <c r="F621" s="2"/>
     </row>
     <row r="622" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F622" s="3"/>
+      <c r="F622" s="2"/>
     </row>
     <row r="623" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F623" s="3"/>
+      <c r="F623" s="2"/>
     </row>
     <row r="624" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F624" s="3"/>
+      <c r="F624" s="2"/>
     </row>
     <row r="625" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F625" s="3"/>
+      <c r="F625" s="2"/>
     </row>
     <row r="626" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F626" s="3"/>
+      <c r="F626" s="2"/>
     </row>
     <row r="627" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F627" s="3"/>
+      <c r="F627" s="2"/>
     </row>
     <row r="628" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F628" s="3"/>
+      <c r="F628" s="2"/>
     </row>
     <row r="629" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F629" s="3"/>
+      <c r="F629" s="2"/>
     </row>
     <row r="630" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F630" s="3"/>
+      <c r="F630" s="2"/>
     </row>
     <row r="631" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F631" s="3"/>
+      <c r="F631" s="2"/>
     </row>
     <row r="632" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F632" s="3"/>
+      <c r="F632" s="2"/>
     </row>
     <row r="633" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F633" s="3"/>
+      <c r="F633" s="2"/>
     </row>
     <row r="634" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F634" s="3"/>
+      <c r="F634" s="2"/>
     </row>
     <row r="635" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F635" s="3"/>
+      <c r="F635" s="2"/>
     </row>
     <row r="636" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F636" s="3"/>
+      <c r="F636" s="2"/>
     </row>
     <row r="637" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F637" s="3"/>
+      <c r="F637" s="2"/>
     </row>
     <row r="638" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F638" s="3"/>
+      <c r="F638" s="2"/>
     </row>
     <row r="639" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F639" s="3"/>
+      <c r="F639" s="2"/>
     </row>
     <row r="640" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F640" s="3"/>
+      <c r="F640" s="2"/>
     </row>
     <row r="641" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F641" s="3"/>
+      <c r="F641" s="2"/>
     </row>
     <row r="642" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F642" s="3"/>
+      <c r="F642" s="2"/>
     </row>
     <row r="643" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F643" s="3"/>
+      <c r="F643" s="2"/>
     </row>
     <row r="644" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F644" s="3"/>
+      <c r="F644" s="2"/>
     </row>
     <row r="645" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F645" s="3"/>
+      <c r="F645" s="2"/>
     </row>
     <row r="646" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F646" s="3"/>
+      <c r="F646" s="2"/>
     </row>
     <row r="647" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F647" s="3"/>
+      <c r="F647" s="2"/>
     </row>
     <row r="648" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F648" s="3"/>
+      <c r="F648" s="2"/>
     </row>
     <row r="649" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F649" s="3"/>
+      <c r="F649" s="2"/>
     </row>
     <row r="650" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F650" s="3"/>
+      <c r="F650" s="2"/>
     </row>
     <row r="651" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F651" s="3"/>
+      <c r="F651" s="2"/>
     </row>
     <row r="652" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F652" s="3"/>
+      <c r="F652" s="2"/>
     </row>
     <row r="653" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F653" s="3"/>
+      <c r="F653" s="2"/>
     </row>
     <row r="654" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F654" s="3"/>
+      <c r="F654" s="2"/>
     </row>
     <row r="655" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F655" s="3"/>
+      <c r="F655" s="2"/>
     </row>
     <row r="656" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F656" s="3"/>
+      <c r="F656" s="2"/>
     </row>
     <row r="657" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F657" s="3"/>
+      <c r="F657" s="2"/>
     </row>
     <row r="658" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F658" s="3"/>
+      <c r="F658" s="2"/>
     </row>
     <row r="659" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F659" s="3"/>
+      <c r="F659" s="2"/>
     </row>
     <row r="660" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F660" s="3"/>
+      <c r="F660" s="2"/>
     </row>
     <row r="661" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F661" s="3"/>
+      <c r="F661" s="2"/>
     </row>
     <row r="662" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F662" s="3"/>
+      <c r="F662" s="2"/>
     </row>
     <row r="663" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F663" s="3"/>
+      <c r="F663" s="2"/>
     </row>
     <row r="664" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F664" s="3"/>
+      <c r="F664" s="2"/>
     </row>
     <row r="665" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F665" s="3"/>
+      <c r="F665" s="2"/>
     </row>
     <row r="666" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F666" s="3"/>
+      <c r="F666" s="2"/>
     </row>
     <row r="667" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F667" s="3"/>
+      <c r="F667" s="2"/>
     </row>
     <row r="668" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F668" s="3"/>
+      <c r="F668" s="2"/>
     </row>
     <row r="669" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F669" s="3"/>
+      <c r="F669" s="2"/>
     </row>
     <row r="670" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F670" s="3"/>
+      <c r="F670" s="2"/>
     </row>
     <row r="671" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F671" s="3"/>
+      <c r="F671" s="2"/>
     </row>
     <row r="672" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F672" s="3"/>
+      <c r="F672" s="2"/>
     </row>
     <row r="673" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F673" s="3"/>
+      <c r="F673" s="2"/>
     </row>
     <row r="674" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F674" s="3"/>
+      <c r="F674" s="2"/>
     </row>
     <row r="675" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F675" s="3"/>
+      <c r="F675" s="2"/>
     </row>
     <row r="676" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F676" s="3"/>
+      <c r="F676" s="2"/>
     </row>
     <row r="677" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F677" s="3"/>
+      <c r="F677" s="2"/>
     </row>
     <row r="678" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F678" s="3"/>
+      <c r="F678" s="2"/>
     </row>
     <row r="679" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F679" s="3"/>
+      <c r="F679" s="2"/>
     </row>
     <row r="680" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F680" s="3"/>
+      <c r="F680" s="2"/>
     </row>
     <row r="681" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F681" s="3"/>
+      <c r="F681" s="2"/>
     </row>
     <row r="682" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F682" s="3"/>
+      <c r="F682" s="2"/>
     </row>
     <row r="683" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F683" s="3"/>
+      <c r="F683" s="2"/>
     </row>
     <row r="684" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F684" s="3"/>
+      <c r="F684" s="2"/>
     </row>
     <row r="685" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F685" s="3"/>
+      <c r="F685" s="2"/>
     </row>
     <row r="686" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F686" s="3"/>
+      <c r="F686" s="2"/>
     </row>
     <row r="687" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F687" s="3"/>
+      <c r="F687" s="2"/>
     </row>
     <row r="688" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F688" s="3"/>
+      <c r="F688" s="2"/>
     </row>
     <row r="689" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F689" s="3"/>
+      <c r="F689" s="2"/>
     </row>
     <row r="690" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F690" s="3"/>
+      <c r="F690" s="2"/>
     </row>
     <row r="691" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F691" s="3"/>
+      <c r="F691" s="2"/>
     </row>
     <row r="692" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F692" s="3"/>
+      <c r="F692" s="2"/>
     </row>
     <row r="693" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F693" s="3"/>
+      <c r="F693" s="2"/>
     </row>
     <row r="694" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F694" s="3"/>
+      <c r="F694" s="2"/>
     </row>
     <row r="695" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F695" s="3"/>
+      <c r="F695" s="2"/>
     </row>
     <row r="696" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F696" s="3"/>
+      <c r="F696" s="2"/>
     </row>
     <row r="697" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F697" s="3"/>
+      <c r="F697" s="2"/>
     </row>
     <row r="698" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F698" s="3"/>
+      <c r="F698" s="2"/>
     </row>
     <row r="699" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F699" s="3"/>
+      <c r="F699" s="2"/>
     </row>
     <row r="700" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F700" s="3"/>
+      <c r="F700" s="2"/>
     </row>
     <row r="701" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F701" s="3"/>
+      <c r="F701" s="2"/>
     </row>
     <row r="702" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F702" s="3"/>
+      <c r="F702" s="2"/>
     </row>
     <row r="703" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F703" s="3"/>
+      <c r="F703" s="2"/>
     </row>
     <row r="704" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F704" s="3"/>
+      <c r="F704" s="2"/>
     </row>
     <row r="705" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F705" s="3"/>
+      <c r="F705" s="2"/>
     </row>
     <row r="706" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F706" s="3"/>
+      <c r="F706" s="2"/>
     </row>
     <row r="707" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F707" s="3"/>
+      <c r="F707" s="2"/>
     </row>
     <row r="708" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F708" s="3"/>
+      <c r="F708" s="2"/>
     </row>
     <row r="709" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F709" s="3"/>
+      <c r="F709" s="2"/>
     </row>
     <row r="710" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F710" s="3"/>
+      <c r="F710" s="2"/>
     </row>
     <row r="711" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F711" s="3"/>
+      <c r="F711" s="2"/>
     </row>
     <row r="712" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F712" s="3"/>
+      <c r="F712" s="2"/>
     </row>
     <row r="713" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F713" s="3"/>
+      <c r="F713" s="2"/>
     </row>
     <row r="714" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F714" s="3"/>
+      <c r="F714" s="2"/>
     </row>
     <row r="715" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F715" s="3"/>
+      <c r="F715" s="2"/>
     </row>
     <row r="716" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F716" s="3"/>
+      <c r="F716" s="2"/>
     </row>
     <row r="717" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F717" s="3"/>
+      <c r="F717" s="2"/>
     </row>
     <row r="718" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F718" s="3"/>
+      <c r="F718" s="2"/>
     </row>
     <row r="719" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F719" s="3"/>
+      <c r="F719" s="2"/>
     </row>
     <row r="720" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F720" s="3"/>
+      <c r="F720" s="2"/>
     </row>
     <row r="721" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F721" s="3"/>
+      <c r="F721" s="2"/>
     </row>
     <row r="722" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F722" s="3"/>
+      <c r="F722" s="2"/>
     </row>
     <row r="723" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F723" s="3"/>
+      <c r="F723" s="2"/>
     </row>
     <row r="724" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F724" s="3"/>
+      <c r="F724" s="2"/>
     </row>
     <row r="725" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F725" s="3"/>
+      <c r="F725" s="2"/>
     </row>
     <row r="726" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F726" s="3"/>
+      <c r="F726" s="2"/>
     </row>
     <row r="727" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F727" s="3"/>
+      <c r="F727" s="2"/>
     </row>
     <row r="728" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F728" s="3"/>
+      <c r="F728" s="2"/>
     </row>
     <row r="729" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F729" s="3"/>
+      <c r="F729" s="2"/>
     </row>
     <row r="730" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F730" s="3"/>
+      <c r="F730" s="2"/>
     </row>
     <row r="731" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F731" s="3"/>
+      <c r="F731" s="2"/>
     </row>
     <row r="732" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F732" s="3"/>
+      <c r="F732" s="2"/>
     </row>
     <row r="733" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F733" s="3"/>
+      <c r="F733" s="2"/>
     </row>
     <row r="734" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F734" s="3"/>
+      <c r="F734" s="2"/>
     </row>
     <row r="735" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F735" s="3"/>
+      <c r="F735" s="2"/>
     </row>
     <row r="736" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F736" s="3"/>
+      <c r="F736" s="2"/>
     </row>
     <row r="737" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F737" s="3"/>
+      <c r="F737" s="2"/>
     </row>
     <row r="738" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F738" s="3"/>
+      <c r="F738" s="2"/>
     </row>
     <row r="739" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F739" s="3"/>
+      <c r="F739" s="2"/>
     </row>
     <row r="740" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F740" s="3"/>
+      <c r="F740" s="2"/>
     </row>
     <row r="741" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F741" s="3"/>
+      <c r="F741" s="2"/>
     </row>
     <row r="742" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F742" s="3"/>
+      <c r="F742" s="2"/>
     </row>
     <row r="743" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F743" s="3"/>
+      <c r="F743" s="2"/>
     </row>
     <row r="744" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F744" s="3"/>
+      <c r="F744" s="2"/>
     </row>
     <row r="745" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F745" s="3"/>
+      <c r="F745" s="2"/>
     </row>
     <row r="746" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F746" s="3"/>
+      <c r="F746" s="2"/>
     </row>
     <row r="747" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F747" s="3"/>
+      <c r="F747" s="2"/>
     </row>
     <row r="748" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F748" s="3"/>
+      <c r="F748" s="2"/>
     </row>
     <row r="749" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F749" s="3"/>
+      <c r="F749" s="2"/>
     </row>
     <row r="750" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F750" s="3"/>
+      <c r="F750" s="2"/>
     </row>
     <row r="751" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F751" s="3"/>
+      <c r="F751" s="2"/>
     </row>
     <row r="752" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F752" s="3"/>
+      <c r="F752" s="2"/>
     </row>
     <row r="753" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F753" s="3"/>
+      <c r="F753" s="2"/>
     </row>
     <row r="754" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F754" s="3"/>
+      <c r="F754" s="2"/>
     </row>
     <row r="755" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F755" s="3"/>
+      <c r="F755" s="2"/>
     </row>
     <row r="756" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F756" s="3"/>
+      <c r="F756" s="2"/>
     </row>
     <row r="757" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F757" s="3"/>
+      <c r="F757" s="2"/>
     </row>
     <row r="758" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F758" s="3"/>
+      <c r="F758" s="2"/>
     </row>
     <row r="759" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F759" s="3"/>
+      <c r="F759" s="2"/>
     </row>
     <row r="760" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F760" s="3"/>
+      <c r="F760" s="2"/>
     </row>
     <row r="761" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F761" s="3"/>
+      <c r="F761" s="2"/>
     </row>
     <row r="762" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F762" s="3"/>
+      <c r="F762" s="2"/>
     </row>
     <row r="763" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F763" s="3"/>
+      <c r="F763" s="2"/>
     </row>
     <row r="764" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F764" s="3"/>
+      <c r="F764" s="2"/>
     </row>
     <row r="765" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F765" s="3"/>
+      <c r="F765" s="2"/>
     </row>
     <row r="766" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F766" s="3"/>
+      <c r="F766" s="2"/>
     </row>
     <row r="767" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F767" s="3"/>
+      <c r="F767" s="2"/>
     </row>
     <row r="768" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F768" s="3"/>
+      <c r="F768" s="2"/>
     </row>
     <row r="769" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F769" s="3"/>
+      <c r="F769" s="2"/>
     </row>
     <row r="770" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F770" s="3"/>
+      <c r="F770" s="2"/>
     </row>
     <row r="771" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F771" s="3"/>
+      <c r="F771" s="2"/>
     </row>
     <row r="772" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F772" s="3"/>
+      <c r="F772" s="2"/>
     </row>
     <row r="773" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F773" s="3"/>
+      <c r="F773" s="2"/>
     </row>
     <row r="774" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F774" s="3"/>
+      <c r="F774" s="2"/>
     </row>
     <row r="775" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F775" s="3"/>
+      <c r="F775" s="2"/>
     </row>
     <row r="776" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F776" s="3"/>
+      <c r="F776" s="2"/>
     </row>
     <row r="777" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F777" s="3"/>
+      <c r="F777" s="2"/>
     </row>
     <row r="778" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F778" s="3"/>
+      <c r="F778" s="2"/>
     </row>
     <row r="779" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F779" s="3"/>
+      <c r="F779" s="2"/>
     </row>
     <row r="780" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F780" s="3"/>
+      <c r="F780" s="2"/>
     </row>
     <row r="781" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F781" s="3"/>
+      <c r="F781" s="2"/>
     </row>
     <row r="782" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F782" s="3"/>
+      <c r="F782" s="2"/>
     </row>
     <row r="783" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F783" s="3"/>
+      <c r="F783" s="2"/>
     </row>
     <row r="784" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F784" s="3"/>
+      <c r="F784" s="2"/>
     </row>
     <row r="785" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F785" s="3"/>
+      <c r="F785" s="2"/>
     </row>
     <row r="786" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F786" s="3"/>
+      <c r="F786" s="2"/>
     </row>
     <row r="787" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F787" s="3"/>
+      <c r="F787" s="2"/>
     </row>
     <row r="788" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F788" s="3"/>
+      <c r="F788" s="2"/>
     </row>
     <row r="789" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F789" s="3"/>
+      <c r="F789" s="2"/>
     </row>
     <row r="790" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F790" s="3"/>
+      <c r="F790" s="2"/>
     </row>
     <row r="791" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F791" s="3"/>
+      <c r="F791" s="2"/>
     </row>
     <row r="792" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F792" s="3"/>
+      <c r="F792" s="2"/>
     </row>
     <row r="793" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F793" s="3"/>
+      <c r="F793" s="2"/>
     </row>
     <row r="794" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F794" s="3"/>
+      <c r="F794" s="2"/>
     </row>
     <row r="795" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F795" s="3"/>
+      <c r="F795" s="2"/>
     </row>
     <row r="796" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F796" s="3"/>
+      <c r="F796" s="2"/>
     </row>
     <row r="797" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F797" s="3"/>
+      <c r="F797" s="2"/>
     </row>
     <row r="798" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F798" s="3"/>
+      <c r="F798" s="2"/>
     </row>
     <row r="799" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F799" s="3"/>
+      <c r="F799" s="2"/>
     </row>
     <row r="800" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F800" s="3"/>
+      <c r="F800" s="2"/>
     </row>
     <row r="801" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F801" s="3"/>
+      <c r="F801" s="2"/>
     </row>
     <row r="802" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F802" s="3"/>
+      <c r="F802" s="2"/>
     </row>
     <row r="803" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F803" s="3"/>
+      <c r="F803" s="2"/>
     </row>
     <row r="804" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F804" s="3"/>
+      <c r="F804" s="2"/>
     </row>
     <row r="805" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F805" s="3"/>
+      <c r="F805" s="2"/>
     </row>
     <row r="806" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F806" s="3"/>
+      <c r="F806" s="2"/>
     </row>
     <row r="807" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F807" s="3"/>
+      <c r="F807" s="2"/>
     </row>
     <row r="808" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F808" s="3"/>
+      <c r="F808" s="2"/>
     </row>
     <row r="809" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F809" s="3"/>
+      <c r="F809" s="2"/>
     </row>
     <row r="810" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F810" s="3"/>
+      <c r="F810" s="2"/>
     </row>
     <row r="811" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F811" s="3"/>
+      <c r="F811" s="2"/>
     </row>
     <row r="812" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F812" s="3"/>
+      <c r="F812" s="2"/>
     </row>
     <row r="813" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F813" s="3"/>
+      <c r="F813" s="2"/>
     </row>
     <row r="814" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F814" s="3"/>
+      <c r="F814" s="2"/>
     </row>
     <row r="815" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F815" s="3"/>
+      <c r="F815" s="2"/>
     </row>
     <row r="816" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F816" s="3"/>
+      <c r="F816" s="2"/>
     </row>
     <row r="817" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F817" s="3"/>
+      <c r="F817" s="2"/>
     </row>
     <row r="818" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F818" s="3"/>
+      <c r="F818" s="2"/>
     </row>
     <row r="819" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F819" s="3"/>
+      <c r="F819" s="2"/>
     </row>
     <row r="820" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F820" s="3"/>
+      <c r="F820" s="2"/>
     </row>
     <row r="821" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F821" s="3"/>
+      <c r="F821" s="2"/>
     </row>
     <row r="822" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F822" s="3"/>
+      <c r="F822" s="2"/>
     </row>
     <row r="823" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F823" s="3"/>
+      <c r="F823" s="2"/>
     </row>
     <row r="824" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F824" s="3"/>
+      <c r="F824" s="2"/>
     </row>
     <row r="825" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F825" s="3"/>
+      <c r="F825" s="2"/>
     </row>
     <row r="826" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F826" s="3"/>
+      <c r="F826" s="2"/>
     </row>
     <row r="827" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F827" s="3"/>
+      <c r="F827" s="2"/>
     </row>
     <row r="828" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F828" s="3"/>
+      <c r="F828" s="2"/>
     </row>
     <row r="829" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F829" s="3"/>
+      <c r="F829" s="2"/>
     </row>
     <row r="830" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F830" s="3"/>
+      <c r="F830" s="2"/>
     </row>
     <row r="831" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F831" s="3"/>
+      <c r="F831" s="2"/>
     </row>
     <row r="832" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F832" s="3"/>
+      <c r="F832" s="2"/>
     </row>
     <row r="833" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F833" s="3"/>
+      <c r="F833" s="2"/>
     </row>
     <row r="834" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F834" s="3"/>
+      <c r="F834" s="2"/>
     </row>
     <row r="835" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F835" s="3"/>
+      <c r="F835" s="2"/>
     </row>
     <row r="836" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F836" s="3"/>
+      <c r="F836" s="2"/>
     </row>
     <row r="837" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F837" s="3"/>
+      <c r="F837" s="2"/>
     </row>
     <row r="838" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F838" s="3"/>
+      <c r="F838" s="2"/>
     </row>
     <row r="839" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F839" s="3"/>
+      <c r="F839" s="2"/>
     </row>
     <row r="840" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F840" s="3"/>
+      <c r="F840" s="2"/>
     </row>
     <row r="841" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F841" s="3"/>
+      <c r="F841" s="2"/>
     </row>
     <row r="842" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F842" s="3"/>
+      <c r="F842" s="2"/>
     </row>
     <row r="843" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F843" s="3"/>
+      <c r="F843" s="2"/>
     </row>
     <row r="844" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F844" s="3"/>
+      <c r="F844" s="2"/>
     </row>
     <row r="845" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F845" s="3"/>
+      <c r="F845" s="2"/>
     </row>
     <row r="846" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F846" s="3"/>
+      <c r="F846" s="2"/>
     </row>
     <row r="847" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F847" s="3"/>
+      <c r="F847" s="2"/>
     </row>
     <row r="848" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F848" s="3"/>
+      <c r="F848" s="2"/>
     </row>
     <row r="849" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F849" s="3"/>
+      <c r="F849" s="2"/>
     </row>
     <row r="850" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F850" s="3"/>
+      <c r="F850" s="2"/>
     </row>
     <row r="851" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F851" s="3"/>
+      <c r="F851" s="2"/>
     </row>
     <row r="852" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F852" s="3"/>
+      <c r="F852" s="2"/>
     </row>
     <row r="853" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F853" s="3"/>
+      <c r="F853" s="2"/>
     </row>
     <row r="854" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F854" s="3"/>
+      <c r="F854" s="2"/>
     </row>
     <row r="855" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F855" s="3"/>
+      <c r="F855" s="2"/>
     </row>
     <row r="856" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F856" s="3"/>
+      <c r="F856" s="2"/>
     </row>
     <row r="857" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F857" s="3"/>
+      <c r="F857" s="2"/>
     </row>
     <row r="858" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F858" s="3"/>
+      <c r="F858" s="2"/>
     </row>
     <row r="859" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F859" s="3"/>
+      <c r="F859" s="2"/>
     </row>
     <row r="860" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F860" s="3"/>
+      <c r="F860" s="2"/>
     </row>
     <row r="861" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F861" s="3"/>
+      <c r="F861" s="2"/>
     </row>
     <row r="862" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F862" s="3"/>
+      <c r="F862" s="2"/>
     </row>
     <row r="863" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F863" s="3"/>
+      <c r="F863" s="2"/>
     </row>
     <row r="864" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F864" s="3"/>
+      <c r="F864" s="2"/>
     </row>
     <row r="865" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F865" s="3"/>
+      <c r="F865" s="2"/>
     </row>
     <row r="866" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F866" s="3"/>
+      <c r="F866" s="2"/>
     </row>
     <row r="867" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F867" s="3"/>
+      <c r="F867" s="2"/>
     </row>
     <row r="868" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F868" s="3"/>
+      <c r="F868" s="2"/>
     </row>
     <row r="869" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F869" s="3"/>
+      <c r="F869" s="2"/>
     </row>
     <row r="870" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F870" s="3"/>
+      <c r="F870" s="2"/>
     </row>
     <row r="871" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F871" s="3"/>
+      <c r="F871" s="2"/>
     </row>
     <row r="872" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F872" s="3"/>
+      <c r="F872" s="2"/>
     </row>
     <row r="873" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F873" s="3"/>
+      <c r="F873" s="2"/>
     </row>
     <row r="874" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F874" s="3"/>
+      <c r="F874" s="2"/>
     </row>
     <row r="875" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F875" s="3"/>
+      <c r="F875" s="2"/>
     </row>
     <row r="876" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F876" s="3"/>
+      <c r="F876" s="2"/>
     </row>
     <row r="877" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F877" s="3"/>
+      <c r="F877" s="2"/>
     </row>
     <row r="878" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F878" s="3"/>
+      <c r="F878" s="2"/>
     </row>
     <row r="879" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F879" s="3"/>
+      <c r="F879" s="2"/>
     </row>
     <row r="880" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F880" s="3"/>
+      <c r="F880" s="2"/>
     </row>
     <row r="881" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F881" s="3"/>
+      <c r="F881" s="2"/>
     </row>
     <row r="882" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F882" s="3"/>
+      <c r="F882" s="2"/>
     </row>
     <row r="883" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F883" s="3"/>
+      <c r="F883" s="2"/>
     </row>
     <row r="884" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F884" s="3"/>
+      <c r="F884" s="2"/>
     </row>
     <row r="885" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F885" s="3"/>
+      <c r="F885" s="2"/>
     </row>
     <row r="886" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F886" s="3"/>
+      <c r="F886" s="2"/>
     </row>
     <row r="887" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F887" s="3"/>
+      <c r="F887" s="2"/>
     </row>
     <row r="888" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F888" s="3"/>
+      <c r="F888" s="2"/>
     </row>
     <row r="889" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F889" s="3"/>
+      <c r="F889" s="2"/>
     </row>
     <row r="890" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F890" s="3"/>
+      <c r="F890" s="2"/>
     </row>
     <row r="891" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F891" s="3"/>
+      <c r="F891" s="2"/>
     </row>
     <row r="892" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F892" s="3"/>
+      <c r="F892" s="2"/>
     </row>
     <row r="893" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F893" s="3"/>
+      <c r="F893" s="2"/>
     </row>
     <row r="894" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F894" s="3"/>
+      <c r="F894" s="2"/>
     </row>
     <row r="895" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F895" s="3"/>
+      <c r="F895" s="2"/>
     </row>
     <row r="896" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F896" s="3"/>
+      <c r="F896" s="2"/>
     </row>
     <row r="897" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F897" s="3"/>
+      <c r="F897" s="2"/>
     </row>
     <row r="898" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F898" s="3"/>
+      <c r="F898" s="2"/>
     </row>
     <row r="899" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F899" s="3"/>
+      <c r="F899" s="2"/>
     </row>
     <row r="900" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F900" s="3"/>
+      <c r="F900" s="2"/>
     </row>
     <row r="901" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F901" s="3"/>
+      <c r="F901" s="2"/>
     </row>
     <row r="902" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F902" s="3"/>
+      <c r="F902" s="2"/>
     </row>
     <row r="903" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F903" s="3"/>
+      <c r="F903" s="2"/>
     </row>
     <row r="904" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F904" s="3"/>
+      <c r="F904" s="2"/>
     </row>
     <row r="905" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F905" s="3"/>
+      <c r="F905" s="2"/>
     </row>
     <row r="906" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F906" s="3"/>
+      <c r="F906" s="2"/>
     </row>
     <row r="907" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F907" s="3"/>
+      <c r="F907" s="2"/>
     </row>
     <row r="908" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F908" s="3"/>
+      <c r="F908" s="2"/>
     </row>
     <row r="909" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F909" s="3"/>
+      <c r="F909" s="2"/>
     </row>
     <row r="910" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F910" s="3"/>
+      <c r="F910" s="2"/>
     </row>
     <row r="911" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F911" s="3"/>
+      <c r="F911" s="2"/>
     </row>
     <row r="912" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F912" s="3"/>
+      <c r="F912" s="2"/>
     </row>
     <row r="913" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F913" s="3"/>
+      <c r="F913" s="2"/>
     </row>
     <row r="914" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F914" s="3"/>
+      <c r="F914" s="2"/>
     </row>
     <row r="915" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F915" s="3"/>
+      <c r="F915" s="2"/>
     </row>
     <row r="916" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F916" s="3"/>
+      <c r="F916" s="2"/>
     </row>
     <row r="917" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F917" s="3"/>
+      <c r="F917" s="2"/>
     </row>
     <row r="918" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F918" s="3"/>
+      <c r="F918" s="2"/>
     </row>
     <row r="919" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F919" s="3"/>
+      <c r="F919" s="2"/>
     </row>
     <row r="920" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F920" s="3"/>
+      <c r="F920" s="2"/>
     </row>
     <row r="921" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F921" s="3"/>
+      <c r="F921" s="2"/>
     </row>
     <row r="922" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F922" s="3"/>
+      <c r="F922" s="2"/>
     </row>
     <row r="923" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F923" s="3"/>
+      <c r="F923" s="2"/>
     </row>
     <row r="924" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F924" s="3"/>
+      <c r="F924" s="2"/>
     </row>
     <row r="925" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F925" s="3"/>
+      <c r="F925" s="2"/>
     </row>
     <row r="926" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F926" s="3"/>
+      <c r="F926" s="2"/>
     </row>
     <row r="927" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F927" s="3"/>
+      <c r="F927" s="2"/>
     </row>
     <row r="928" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F928" s="3"/>
+      <c r="F928" s="2"/>
     </row>
     <row r="929" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F929" s="3"/>
+      <c r="F929" s="2"/>
     </row>
     <row r="930" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F930" s="3"/>
+      <c r="F930" s="2"/>
     </row>
     <row r="931" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F931" s="3"/>
+      <c r="F931" s="2"/>
     </row>
     <row r="932" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F932" s="3"/>
+      <c r="F932" s="2"/>
     </row>
     <row r="933" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F933" s="3"/>
+      <c r="F933" s="2"/>
     </row>
     <row r="934" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F934" s="3"/>
+      <c r="F934" s="2"/>
     </row>
     <row r="935" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F935" s="3"/>
+      <c r="F935" s="2"/>
     </row>
     <row r="936" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F936" s="3"/>
+      <c r="F936" s="2"/>
     </row>
     <row r="937" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F937" s="3"/>
+      <c r="F937" s="2"/>
     </row>
     <row r="938" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F938" s="3"/>
+      <c r="F938" s="2"/>
     </row>
     <row r="939" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F939" s="3"/>
+      <c r="F939" s="2"/>
     </row>
     <row r="940" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F940" s="3"/>
+      <c r="F940" s="2"/>
     </row>
     <row r="941" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F941" s="3"/>
+      <c r="F941" s="2"/>
     </row>
     <row r="942" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F942" s="3"/>
+      <c r="F942" s="2"/>
     </row>
     <row r="943" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F943" s="3"/>
+      <c r="F943" s="2"/>
     </row>
     <row r="944" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F944" s="3"/>
+      <c r="F944" s="2"/>
     </row>
     <row r="945" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F945" s="3"/>
+      <c r="F945" s="2"/>
     </row>
     <row r="946" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F946" s="3"/>
+      <c r="F946" s="2"/>
     </row>
     <row r="947" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F947" s="3"/>
+      <c r="F947" s="2"/>
     </row>
     <row r="948" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F948" s="3"/>
+      <c r="F948" s="2"/>
     </row>
     <row r="949" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F949" s="3"/>
+      <c r="F949" s="2"/>
     </row>
     <row r="950" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F950" s="3"/>
+      <c r="F950" s="2"/>
     </row>
     <row r="951" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F951" s="3"/>
+      <c r="F951" s="2"/>
     </row>
     <row r="952" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F952" s="3"/>
+      <c r="F952" s="2"/>
     </row>
     <row r="953" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F953" s="3"/>
+      <c r="F953" s="2"/>
     </row>
     <row r="954" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F954" s="3"/>
+      <c r="F954" s="2"/>
     </row>
     <row r="955" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F955" s="3"/>
+      <c r="F955" s="2"/>
     </row>
     <row r="956" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F956" s="3"/>
+      <c r="F956" s="2"/>
     </row>
     <row r="957" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F957" s="3"/>
+      <c r="F957" s="2"/>
     </row>
     <row r="958" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F958" s="3"/>
+      <c r="F958" s="2"/>
     </row>
     <row r="959" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F959" s="3"/>
+      <c r="F959" s="2"/>
     </row>
     <row r="960" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F960" s="3"/>
+      <c r="F960" s="2"/>
     </row>
     <row r="961" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F961" s="3"/>
+      <c r="F961" s="2"/>
     </row>
     <row r="962" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F962" s="3"/>
+      <c r="F962" s="2"/>
     </row>
     <row r="963" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F963" s="3"/>
+      <c r="F963" s="2"/>
     </row>
     <row r="964" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F964" s="3"/>
+      <c r="F964" s="2"/>
     </row>
     <row r="965" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F965" s="3"/>
+      <c r="F965" s="2"/>
     </row>
     <row r="966" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F966" s="3"/>
+      <c r="F966" s="2"/>
     </row>
     <row r="967" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F967" s="3"/>
+      <c r="F967" s="2"/>
     </row>
     <row r="968" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F968" s="3"/>
+      <c r="F968" s="2"/>
     </row>
     <row r="969" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F969" s="3"/>
+      <c r="F969" s="2"/>
     </row>
     <row r="970" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F970" s="3"/>
+      <c r="F970" s="2"/>
     </row>
     <row r="971" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F971" s="3"/>
+      <c r="F971" s="2"/>
     </row>
     <row r="972" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F972" s="3"/>
+      <c r="F972" s="2"/>
     </row>
     <row r="973" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F973" s="3"/>
+      <c r="F973" s="2"/>
     </row>
     <row r="974" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F974" s="3"/>
+      <c r="F974" s="2"/>
     </row>
     <row r="975" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F975" s="3"/>
+      <c r="F975" s="2"/>
     </row>
     <row r="976" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F976" s="3"/>
+      <c r="F976" s="2"/>
     </row>
     <row r="977" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F977" s="3"/>
+      <c r="F977" s="2"/>
     </row>
     <row r="978" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F978" s="3"/>
+      <c r="F978" s="2"/>
     </row>
     <row r="979" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F979" s="3"/>
+      <c r="F979" s="2"/>
     </row>
     <row r="980" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F980" s="3"/>
+      <c r="F980" s="2"/>
     </row>
     <row r="981" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F981" s="3"/>
+      <c r="F981" s="2"/>
     </row>
     <row r="982" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F982" s="3"/>
+      <c r="F982" s="2"/>
     </row>
     <row r="983" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F983" s="3"/>
+      <c r="F983" s="2"/>
     </row>
     <row r="984" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F984" s="3"/>
+      <c r="F984" s="2"/>
     </row>
     <row r="985" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F985" s="3"/>
+      <c r="F985" s="2"/>
     </row>
     <row r="986" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F986" s="3"/>
+      <c r="F986" s="2"/>
     </row>
     <row r="987" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F987" s="3"/>
+      <c r="F987" s="2"/>
     </row>
     <row r="988" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F988" s="3"/>
+      <c r="F988" s="2"/>
     </row>
     <row r="989" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F989" s="3"/>
+      <c r="F989" s="2"/>
     </row>
     <row r="990" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F990" s="3"/>
+      <c r="F990" s="2"/>
     </row>
     <row r="991" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F991" s="3"/>
+      <c r="F991" s="2"/>
     </row>
     <row r="992" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F992" s="3"/>
+      <c r="F992" s="2"/>
     </row>
     <row r="993" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F993" s="3"/>
+      <c r="F993" s="2"/>
     </row>
     <row r="994" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F994" s="3"/>
+      <c r="F994" s="2"/>
     </row>
     <row r="995" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F995" s="3"/>
+      <c r="F995" s="2"/>
     </row>
     <row r="996" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F996" s="3"/>
+      <c r="F996" s="2"/>
     </row>
     <row r="997" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F997" s="3"/>
+      <c r="F997" s="2"/>
     </row>
     <row r="998" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F998" s="3"/>
+      <c r="F998" s="2"/>
     </row>
     <row r="999" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F999" s="3"/>
+      <c r="F999" s="2"/>
     </row>
     <row r="1000" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F1000" s="3"/>
+      <c r="F1000" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/2023.xlsx
+++ b/2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81800513-81F0-4212-8191-07847EB5650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAA412B-1907-49D7-BD92-18536C22C62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,9 @@
       <c r="F1" s="12">
         <v>2.43736</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="12">
+        <v>2.4429699999999999</v>
+      </c>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -447,7 +449,9 @@
       <c r="F2" s="12">
         <v>2.4375399999999998</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="12">
+        <v>2.4431600000000002</v>
+      </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -473,7 +477,9 @@
       <c r="F3" s="12">
         <v>2.4377200000000001</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="12">
+        <v>2.4433500000000001</v>
+      </c>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -499,7 +505,9 @@
       <c r="F4" s="12">
         <v>2.4379</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="12">
+        <v>2.44354</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -525,7 +533,9 @@
       <c r="F5" s="12">
         <v>2.4380799999999998</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="12">
+        <v>2.44373</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -551,7 +561,9 @@
       <c r="F6" s="12">
         <v>2.4382600000000001</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="12">
+        <v>2.4439199999999999</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -577,7 +589,9 @@
       <c r="F7" s="12">
         <v>2.4384399999999999</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="12">
+        <v>2.4441099999999998</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -603,7 +617,9 @@
       <c r="F8" s="12">
         <v>2.4386199999999998</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="12">
+        <v>2.4443000000000001</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -629,7 +645,9 @@
       <c r="F9" s="12">
         <v>2.4388000000000001</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="12">
+        <v>2.4444900000000001</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -655,7 +673,9 @@
       <c r="F10" s="12">
         <v>2.4389799999999999</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="12">
+        <v>2.44468</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -678,7 +698,9 @@
       <c r="E11" s="12">
         <v>2.4337800000000001</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="12">
+        <v>2.4391699999999998</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="6"/>
@@ -703,7 +725,9 @@
       <c r="E12" s="12">
         <v>2.4339499999999998</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="12">
+        <v>2.4393600000000002</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="6"/>
@@ -727,7 +751,9 @@
       <c r="E13" s="12">
         <v>2.4341200000000001</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="12">
+        <v>2.4395500000000001</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="6"/>
@@ -751,7 +777,9 @@
       <c r="E14" s="12">
         <v>2.4342899999999998</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="12">
+        <v>2.43974</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="6"/>
@@ -775,7 +803,9 @@
       <c r="E15" s="12">
         <v>2.4344600000000001</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="12">
+        <v>2.4399299999999999</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="6"/>
@@ -799,7 +829,9 @@
       <c r="E16" s="12">
         <v>2.4346299999999998</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="12">
+        <v>2.4401199999999998</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="6"/>
@@ -823,7 +855,9 @@
       <c r="E17" s="12">
         <v>2.4348000000000001</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="12">
+        <v>2.4403100000000002</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="6"/>
@@ -847,7 +881,9 @@
       <c r="E18" s="12">
         <v>2.4349699999999999</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="12">
+        <v>2.4405000000000001</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="6"/>
@@ -871,7 +907,9 @@
       <c r="E19" s="12">
         <v>2.4351400000000001</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="12">
+        <v>2.44069</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="6"/>
@@ -895,7 +933,9 @@
       <c r="E20" s="12">
         <v>2.4353099999999999</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="12">
+        <v>2.4408799999999999</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="6"/>
@@ -919,7 +959,9 @@
       <c r="E21" s="12">
         <v>2.4354800000000001</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="12">
+        <v>2.4410699999999999</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="6"/>
@@ -943,7 +985,9 @@
       <c r="E22" s="12">
         <v>2.4356499999999999</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="12">
+        <v>2.4412600000000002</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="6"/>
@@ -967,7 +1011,9 @@
       <c r="E23" s="12">
         <v>2.4358200000000001</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="12">
+        <v>2.4414500000000001</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="6"/>
@@ -991,7 +1037,9 @@
       <c r="E24" s="12">
         <v>2.4359899999999999</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="12">
+        <v>2.44164</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="6"/>
@@ -1015,7 +1063,9 @@
       <c r="E25" s="12">
         <v>2.4361600000000001</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="12">
+        <v>2.4418299999999999</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="6"/>
@@ -1039,7 +1089,9 @@
       <c r="E26" s="12">
         <v>2.4363299999999999</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="12">
+        <v>2.4420199999999999</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="6"/>
@@ -1063,7 +1115,9 @@
       <c r="E27" s="12">
         <v>2.4365000000000001</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="12">
+        <v>2.4422100000000002</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="6"/>
@@ -1087,7 +1141,9 @@
       <c r="E28" s="12">
         <v>2.4366699999999999</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="12">
+        <v>2.4424000000000001</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="6"/>
@@ -1109,7 +1165,9 @@
       <c r="E29" s="12">
         <v>2.4368400000000001</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="12">
+        <v>2.44259</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="6"/>
@@ -1131,7 +1189,9 @@
       <c r="E30" s="12">
         <v>2.4370099999999999</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="12">
+        <v>2.44278</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="6"/>

--- a/2023.xlsx
+++ b/2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAA412B-1907-49D7-BD92-18536C22C62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE8E16A-D685-4C91-B134-3C863BEA4D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -59,17 +59,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,12 +75,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="8"/>
       </patternFill>
     </fill>
   </fills>
@@ -139,9 +128,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,9 +140,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -393,831 +379,893 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" style="11"/>
+    <col min="2" max="2" width="12.6640625" style="10"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7">
+      <c r="A1" s="6">
         <v>2.4091800000000001</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="11">
         <v>2.4154</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="11">
         <v>2.4215399999999998</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>2.4270800000000001</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="11">
         <v>2.4321700000000002</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="11">
         <v>2.43736</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="11">
         <v>2.4429699999999999</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="H1" s="11">
+        <v>2.4486400000000001</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>2.4093800000000001</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>2.4156200000000001</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>2.4217399999999998</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>2.4272499999999999</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>2.4323299999999999</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>2.4375399999999998</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>2.4431600000000002</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="H2" s="11">
+        <v>2.44882</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2.4095800000000001</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>2.4158400000000002</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>2.4219400000000002</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>2.4274200000000001</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>2.43249</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>2.4377200000000001</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>2.4433500000000001</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="H3" s="11">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2.40978</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>2.4160599999999999</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>2.4221400000000002</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>2.4275899999999999</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>2.4326500000000002</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>2.4379</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>2.44354</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="H4" s="11">
+        <v>2.4491800000000001</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>2.40998</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>2.41628</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>2.4223400000000002</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>2.4277600000000001</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>2.4328099999999999</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>2.4380799999999998</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>2.44373</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="H5" s="11">
+        <v>2.44936</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>2.41018</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>2.4165000000000001</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>2.4225400000000001</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>2.4279299999999999</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>2.4329700000000001</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>2.4382600000000001</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>2.4439199999999999</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="H6" s="11">
+        <v>2.4495399999999998</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>2.41038</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>2.4167200000000002</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>2.4227400000000001</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>2.4281000000000001</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>2.4331299999999998</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>2.4384399999999999</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>2.4441099999999998</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="H7" s="11">
+        <v>2.4497200000000001</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>2.4105799999999999</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>2.4169399999999999</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>2.4229400000000001</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>2.4282699999999999</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>2.43329</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>2.4386199999999998</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>2.4443000000000001</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="H8" s="11">
+        <v>2.4499</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>2.4107799999999999</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>2.41716</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>2.4231400000000001</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>2.4284400000000002</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>2.4334500000000001</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>2.4388000000000001</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>2.4444900000000001</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="H9" s="11">
+        <v>2.4500799999999998</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>2.4109799999999999</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>2.4173800000000001</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>2.42334</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>2.4286099999999999</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>2.4336099999999998</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>2.4389799999999999</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>2.44468</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="H10" s="11">
+        <v>2.4502600000000001</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>2.4111799999999999</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>2.4176000000000002</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>2.4235099999999998</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>2.4287800000000002</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>2.4337800000000001</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>2.4391699999999998</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="11">
+        <v>2.4448599999999998</v>
+      </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>2.4113799999999999</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>2.4178199999999999</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>2.4236800000000001</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>2.4289499999999999</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>2.4339499999999998</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>2.4393600000000002</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="11">
+        <v>2.4450400000000001</v>
+      </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>2.4115799999999998</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>2.41804</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>2.4238499999999998</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>2.4291200000000002</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>2.4341200000000001</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>2.4395500000000001</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="11">
+        <v>2.4452199999999999</v>
+      </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>2.4117799999999998</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>2.4182600000000001</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>2.4240200000000001</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>2.4292899999999999</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>2.4342899999999998</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>2.43974</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="11">
+        <v>2.4453999999999998</v>
+      </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>2.4119799999999998</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>2.4184800000000002</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>2.4241899999999998</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>2.4294600000000002</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>2.4344600000000001</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>2.4399299999999999</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="11">
+        <v>2.4455800000000001</v>
+      </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>2.4121800000000002</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>2.4186999999999999</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>2.4243600000000001</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>2.42963</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>2.4346299999999998</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>2.4401199999999998</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="11">
+        <v>2.4457599999999999</v>
+      </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>2.4123800000000002</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>2.41892</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>2.4245299999999999</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>2.4298000000000002</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>2.4348000000000001</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>2.4403100000000002</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="11">
+        <v>2.4459399999999998</v>
+      </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>2.4125800000000002</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>2.4191400000000001</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>2.4247000000000001</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>2.42997</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>2.4349699999999999</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>2.4405000000000001</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="11">
+        <v>2.4461200000000001</v>
+      </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>2.4127800000000001</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>2.4193600000000002</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>2.4248699999999999</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>2.4301400000000002</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>2.4351400000000001</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>2.44069</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="11">
+        <v>2.4462999999999999</v>
+      </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>2.4129800000000001</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>2.4195799999999998</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>2.4250400000000001</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>2.43031</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>2.4353099999999999</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>2.4408799999999999</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="11">
+        <v>2.4464800000000002</v>
+      </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>2.4131800000000001</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>2.4198</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>2.4252099999999999</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>2.4304800000000002</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>2.4354800000000001</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>2.4410699999999999</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="11">
+        <v>2.4466600000000001</v>
+      </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>2.4133800000000001</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>2.4200200000000001</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>2.4253800000000001</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>2.43065</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>2.4356499999999999</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>2.4412600000000002</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="11">
+        <v>2.4468399999999999</v>
+      </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>2.4135800000000001</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>2.4202400000000002</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>2.4255499999999999</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>2.4308200000000002</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>2.4358200000000001</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>2.4414500000000001</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="11">
+        <v>2.4470200000000002</v>
+      </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>2.41378</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>2.4204599999999998</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>2.4257200000000001</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>2.43099</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>2.4359899999999999</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>2.44164</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="11">
+        <v>2.4472</v>
+      </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>2.41398</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>2.4206799999999999</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>2.4258899999999999</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>2.4311600000000002</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>2.4361600000000001</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>2.4418299999999999</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="11">
+        <v>2.4473799999999999</v>
+      </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>2.41418</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>2.4209000000000001</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>2.4260600000000001</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>2.43133</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>2.4363299999999999</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <v>2.4420199999999999</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="11">
+        <v>2.4475600000000002</v>
+      </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>2.41438</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>2.4211200000000002</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>2.4262299999999999</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>2.4315000000000002</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="11">
         <v>2.4365000000000001</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>2.4422100000000002</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="11">
+        <v>2.44774</v>
+      </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>2.4145799999999999</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>2.4213399999999998</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>2.4264000000000001</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <v>2.43167</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <v>2.4366699999999999</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <v>2.4424000000000001</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="11">
+        <v>2.4479199999999999</v>
+      </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>2.4147799999999999</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11">
         <v>2.4265699999999999</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>2.4318399999999998</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <v>2.4368400000000001</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <v>2.44259</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="11">
+        <v>2.4481000000000002</v>
+      </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>2.4149799999999999</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12">
+      <c r="B30" s="9"/>
+      <c r="C30" s="11">
         <v>2.4267400000000001</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <v>2.43201</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="11">
         <v>2.4370099999999999</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <v>2.44278</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="11">
+        <v>2.44828</v>
+      </c>
       <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>2.4151799999999999</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="12">
+      <c r="B31" s="9"/>
+      <c r="C31" s="11">
         <v>2.4269099999999999</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>2.4371800000000001</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="11">
+        <v>2.4484599999999999</v>
+      </c>
       <c r="H31" s="3"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="8"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F32" s="2"/>

--- a/2023.xlsx
+++ b/2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE8E16A-D685-4C91-B134-3C863BEA4D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9670F8F2-0178-464B-8FB2-E311E94298AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,15 +130,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -379,893 +376,955 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" style="10"/>
+    <col min="2" max="2" width="12.6640625" style="9"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6">
+      <c r="A1" s="5">
         <v>2.4091800000000001</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="10">
         <v>2.4154</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <v>2.4215399999999998</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="10">
         <v>2.4270800000000001</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="10">
         <v>2.4321700000000002</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="10">
         <v>2.43736</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="10">
         <v>2.4429699999999999</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="10">
         <v>2.4486400000000001</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="I1" s="10">
+        <v>2.4542199999999998</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>2.4093800000000001</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>2.4156200000000001</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>2.4217399999999998</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>2.4272499999999999</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>2.4323299999999999</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>2.4375399999999998</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>2.4431600000000002</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>2.44882</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="I2" s="10">
+        <v>2.4544000000000001</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2.4095800000000001</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>2.4158400000000002</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>2.4219400000000002</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>2.4274200000000001</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>2.43249</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>2.4377200000000001</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>2.4433500000000001</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>2.4489999999999998</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="I3" s="10">
+        <v>2.45458</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2.40978</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>2.4160599999999999</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>2.4221400000000002</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>2.4275899999999999</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>2.4326500000000002</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>2.4379</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>2.44354</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>2.4491800000000001</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="I4" s="10">
+        <v>2.4547599999999998</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2.40998</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>2.41628</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>2.4223400000000002</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>2.4277600000000001</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>2.4328099999999999</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>2.4380799999999998</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>2.44373</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>2.44936</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="I5" s="10">
+        <v>2.4549400000000001</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>2.41018</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>2.4165000000000001</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>2.4225400000000001</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>2.4279299999999999</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>2.4329700000000001</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>2.4382600000000001</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>2.4439199999999999</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>2.4495399999999998</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="I6" s="10">
+        <v>2.45512</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2.41038</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>2.4167200000000002</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>2.4227400000000001</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>2.4281000000000001</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>2.4331299999999998</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>2.4384399999999999</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>2.4441099999999998</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>2.4497200000000001</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="I7" s="10">
+        <v>2.4552999999999998</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>2.4105799999999999</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>2.4169399999999999</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>2.4229400000000001</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>2.4282699999999999</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>2.43329</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>2.4386199999999998</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>2.4443000000000001</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>2.4499</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="I8" s="10">
+        <v>2.4554800000000001</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>2.4107799999999999</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>2.41716</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>2.4231400000000001</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>2.4284400000000002</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>2.4334500000000001</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>2.4388000000000001</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>2.4444900000000001</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>2.4500799999999998</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="I9" s="10">
+        <v>2.45566</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>2.4109799999999999</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>2.4173800000000001</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>2.42334</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>2.4286099999999999</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>2.4336099999999998</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>2.4389799999999999</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>2.44468</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>2.4502600000000001</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="I10" s="10">
+        <v>2.4558399999999998</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>2.4111799999999999</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>2.4176000000000002</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>2.4235099999999998</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>2.4287800000000002</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>2.4337800000000001</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>2.4391699999999998</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>2.4448599999999998</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="H11" s="10">
+        <v>2.45044</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>2.4113799999999999</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>2.4178199999999999</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>2.4236800000000001</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>2.4289499999999999</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>2.4339499999999998</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>2.4393600000000002</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>2.4450400000000001</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="H12" s="10">
+        <v>2.4506199999999998</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>2.4115799999999998</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>2.41804</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>2.4238499999999998</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>2.4291200000000002</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>2.4341200000000001</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>2.4395500000000001</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>2.4452199999999999</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="H13" s="10">
+        <v>2.4508000000000001</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>2.4117799999999998</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>2.4182600000000001</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>2.4240200000000001</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>2.4292899999999999</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>2.4342899999999998</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>2.43974</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>2.4453999999999998</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="H14" s="10">
+        <v>2.4509799999999999</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>2.4119799999999998</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>2.4184800000000002</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>2.4241899999999998</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>2.4294600000000002</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>2.4344600000000001</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>2.4399299999999999</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>2.4455800000000001</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="H15" s="10">
+        <v>2.4511599999999998</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>2.4121800000000002</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>2.4186999999999999</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>2.4243600000000001</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>2.42963</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>2.4346299999999998</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>2.4401199999999998</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>2.4457599999999999</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="H16" s="10">
+        <v>2.4513400000000001</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>2.4123800000000002</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>2.41892</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>2.4245299999999999</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>2.4298000000000002</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>2.4348000000000001</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>2.4403100000000002</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>2.4459399999999998</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="H17" s="10">
+        <v>2.4515199999999999</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>2.4125800000000002</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>2.4191400000000001</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>2.4247000000000001</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>2.42997</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>2.4349699999999999</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>2.4405000000000001</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>2.4461200000000001</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="H18" s="10">
+        <v>2.4517000000000002</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>2.4127800000000001</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>2.4193600000000002</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>2.4248699999999999</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>2.4301400000000002</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>2.4351400000000001</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>2.44069</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>2.4462999999999999</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="H19" s="10">
+        <v>2.4518800000000001</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>2.4129800000000001</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>2.4195799999999998</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>2.4250400000000001</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>2.43031</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>2.4353099999999999</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>2.4408799999999999</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>2.4464800000000002</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="H20" s="10">
+        <v>2.4520599999999999</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>2.4131800000000001</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>2.4198</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>2.4252099999999999</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>2.4304800000000002</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>2.4354800000000001</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>2.4410699999999999</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <v>2.4466600000000001</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="H21" s="10">
+        <v>2.4522400000000002</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>2.4133800000000001</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>2.4200200000000001</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>2.4253800000000001</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>2.43065</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>2.4356499999999999</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>2.4412600000000002</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>2.4468399999999999</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="H22" s="10">
+        <v>2.45242</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>2.4135800000000001</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>2.4202400000000002</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>2.4255499999999999</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>2.4308200000000002</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>2.4358200000000001</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>2.4414500000000001</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <v>2.4470200000000002</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="H23" s="10">
+        <v>2.4525999999999999</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>2.41378</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>2.4204599999999998</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>2.4257200000000001</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>2.43099</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>2.4359899999999999</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>2.44164</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <v>2.4472</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="H24" s="10">
+        <v>2.4527800000000002</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>2.41398</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>2.4206799999999999</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>2.4258899999999999</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>2.4311600000000002</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>2.4361600000000001</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>2.4418299999999999</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>2.4473799999999999</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="H25" s="10">
+        <v>2.45296</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>2.41418</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>2.4209000000000001</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>2.4260600000000001</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>2.43133</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>2.4363299999999999</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>2.4420199999999999</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <v>2.4475600000000002</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="H26" s="10">
+        <v>2.4531399999999999</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>2.41438</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>2.4211200000000002</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>2.4262299999999999</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>2.4315000000000002</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>2.4365000000000001</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>2.4422100000000002</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <v>2.44774</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="H27" s="10">
+        <v>2.4533200000000002</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>2.4145799999999999</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>2.4213399999999998</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>2.4264000000000001</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>2.43167</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>2.4366699999999999</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>2.4424000000000001</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>2.4479199999999999</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="H28" s="10">
+        <v>2.4535</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>2.4147799999999999</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10">
         <v>2.4265699999999999</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>2.4318399999999998</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>2.4368400000000001</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>2.44259</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <v>2.4481000000000002</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="H29" s="10">
+        <v>2.4536799999999999</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>2.4149799999999999</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="11">
+      <c r="B30" s="8"/>
+      <c r="C30" s="10">
         <v>2.4267400000000001</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>2.43201</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>2.4370099999999999</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>2.44278</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <v>2.44828</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="H30" s="10">
+        <v>2.4538600000000002</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>2.4151799999999999</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="11">
+      <c r="B31" s="8"/>
+      <c r="C31" s="10">
         <v>2.4269099999999999</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>2.4371800000000001</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="11">
+      <c r="F31" s="3"/>
+      <c r="G31" s="10">
         <v>2.4484599999999999</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="7"/>
+      <c r="H31" s="10">
+        <v>2.45404</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F32" s="2"/>
@@ -4177,6 +4236,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2023.xlsx
+++ b/2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\test-flask-python-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\NICHOS WEB\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9670F8F2-0178-464B-8FB2-E311E94298AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CAF9E6-54A4-46E4-A6B9-675CFF89064A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,8 +375,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -413,7 +413,9 @@
       <c r="I1" s="10">
         <v>2.4542199999999998</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="10">
+        <v>2.4602400000000002</v>
+      </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
@@ -445,7 +447,9 @@
       <c r="I2" s="10">
         <v>2.4544000000000001</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="10">
+        <v>2.4604400000000002</v>
+      </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
@@ -477,7 +481,9 @@
       <c r="I3" s="10">
         <v>2.45458</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="10">
+        <v>2.4606400000000002</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
@@ -509,7 +515,9 @@
       <c r="I4" s="10">
         <v>2.4547599999999998</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="10">
+        <v>2.4608400000000001</v>
+      </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
@@ -541,7 +549,9 @@
       <c r="I5" s="10">
         <v>2.4549400000000001</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="10">
+        <v>2.4610400000000001</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
@@ -573,7 +583,9 @@
       <c r="I6" s="10">
         <v>2.45512</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="10">
+        <v>2.4612400000000001</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
@@ -605,7 +617,9 @@
       <c r="I7" s="10">
         <v>2.4552999999999998</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="10">
+        <v>2.4614400000000001</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
@@ -637,7 +651,9 @@
       <c r="I8" s="10">
         <v>2.4554800000000001</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="10">
+        <v>2.4616400000000001</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
@@ -669,7 +685,9 @@
       <c r="I9" s="10">
         <v>2.45566</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="10">
+        <v>2.46184</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
@@ -701,7 +719,9 @@
       <c r="I10" s="10">
         <v>2.4558399999999998</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="10">
+        <v>2.46204</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
@@ -730,7 +750,9 @@
       <c r="H11" s="10">
         <v>2.45044</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="10">
+        <v>2.4560499999999998</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -761,7 +783,9 @@
       <c r="H12" s="10">
         <v>2.4506199999999998</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="10">
+        <v>2.4562599999999999</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -791,7 +815,9 @@
       <c r="H13" s="10">
         <v>2.4508000000000001</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="10">
+        <v>2.4564699999999999</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -821,7 +847,9 @@
       <c r="H14" s="10">
         <v>2.4509799999999999</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="10">
+        <v>2.45668</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -851,7 +879,9 @@
       <c r="H15" s="10">
         <v>2.4511599999999998</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="10">
+        <v>2.45689</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -881,7 +911,9 @@
       <c r="H16" s="10">
         <v>2.4513400000000001</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="10">
+        <v>2.4571000000000001</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -911,7 +943,9 @@
       <c r="H17" s="10">
         <v>2.4515199999999999</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="10">
+        <v>2.4573100000000001</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -941,7 +975,9 @@
       <c r="H18" s="10">
         <v>2.4517000000000002</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="10">
+        <v>2.4575200000000001</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -971,7 +1007,9 @@
       <c r="H19" s="10">
         <v>2.4518800000000001</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="10">
+        <v>2.4577300000000002</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1001,7 +1039,9 @@
       <c r="H20" s="10">
         <v>2.4520599999999999</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="10">
+        <v>2.4579399999999998</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -1031,7 +1071,9 @@
       <c r="H21" s="10">
         <v>2.4522400000000002</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="10">
+        <v>2.4581499999999998</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -1061,7 +1103,9 @@
       <c r="H22" s="10">
         <v>2.45242</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="I22" s="10">
+        <v>2.4583599999999999</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1091,7 +1135,9 @@
       <c r="H23" s="10">
         <v>2.4525999999999999</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="I23" s="10">
+        <v>2.4585699999999999</v>
+      </c>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -1121,7 +1167,9 @@
       <c r="H24" s="10">
         <v>2.4527800000000002</v>
       </c>
-      <c r="I24" s="4"/>
+      <c r="I24" s="10">
+        <v>2.45878</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -1151,7 +1199,9 @@
       <c r="H25" s="10">
         <v>2.45296</v>
       </c>
-      <c r="I25" s="4"/>
+      <c r="I25" s="10">
+        <v>2.45899</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -1181,7 +1231,9 @@
       <c r="H26" s="10">
         <v>2.4531399999999999</v>
       </c>
-      <c r="I26" s="4"/>
+      <c r="I26" s="10">
+        <v>2.4592000000000001</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -1211,7 +1263,9 @@
       <c r="H27" s="10">
         <v>2.4533200000000002</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="10">
+        <v>2.4594100000000001</v>
+      </c>
       <c r="J27" s="5"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -1241,7 +1295,9 @@
       <c r="H28" s="10">
         <v>2.4535</v>
       </c>
-      <c r="I28" s="4"/>
+      <c r="I28" s="10">
+        <v>2.4596200000000001</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -1269,7 +1325,9 @@
       <c r="H29" s="10">
         <v>2.4536799999999999</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="10">
+        <v>2.4598300000000002</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -1297,7 +1355,9 @@
       <c r="H30" s="10">
         <v>2.4538600000000002</v>
       </c>
-      <c r="I30" s="4"/>
+      <c r="I30" s="10">
+        <v>2.4600399999999998</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>

--- a/2023.xlsx
+++ b/2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\NICHOS WEB\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CAF9E6-54A4-46E4-A6B9-675CFF89064A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5106EF19-ED3A-4071-86E5-F4053AE94CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,8 +375,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -416,7 +416,9 @@
       <c r="J1" s="10">
         <v>2.4602400000000002</v>
       </c>
-      <c r="K1" s="6"/>
+      <c r="K1" s="10">
+        <v>2.4662199999999999</v>
+      </c>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -450,7 +452,9 @@
       <c r="J2" s="10">
         <v>2.4604400000000002</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="10">
+        <v>2.4664100000000002</v>
+      </c>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -484,7 +488,9 @@
       <c r="J3" s="10">
         <v>2.4606400000000002</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="10">
+        <v>2.4666000000000001</v>
+      </c>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -518,7 +524,9 @@
       <c r="J4" s="10">
         <v>2.4608400000000001</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="10">
+        <v>2.46679</v>
+      </c>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -552,7 +560,9 @@
       <c r="J5" s="10">
         <v>2.4610400000000001</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="10">
+        <v>2.46698</v>
+      </c>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -586,7 +596,9 @@
       <c r="J6" s="10">
         <v>2.4612400000000001</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="10">
+        <v>2.4671699999999999</v>
+      </c>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -620,7 +632,9 @@
       <c r="J7" s="10">
         <v>2.4614400000000001</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="10">
+        <v>2.4673600000000002</v>
+      </c>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -654,7 +668,9 @@
       <c r="J8" s="10">
         <v>2.4616400000000001</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="10">
+        <v>2.4675500000000001</v>
+      </c>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -688,7 +704,9 @@
       <c r="J9" s="10">
         <v>2.46184</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="10">
+        <v>2.46774</v>
+      </c>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -722,7 +740,9 @@
       <c r="J10" s="10">
         <v>2.46204</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="10">
+        <v>2.46793</v>
+      </c>
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -753,7 +773,9 @@
       <c r="I11" s="10">
         <v>2.4560499999999998</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="10">
+        <v>2.4622299999999999</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -786,7 +808,9 @@
       <c r="I12" s="10">
         <v>2.4562599999999999</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="10">
+        <v>2.4624199999999998</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
@@ -818,7 +842,9 @@
       <c r="I13" s="10">
         <v>2.4564699999999999</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="10">
+        <v>2.4626100000000002</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
@@ -850,7 +876,9 @@
       <c r="I14" s="10">
         <v>2.45668</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="10">
+        <v>2.4628000000000001</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
@@ -882,7 +910,9 @@
       <c r="I15" s="10">
         <v>2.45689</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="10">
+        <v>2.46299</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
@@ -914,7 +944,9 @@
       <c r="I16" s="10">
         <v>2.4571000000000001</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="10">
+        <v>2.4631799999999999</v>
+      </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
@@ -946,7 +978,9 @@
       <c r="I17" s="10">
         <v>2.4573100000000001</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17" s="10">
+        <v>2.4633699999999998</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
@@ -978,7 +1012,9 @@
       <c r="I18" s="10">
         <v>2.4575200000000001</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="10">
+        <v>2.4635600000000002</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
@@ -1010,7 +1046,9 @@
       <c r="I19" s="10">
         <v>2.4577300000000002</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19" s="10">
+        <v>2.4637500000000001</v>
+      </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
@@ -1042,7 +1080,9 @@
       <c r="I20" s="10">
         <v>2.4579399999999998</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="10">
+        <v>2.46394</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
@@ -1074,7 +1114,9 @@
       <c r="I21" s="10">
         <v>2.4581499999999998</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J21" s="10">
+        <v>2.4641299999999999</v>
+      </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
@@ -1106,7 +1148,9 @@
       <c r="I22" s="10">
         <v>2.4583599999999999</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="J22" s="10">
+        <v>2.4643199999999998</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
@@ -1138,7 +1182,9 @@
       <c r="I23" s="10">
         <v>2.4585699999999999</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="J23" s="10">
+        <v>2.4645100000000002</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
@@ -1170,7 +1216,9 @@
       <c r="I24" s="10">
         <v>2.45878</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="J24" s="10">
+        <v>2.4647000000000001</v>
+      </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
@@ -1202,7 +1250,9 @@
       <c r="I25" s="10">
         <v>2.45899</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="J25" s="10">
+        <v>2.46489</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
@@ -1234,7 +1284,9 @@
       <c r="I26" s="10">
         <v>2.4592000000000001</v>
       </c>
-      <c r="J26" s="5"/>
+      <c r="J26" s="10">
+        <v>2.4650799999999999</v>
+      </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
@@ -1266,7 +1318,9 @@
       <c r="I27" s="10">
         <v>2.4594100000000001</v>
       </c>
-      <c r="J27" s="5"/>
+      <c r="J27" s="10">
+        <v>2.4652699999999999</v>
+      </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
@@ -1298,7 +1352,9 @@
       <c r="I28" s="10">
         <v>2.4596200000000001</v>
       </c>
-      <c r="J28" s="5"/>
+      <c r="J28" s="10">
+        <v>2.4654600000000002</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
     </row>
@@ -1328,7 +1384,9 @@
       <c r="I29" s="10">
         <v>2.4598300000000002</v>
       </c>
-      <c r="J29" s="5"/>
+      <c r="J29" s="10">
+        <v>2.4656500000000001</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
@@ -1358,7 +1416,9 @@
       <c r="I30" s="10">
         <v>2.4600399999999998</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="J30" s="10">
+        <v>2.46584</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
@@ -1382,7 +1442,9 @@
         <v>2.45404</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="5"/>
+      <c r="J31" s="10">
+        <v>2.4660299999999999</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="6"/>
     </row>

--- a/2023.xlsx
+++ b/2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\NICHOS WEB\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5106EF19-ED3A-4071-86E5-F4053AE94CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1952F4-8DAE-4472-A19F-8E39859CC6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,9 @@
       <c r="K1" s="10">
         <v>2.4662199999999999</v>
       </c>
-      <c r="L1" s="6"/>
+      <c r="L1" s="10">
+        <v>2.4708700000000001</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
@@ -455,7 +457,9 @@
       <c r="K2" s="10">
         <v>2.4664100000000002</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="10">
+        <v>2.4710100000000002</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
@@ -491,7 +495,9 @@
       <c r="K3" s="10">
         <v>2.4666000000000001</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="10">
+        <v>2.4711500000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -527,7 +533,9 @@
       <c r="K4" s="10">
         <v>2.46679</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="10">
+        <v>2.4712900000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
@@ -563,7 +571,9 @@
       <c r="K5" s="10">
         <v>2.46698</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="10">
+        <v>2.4714299999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -599,7 +609,9 @@
       <c r="K6" s="10">
         <v>2.4671699999999999</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="10">
+        <v>2.4715699999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
@@ -635,7 +647,9 @@
       <c r="K7" s="10">
         <v>2.4673600000000002</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="10">
+        <v>2.4717099999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -671,7 +685,9 @@
       <c r="K8" s="10">
         <v>2.4675500000000001</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="10">
+        <v>2.4718499999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -707,7 +723,9 @@
       <c r="K9" s="10">
         <v>2.46774</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="10">
+        <v>2.4719899999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -743,7 +761,9 @@
       <c r="K10" s="10">
         <v>2.46793</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="10">
+        <v>2.4721299999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -776,7 +796,9 @@
       <c r="J11" s="10">
         <v>2.4622299999999999</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="10">
+        <v>2.46807</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
@@ -811,7 +833,9 @@
       <c r="J12" s="10">
         <v>2.4624199999999998</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="10">
+        <v>2.46821</v>
+      </c>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -845,7 +869,9 @@
       <c r="J13" s="10">
         <v>2.4626100000000002</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="10">
+        <v>2.46835</v>
+      </c>
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -879,7 +905,9 @@
       <c r="J14" s="10">
         <v>2.4628000000000001</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="10">
+        <v>2.4684900000000001</v>
+      </c>
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -913,7 +941,9 @@
       <c r="J15" s="10">
         <v>2.46299</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="10">
+        <v>2.4686300000000001</v>
+      </c>
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -947,7 +977,9 @@
       <c r="J16" s="10">
         <v>2.4631799999999999</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="10">
+        <v>2.4687700000000001</v>
+      </c>
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -981,7 +1013,9 @@
       <c r="J17" s="10">
         <v>2.4633699999999998</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="10">
+        <v>2.4689100000000002</v>
+      </c>
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1015,7 +1049,9 @@
       <c r="J18" s="10">
         <v>2.4635600000000002</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="10">
+        <v>2.4690500000000002</v>
+      </c>
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1049,7 +1085,9 @@
       <c r="J19" s="10">
         <v>2.4637500000000001</v>
       </c>
-      <c r="K19" s="6"/>
+      <c r="K19" s="10">
+        <v>2.4691900000000002</v>
+      </c>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1083,7 +1121,9 @@
       <c r="J20" s="10">
         <v>2.46394</v>
       </c>
-      <c r="K20" s="6"/>
+      <c r="K20" s="10">
+        <v>2.4693299999999998</v>
+      </c>
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1117,7 +1157,9 @@
       <c r="J21" s="10">
         <v>2.4641299999999999</v>
       </c>
-      <c r="K21" s="6"/>
+      <c r="K21" s="10">
+        <v>2.4694699999999998</v>
+      </c>
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1151,7 +1193,9 @@
       <c r="J22" s="10">
         <v>2.4643199999999998</v>
       </c>
-      <c r="K22" s="6"/>
+      <c r="K22" s="10">
+        <v>2.4696099999999999</v>
+      </c>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1185,7 +1229,9 @@
       <c r="J23" s="10">
         <v>2.4645100000000002</v>
       </c>
-      <c r="K23" s="6"/>
+      <c r="K23" s="10">
+        <v>2.4697499999999999</v>
+      </c>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1219,7 +1265,9 @@
       <c r="J24" s="10">
         <v>2.4647000000000001</v>
       </c>
-      <c r="K24" s="6"/>
+      <c r="K24" s="10">
+        <v>2.4698899999999999</v>
+      </c>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1253,7 +1301,9 @@
       <c r="J25" s="10">
         <v>2.46489</v>
       </c>
-      <c r="K25" s="6"/>
+      <c r="K25" s="10">
+        <v>2.4700299999999999</v>
+      </c>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1287,7 +1337,9 @@
       <c r="J26" s="10">
         <v>2.4650799999999999</v>
       </c>
-      <c r="K26" s="6"/>
+      <c r="K26" s="10">
+        <v>2.47017</v>
+      </c>
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1321,7 +1373,9 @@
       <c r="J27" s="10">
         <v>2.4652699999999999</v>
       </c>
-      <c r="K27" s="6"/>
+      <c r="K27" s="10">
+        <v>2.47031</v>
+      </c>
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1355,7 +1409,9 @@
       <c r="J28" s="10">
         <v>2.4654600000000002</v>
       </c>
-      <c r="K28" s="6"/>
+      <c r="K28" s="10">
+        <v>2.47045</v>
+      </c>
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1387,7 +1443,9 @@
       <c r="J29" s="10">
         <v>2.4656500000000001</v>
       </c>
-      <c r="K29" s="6"/>
+      <c r="K29" s="10">
+        <v>2.4705900000000001</v>
+      </c>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1419,7 +1477,9 @@
       <c r="J30" s="10">
         <v>2.46584</v>
       </c>
-      <c r="K30" s="6"/>
+      <c r="K30" s="10">
+        <v>2.4707300000000001</v>
+      </c>
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">

--- a/2023.xlsx
+++ b/2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\NICHOS WEB\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1952F4-8DAE-4472-A19F-8E39859CC6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE657FC0-BF90-446C-B76A-C544C755FDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -799,7 +799,9 @@
       <c r="K11" s="10">
         <v>2.46807</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="10">
+        <v>2.4722400000000002</v>
+      </c>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -836,7 +838,9 @@
       <c r="K12" s="10">
         <v>2.46821</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="10">
+        <v>2.47235</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -872,7 +876,9 @@
       <c r="K13" s="10">
         <v>2.46835</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="10">
+        <v>2.4724599999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -908,7 +914,9 @@
       <c r="K14" s="10">
         <v>2.4684900000000001</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="10">
+        <v>2.4725700000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -944,7 +952,9 @@
       <c r="K15" s="10">
         <v>2.4686300000000001</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="10">
+        <v>2.47268</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
@@ -980,7 +990,9 @@
       <c r="K16" s="10">
         <v>2.4687700000000001</v>
       </c>
-      <c r="L16" s="6"/>
+      <c r="L16" s="10">
+        <v>2.4727899999999998</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
@@ -1016,7 +1028,9 @@
       <c r="K17" s="10">
         <v>2.4689100000000002</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="10">
+        <v>2.4729000000000001</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
@@ -1052,7 +1066,9 @@
       <c r="K18" s="10">
         <v>2.4690500000000002</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="10">
+        <v>2.4730099999999999</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
@@ -1088,7 +1104,9 @@
       <c r="K19" s="10">
         <v>2.4691900000000002</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="10">
+        <v>2.4731200000000002</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
@@ -1124,7 +1142,9 @@
       <c r="K20" s="10">
         <v>2.4693299999999998</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="10">
+        <v>2.47323</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
@@ -1160,7 +1180,9 @@
       <c r="K21" s="10">
         <v>2.4694699999999998</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="10">
+        <v>2.4733399999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
@@ -1196,7 +1218,9 @@
       <c r="K22" s="10">
         <v>2.4696099999999999</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="10">
+        <v>2.4734500000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
@@ -1232,7 +1256,9 @@
       <c r="K23" s="10">
         <v>2.4697499999999999</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="10">
+        <v>2.47356</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
@@ -1268,7 +1294,9 @@
       <c r="K24" s="10">
         <v>2.4698899999999999</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="10">
+        <v>2.4736699999999998</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
@@ -1304,7 +1332,9 @@
       <c r="K25" s="10">
         <v>2.4700299999999999</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="10">
+        <v>2.4737800000000001</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
@@ -1340,7 +1370,9 @@
       <c r="K26" s="10">
         <v>2.47017</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="10">
+        <v>2.4738899999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
@@ -1376,7 +1408,9 @@
       <c r="K27" s="10">
         <v>2.47031</v>
       </c>
-      <c r="L27" s="6"/>
+      <c r="L27" s="10">
+        <v>2.4740000000000002</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
@@ -1412,7 +1446,9 @@
       <c r="K28" s="10">
         <v>2.47045</v>
       </c>
-      <c r="L28" s="6"/>
+      <c r="L28" s="10">
+        <v>2.47411</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
@@ -1446,7 +1482,9 @@
       <c r="K29" s="10">
         <v>2.4705900000000001</v>
       </c>
-      <c r="L29" s="6"/>
+      <c r="L29" s="10">
+        <v>2.4742199999999999</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
@@ -1480,7 +1518,9 @@
       <c r="K30" s="10">
         <v>2.4707300000000001</v>
       </c>
-      <c r="L30" s="6"/>
+      <c r="L30" s="10">
+        <v>2.4743300000000001</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
@@ -1506,7 +1546,9 @@
         <v>2.4660299999999999</v>
       </c>
       <c r="K31" s="7"/>
-      <c r="L31" s="6"/>
+      <c r="L31" s="10">
+        <v>2.47444</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F32" s="2"/>
